--- a/config/default/forms/app/pnc_danger_sign_follow_up_baby.xlsx
+++ b/config/default/forms/app/pnc_danger_sign_follow_up_baby.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="283">
   <si>
     <t>type</t>
   </si>
@@ -115,16 +115,22 @@
     <t>repeat_count</t>
   </si>
   <si>
+    <t>cht::notes</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
     <t>list_name</t>
   </si>
   <si>
     <t>form_title</t>
   </si>
   <si>
-    <t>cht::notes</t>
-  </si>
-  <si>
-    <t>begin group</t>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
   </si>
   <si>
     <t>form_id</t>
@@ -142,13 +148,31 @@
     <t>instance_name</t>
   </si>
   <si>
+    <t>./source = 'user'</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
     <t>default_language</t>
   </si>
   <si>
-    <t>inputs</t>
-  </si>
-  <si>
-    <t>Patient</t>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>Source ID</t>
   </si>
   <si>
     <t>PNC danger sign follow-up - baby</t>
@@ -157,28 +181,22 @@
     <t>pnc_danger_sign_follow_up_baby</t>
   </si>
   <si>
-    <t>./source = 'user'</t>
-  </si>
-  <si>
-    <t>field-list</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>Source ID</t>
+    <t>delivery_uuid</t>
+  </si>
+  <si>
+    <t>Delivery Report ID</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>contact</t>
   </si>
   <si>
     <t>pages</t>
@@ -190,27 +208,6 @@
     <t>en</t>
   </si>
   <si>
-    <t>yes_no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>delivery_uuid</t>
-  </si>
-  <si>
-    <t>Delivery Report ID</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
     <t>db:person</t>
   </si>
   <si>
@@ -259,9 +256,6 @@
     <t>parent</t>
   </si>
   <si>
-    <t>Parent</t>
-  </si>
-  <si>
     <t>Parent ID</t>
   </si>
   <si>
@@ -286,7 +280,64 @@
     <t>patient_age_in_years</t>
   </si>
   <si>
-    <t>NO_LABEL</t>
+    <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
+  </si>
+  <si>
+    <t>patient_uuid</t>
+  </si>
+  <si>
+    <t>../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t>../inputs/contact/patient_id</t>
+  </si>
+  <si>
+    <t>patient_name</t>
+  </si>
+  <si>
+    <t>../inputs/contact/name</t>
+  </si>
+  <si>
+    <t>t_danger_signs_referral_follow_up_date</t>
+  </si>
+  <si>
+    <t>date-time(floor(decimal-date-time(today())) + 3)</t>
+  </si>
+  <si>
+    <t>t_danger_signs_referral_follow_up</t>
+  </si>
+  <si>
+    <t>../danger_signs/r_danger_sign_present</t>
+  </si>
+  <si>
+    <t>danger_signs</t>
+  </si>
+  <si>
+    <t>Danger Sign Follow-up - Baby</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>visit_confirm</t>
+  </si>
+  <si>
+    <t>Was the baby taken to the health facility as recommended?</t>
+  </si>
+  <si>
+    <t>danger_sign_present</t>
+  </si>
+  <si>
+    <t>Is the baby still experiencing any danger signs?</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>danger_signs_question_note</t>
+  </si>
+  <si>
+    <t>Please confirm if the baby has any of the following danger signs.</t>
   </si>
   <si>
     <t>lmp_approximations</t>
@@ -298,7 +349,7 @@
     <t>Upto 2 Months Ago</t>
   </si>
   <si>
-    <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
+    <t>../danger_sign_present = 'yes' or ../danger_sign_present = 'no'</t>
   </si>
   <si>
     <t>upto_3_months_ago</t>
@@ -307,46 +358,55 @@
     <t>Upto 3 Months Ago</t>
   </si>
   <si>
+    <t>infected_umbilical_cord</t>
+  </si>
+  <si>
+    <t>Infected umbilical cord</t>
+  </si>
+  <si>
     <t>upto_4_months_ago</t>
   </si>
   <si>
     <t>Upto 4 Months Ago</t>
   </si>
   <si>
-    <t>patient_uuid</t>
+    <t>convulsion</t>
   </si>
   <si>
     <t>between_5_and_6_months_ago</t>
   </si>
   <si>
+    <t>Convulsions</t>
+  </si>
+  <si>
     <t>Between 5 And 6 Months Ago</t>
   </si>
   <si>
-    <t>../inputs/contact/_id</t>
-  </si>
-  <si>
     <t>between_7_and_8_months_ago</t>
   </si>
   <si>
     <t>Between 7 And 8 Months Ago</t>
   </si>
   <si>
-    <t>../inputs/contact/patient_id</t>
+    <t>difficulty_feeding</t>
+  </si>
+  <si>
+    <t>Difficulty feeding or drinking</t>
   </si>
   <si>
     <t>trimester1_choices</t>
   </si>
   <si>
+    <t>vomit</t>
+  </si>
+  <si>
     <t>eat_extra_meal</t>
   </si>
   <si>
-    <t>patient_name</t>
-  </si>
-  <si>
     <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
   </si>
   <si>
-    <t>../inputs/contact/name</t>
+    <t>Vomits everything</t>
   </si>
   <si>
     <t>take_iron_and_folic_acid</t>
@@ -355,7 +415,10 @@
     <t>Take iron and folic acid tablets</t>
   </si>
   <si>
-    <t>t_danger_signs_referral_follow_up_date</t>
+    <t>drowsy</t>
+  </si>
+  <si>
+    <t>Drowsy or unconscious</t>
   </si>
   <si>
     <t>avoid_heavy_work</t>
@@ -367,10 +430,13 @@
     <t>sleep_under_bednet</t>
   </si>
   <si>
+    <t>stiff</t>
+  </si>
+  <si>
     <t>Sleep under an insecticide treated bednet</t>
   </si>
   <si>
-    <t>date-time(floor(decimal-date-time(today())) + 3)</t>
+    <t>Body stiffness</t>
   </si>
   <si>
     <t>go_for_anc_visit</t>
@@ -379,7 +445,10 @@
     <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
   </si>
   <si>
-    <t>t_danger_signs_referral_follow_up</t>
+    <t>yellow_skin</t>
+  </si>
+  <si>
+    <t>Yellow skin color</t>
   </si>
   <si>
     <t>develop_birth_plan</t>
@@ -388,196 +457,22 @@
     <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
   </si>
   <si>
-    <t>../danger_signs/r_danger_sign_present</t>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>Fever</t>
   </si>
   <si>
     <t>trimester2_choices</t>
   </si>
   <si>
-    <t>danger_signs</t>
-  </si>
-  <si>
-    <t>Danger Sign Follow-up - Baby</t>
-  </si>
-  <si>
-    <t>couselling_on_exclusive_breastfeeding</t>
-  </si>
-  <si>
-    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
-  </si>
-  <si>
-    <t>select_one yes_no</t>
-  </si>
-  <si>
-    <t>conditions</t>
-  </si>
-  <si>
-    <t>heart_condition</t>
-  </si>
-  <si>
-    <t>Heart condition</t>
-  </si>
-  <si>
-    <t>visit_confirm</t>
-  </si>
-  <si>
-    <t>Was the baby taken to the health facility as recommended?</t>
-  </si>
-  <si>
-    <t>asthma</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
-    <t>high_blood_pressure</t>
-  </si>
-  <si>
-    <t>High blood pressure</t>
-  </si>
-  <si>
-    <t>known_diabetes</t>
-  </si>
-  <si>
-    <t>Known diabetes</t>
-  </si>
-  <si>
-    <t>danger_sign_present</t>
-  </si>
-  <si>
-    <t>Is the baby still experiencing any danger signs?</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>danger_signs_question_note</t>
-  </si>
-  <si>
-    <t>Please confirm if the baby has any of the following danger signs.</t>
-  </si>
-  <si>
-    <t>../danger_sign_present = 'yes' or ../danger_sign_present = 'no'</t>
-  </si>
-  <si>
-    <t>hiv_statuses</t>
-  </si>
-  <si>
-    <t>known</t>
-  </si>
-  <si>
-    <t>infected_umbilical_cord</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>Infected umbilical cord</t>
-  </si>
-  <si>
-    <t>convulsion</t>
-  </si>
-  <si>
-    <t>Convulsions</t>
-  </si>
-  <si>
-    <t>fp_methods</t>
-  </si>
-  <si>
-    <t>difficulty_feeding</t>
-  </si>
-  <si>
-    <t>Difficulty feeding or drinking</t>
-  </si>
-  <si>
-    <t>vomit</t>
-  </si>
-  <si>
-    <t>Vomits everything</t>
-  </si>
-  <si>
-    <t>drowsy</t>
-  </si>
-  <si>
-    <t>Drowsy or unconscious</t>
-  </si>
-  <si>
-    <t>Combined oral contraceptives</t>
-  </si>
-  <si>
-    <t>stiff</t>
-  </si>
-  <si>
-    <t>Body stiffness</t>
-  </si>
-  <si>
-    <t>Progesterone only pills</t>
-  </si>
-  <si>
-    <t>Injectibles</t>
-  </si>
-  <si>
-    <t>Implants (1 rod)</t>
-  </si>
-  <si>
-    <t>Implants (2 rods)</t>
-  </si>
-  <si>
-    <t>yellow_skin</t>
-  </si>
-  <si>
-    <t>Yellow skin color</t>
-  </si>
-  <si>
-    <t>IUD</t>
-  </si>
-  <si>
-    <t>Condoms</t>
-  </si>
-  <si>
-    <t>Tubal ligation</t>
-  </si>
-  <si>
-    <t>fever</t>
-  </si>
-  <si>
-    <t>Fever</t>
-  </si>
-  <si>
-    <t>Cycle beads</t>
-  </si>
-  <si>
     <t>blue_skin</t>
   </si>
   <si>
     <t>Blue skin color (hypothermia)</t>
   </si>
   <si>
-    <t>reasons_not_on_fp</t>
-  </si>
-  <si>
-    <t>Wants to get pregnant</t>
-  </si>
-  <si>
     <t>r_danger_sign_present</t>
-  </si>
-  <si>
-    <t>Did not want FP</t>
-  </si>
-  <si>
-    <t>follow_up_methods</t>
-  </si>
-  <si>
-    <t>in_person</t>
-  </si>
-  <si>
-    <t>In person</t>
   </si>
   <si>
     <t>if(selected(../infected_umbilical_cord, 'yes') or
@@ -603,13 +498,226 @@
     <t>congratulate_no_ds_note</t>
   </si>
   <si>
+    <t>Great news! Please continue to closely monitor the baby.</t>
+  </si>
+  <si>
+    <t>../danger_sign_present = 'no' and ../r_danger_sign_present = 'no'</t>
+  </si>
+  <si>
+    <t>couselling_on_exclusive_breastfeeding</t>
+  </si>
+  <si>
+    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
+  </si>
+  <si>
+    <t>refer_patient_note_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The baby should be taken to the health facility immediately if experiencing any of these danger signs. </t>
+  </si>
+  <si>
+    <t>../danger_sign_present = 'yes' or ../r_danger_sign_present = 'yes'</t>
+  </si>
+  <si>
+    <t>refer_patient_note_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please advise the caregiver to do so and accompany them if possible. </t>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>heart_condition</t>
+  </si>
+  <si>
+    <t>Heart condition</t>
+  </si>
+  <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>high_blood_pressure</t>
+  </si>
+  <si>
+    <t>High blood pressure</t>
+  </si>
+  <si>
+    <t>known_diabetes</t>
+  </si>
+  <si>
+    <t>Known diabetes</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>hiv_statuses</t>
+  </si>
+  <si>
+    <t>known</t>
+  </si>
+  <si>
+    <t>__visited_hf</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>${visit_confirm}</t>
+  </si>
+  <si>
+    <t>Whether or not the baby was taken to the health facility as recommended.</t>
+  </si>
+  <si>
+    <t>__still_experiencing_danger_sign</t>
+  </si>
+  <si>
+    <t>fp_methods</t>
+  </si>
+  <si>
+    <t>${danger_sign_present}</t>
+  </si>
+  <si>
+    <t>Whether or not the baby is still experiencing any danger signs.</t>
+  </si>
+  <si>
+    <t>__infected_umbilical_cord</t>
+  </si>
+  <si>
+    <t>${infected_umbilical_cord}</t>
+  </si>
+  <si>
+    <t>Whether or not the umbilical cord was infected.</t>
+  </si>
+  <si>
+    <t>__convulsions</t>
+  </si>
+  <si>
+    <t>${convulsion}</t>
+  </si>
+  <si>
+    <t>Whether or not the baby is suffering from convulsions.</t>
+  </si>
+  <si>
+    <t>Combined oral contraceptives</t>
+  </si>
+  <si>
+    <t>__difficulty_feeding_or_drinking</t>
+  </si>
+  <si>
+    <t>Progesterone only pills</t>
+  </si>
+  <si>
+    <t>${difficulty_feeding}</t>
+  </si>
+  <si>
+    <t>Injectibles</t>
+  </si>
+  <si>
+    <t>Whether or not the baby is having difficulty feeding or drinking.</t>
+  </si>
+  <si>
+    <t>__vomits_everything</t>
+  </si>
+  <si>
+    <t>Implants (1 rod)</t>
+  </si>
+  <si>
+    <t>Implants (2 rods)</t>
+  </si>
+  <si>
+    <t>${vomit}</t>
+  </si>
+  <si>
+    <t>IUD</t>
+  </si>
+  <si>
+    <t>Whether or not the baby vomits everything.</t>
+  </si>
+  <si>
+    <t>__drowsy_or_unconscious</t>
+  </si>
+  <si>
+    <t>Condoms</t>
+  </si>
+  <si>
+    <t>${drowsy}</t>
+  </si>
+  <si>
+    <t>Tubal ligation</t>
+  </si>
+  <si>
+    <t>Whether or not the baby is drowsy or unconscious.</t>
+  </si>
+  <si>
+    <t>Cycle beads</t>
+  </si>
+  <si>
+    <t>__body_stiffness</t>
+  </si>
+  <si>
+    <t>${stiff}</t>
+  </si>
+  <si>
+    <t>Whether or not the baby's body is stiff.</t>
+  </si>
+  <si>
+    <t>__yellow_skin_color</t>
+  </si>
+  <si>
+    <t>${yellow_skin}</t>
+  </si>
+  <si>
+    <t>reasons_not_on_fp</t>
+  </si>
+  <si>
+    <t>Whether or not the baby has yellow skin color.</t>
+  </si>
+  <si>
+    <t>Wants to get pregnant</t>
+  </si>
+  <si>
+    <t>__fever</t>
+  </si>
+  <si>
+    <t>Did not want FP</t>
+  </si>
+  <si>
+    <t>follow_up_methods</t>
+  </si>
+  <si>
+    <t>${fever}</t>
+  </si>
+  <si>
+    <t>in_person</t>
+  </si>
+  <si>
+    <t>In person</t>
+  </si>
+  <si>
+    <t>Whether or not the baby has a fever.</t>
+  </si>
+  <si>
+    <t>__blue_skin_color</t>
+  </si>
+  <si>
     <t>by_phone</t>
   </si>
   <si>
     <t>By phone</t>
   </si>
   <si>
-    <t>Great news! Please continue to closely monitor the baby.</t>
+    <t>${blue_skin}</t>
+  </si>
+  <si>
+    <t>Whether or not the baby has blue skin color (hypothermia).</t>
   </si>
   <si>
     <t>reasons_for_missing_visit</t>
@@ -621,7 +729,7 @@
     <t>She was not reminded</t>
   </si>
   <si>
-    <t>../danger_sign_present = 'no' and ../r_danger_sign_present = 'no'</t>
+    <t>__has_danger_sign</t>
   </si>
   <si>
     <t>travelled</t>
@@ -630,12 +738,18 @@
     <t>She had travelled</t>
   </si>
   <si>
+    <t>${r_danger_sign_present}</t>
+  </si>
+  <si>
     <t>no_lab_results</t>
   </si>
   <si>
     <t>No Lab results yet</t>
   </si>
   <si>
+    <t>Whether or not any danger signs are present.</t>
+  </si>
+  <si>
     <t>too_early</t>
   </si>
   <si>
@@ -648,6 +762,9 @@
     <t>Relocated</t>
   </si>
   <si>
+    <t>meta</t>
+  </si>
+  <si>
     <t>actions_taken</t>
   </si>
   <si>
@@ -657,27 +774,18 @@
     <t>Referred the mother</t>
   </si>
   <si>
-    <t>refer_patient_note_1</t>
-  </si>
-  <si>
     <t>key_message</t>
   </si>
   <si>
     <t>Provided key health message</t>
   </si>
   <si>
-    <t xml:space="preserve">The baby should be taken to the health facility immediately if experiencing any of these danger signs. </t>
-  </si>
-  <si>
     <t>accompany</t>
   </si>
   <si>
     <t>Accompany the mother to facility</t>
   </si>
   <si>
-    <t>../danger_sign_present = 'yes' or ../r_danger_sign_present = 'yes'</t>
-  </si>
-  <si>
     <t>recent_foods</t>
   </si>
   <si>
@@ -693,6 +801,9 @@
     <t>Body building foods: Milk, eggs, meat</t>
   </si>
   <si>
+    <t>__patient_uuid</t>
+  </si>
+  <si>
     <t>vegetables</t>
   </si>
   <si>
@@ -705,18 +816,15 @@
     <t>Fruits: Mangoes, ripe bananas, oranges</t>
   </si>
   <si>
+    <t>../../../inputs/contact/_id</t>
+  </si>
+  <si>
     <t>none</t>
   </si>
   <si>
-    <t>refer_patient_note_2</t>
-  </si>
-  <si>
     <t>None of the above</t>
   </si>
   <si>
-    <t xml:space="preserve">Please advise the caregiver to do so and accompany them if possible. </t>
-  </si>
-  <si>
     <t>pos_neg</t>
   </si>
   <si>
@@ -726,6 +834,9 @@
     <t>Positive</t>
   </si>
   <si>
+    <t>__patient_id</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -738,136 +849,16 @@
     <t>wants_to_get_pregnant</t>
   </si>
   <si>
+    <t>../../../inputs/contact/patient_id</t>
+  </si>
+  <si>
+    <t>__household_uuid</t>
+  </si>
+  <si>
     <t>feels_sick_when_using_it</t>
   </si>
   <si>
     <t>Feels sick when using it</t>
-  </si>
-  <si>
-    <t>__visited_hf</t>
-  </si>
-  <si>
-    <t>${visit_confirm}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby was taken to the health facility as recommended.</t>
-  </si>
-  <si>
-    <t>__still_experiencing_danger_sign</t>
-  </si>
-  <si>
-    <t>${danger_sign_present}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby is still experiencing any danger signs.</t>
-  </si>
-  <si>
-    <t>__infected_umbilical_cord</t>
-  </si>
-  <si>
-    <t>${infected_umbilical_cord}</t>
-  </si>
-  <si>
-    <t>Whether or not the umbilical cord was infected.</t>
-  </si>
-  <si>
-    <t>__convulsions</t>
-  </si>
-  <si>
-    <t>${convulsion}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby is suffering from convulsions.</t>
-  </si>
-  <si>
-    <t>__difficulty_feeding_or_drinking</t>
-  </si>
-  <si>
-    <t>${difficulty_feeding}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby is having difficulty feeding or drinking.</t>
-  </si>
-  <si>
-    <t>__vomits_everything</t>
-  </si>
-  <si>
-    <t>${vomit}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby vomits everything.</t>
-  </si>
-  <si>
-    <t>__drowsy_or_unconscious</t>
-  </si>
-  <si>
-    <t>${drowsy}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby is drowsy or unconscious.</t>
-  </si>
-  <si>
-    <t>__body_stiffness</t>
-  </si>
-  <si>
-    <t>${stiff}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby's body is stiff.</t>
-  </si>
-  <si>
-    <t>__yellow_skin_color</t>
-  </si>
-  <si>
-    <t>${yellow_skin}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby has yellow skin color.</t>
-  </si>
-  <si>
-    <t>__fever</t>
-  </si>
-  <si>
-    <t>${fever}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby has a fever.</t>
-  </si>
-  <si>
-    <t>__blue_skin_color</t>
-  </si>
-  <si>
-    <t>${blue_skin}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby has blue skin color (hypothermia).</t>
-  </si>
-  <si>
-    <t>__has_danger_sign</t>
-  </si>
-  <si>
-    <t>${r_danger_sign_present}</t>
-  </si>
-  <si>
-    <t>Whether or not any danger signs are present.</t>
-  </si>
-  <si>
-    <t>meta</t>
-  </si>
-  <si>
-    <t>__patient_uuid</t>
-  </si>
-  <si>
-    <t>../../../inputs/contact/_id</t>
-  </si>
-  <si>
-    <t>__patient_id</t>
-  </si>
-  <si>
-    <t>../../../inputs/contact/patient_id</t>
-  </si>
-  <si>
-    <t>__household_uuid</t>
   </si>
   <si>
     <t>../../../inputs/contact/parent/_id</t>
@@ -907,12 +898,12 @@
     <font>
       <b/>
     </font>
+    <font/>
     <font>
       <b/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <b/>
       <sz val="11.0"/>
@@ -920,10 +911,10 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1013,14 +1004,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF8E7CC3"/>
+        <bgColor rgb="FF8E7CC3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8E7CC3"/>
-        <bgColor rgb="FF8E7CC3"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1030,7 +1021,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1039,40 +1030,31 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1080,55 +1062,67 @@
     <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,20 +1285,20 @@
         <v>32</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>44</v>
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1314,10 +1308,10 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -1345,14 +1339,14 @@
       <c r="AJ2" s="7"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -1381,7 +1375,7 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
@@ -1391,14 +1385,14 @@
       <c r="AJ3" s="7"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>53</v>
+      <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1435,14 +1429,14 @@
       <c r="AJ4" s="7"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>62</v>
+      <c r="A5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1479,14 +1473,14 @@
       <c r="AJ5" s="7"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>64</v>
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1523,14 +1517,14 @@
       <c r="AJ6" s="7"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1541,7 +1535,7 @@
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
@@ -1569,14 +1563,14 @@
       <c r="AJ7" s="7"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1613,14 +1607,14 @@
       <c r="AJ8" s="7"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>72</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>73</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1657,14 +1651,14 @@
       <c r="AJ9" s="7"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1701,14 +1695,14 @@
       <c r="AJ10" s="7"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1747,14 +1741,14 @@
       <c r="AJ11" s="7"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1791,14 +1785,14 @@
       <c r="AJ12" s="7"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>81</v>
+      <c r="A13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -1835,14 +1829,14 @@
       <c r="AJ13" s="7"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>66</v>
+      <c r="A14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1879,14 +1873,14 @@
       <c r="AJ14" s="7"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>81</v>
+      <c r="A15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -1923,14 +1917,14 @@
       <c r="AJ15" s="7"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>64</v>
+      <c r="A16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1967,14 +1961,14 @@
       <c r="AJ16" s="7"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>83</v>
+      <c r="A17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -2011,14 +2005,14 @@
       <c r="AJ17" s="7"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>85</v>
+      <c r="A18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -2055,11 +2049,11 @@
       <c r="AJ18" s="7"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>63</v>
+      <c r="A19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -2097,11 +2091,11 @@
       <c r="AJ19" s="7"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>80</v>
+      <c r="A20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -2139,11 +2133,11 @@
       <c r="AJ20" s="7"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>80</v>
+      <c r="A21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2181,11 +2175,11 @@
       <c r="AJ21" s="7"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>63</v>
+      <c r="A22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2223,11 +2217,11 @@
       <c r="AJ22" s="7"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>43</v>
+      <c r="A23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>37</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -2265,1176 +2259,1176 @@
       <c r="AJ23" s="7"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="AF24" s="27"/>
+      <c r="AF24" s="28"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="30"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="30"/>
+      <c r="U25" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="V25" s="30"/>
+      <c r="W25" s="30"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="30"/>
+      <c r="AA25" s="30"/>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AD25" s="30"/>
+      <c r="AE25" s="30"/>
+      <c r="AF25" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG25" s="30"/>
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="30"/>
+      <c r="AJ25" s="30"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C26" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29" t="s">
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="30"/>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="30"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="30"/>
+      <c r="U27" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="V27" s="30"/>
+      <c r="W27" s="30"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="30"/>
+      <c r="AA27" s="30"/>
+      <c r="AB27" s="30"/>
+      <c r="AC27" s="30"/>
+      <c r="AD27" s="30"/>
+      <c r="AE27" s="30"/>
+      <c r="AF27" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG27" s="30"/>
+      <c r="AH27" s="30"/>
+      <c r="AI27" s="30"/>
+      <c r="AJ27" s="30"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="30"/>
+      <c r="U28" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="V28" s="30"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="30"/>
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="30"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="29"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="29"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="29"/>
-      <c r="AF25" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG25" s="29"/>
-      <c r="AH25" s="29"/>
-      <c r="AI25" s="29"/>
-      <c r="AJ25" s="29"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="28" t="s">
+      <c r="C29" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="30"/>
+      <c r="U29" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="V29" s="30"/>
+      <c r="W29" s="30"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="30"/>
+      <c r="AA29" s="30"/>
+      <c r="AB29" s="30"/>
+      <c r="AC29" s="30"/>
+      <c r="AD29" s="30"/>
+      <c r="AE29" s="30"/>
+      <c r="AF29" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG29" s="30"/>
+      <c r="AH29" s="30"/>
+      <c r="AI29" s="30"/>
+      <c r="AJ29" s="30"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="30"/>
+      <c r="R30" s="30"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="30"/>
+      <c r="U30" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="V30" s="30"/>
+      <c r="W30" s="30"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="30"/>
+      <c r="AA30" s="30"/>
+      <c r="AB30" s="30"/>
+      <c r="AC30" s="30"/>
+      <c r="AD30" s="30"/>
+      <c r="AE30" s="30"/>
+      <c r="AF30" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG30" s="30"/>
+      <c r="AH30" s="30"/>
+      <c r="AI30" s="30"/>
+      <c r="AJ30" s="30"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29" t="s">
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="35"/>
+      <c r="AI32" s="35"/>
+      <c r="AJ32" s="35"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="29"/>
-      <c r="AA26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG26" s="29"/>
-      <c r="AH26" s="29"/>
-      <c r="AI26" s="29"/>
-      <c r="AJ26" s="29"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="29"/>
-      <c r="U27" s="30" t="s">
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="35"/>
+      <c r="AI33" s="35"/>
+      <c r="AJ33" s="35"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="35"/>
+      <c r="AA34" s="35"/>
+      <c r="AB34" s="35"/>
+      <c r="AC34" s="35"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35"/>
+      <c r="AF34" s="35"/>
+      <c r="AG34" s="35"/>
+      <c r="AH34" s="35"/>
+      <c r="AI34" s="35"/>
+      <c r="AJ34" s="35"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="V27" s="29"/>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="29"/>
-      <c r="AA27" s="29"/>
-      <c r="AB27" s="29"/>
-      <c r="AC27" s="29"/>
-      <c r="AD27" s="29"/>
-      <c r="AE27" s="29"/>
-      <c r="AF27" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG27" s="29"/>
-      <c r="AH27" s="29"/>
-      <c r="AI27" s="29"/>
-      <c r="AJ27" s="29"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="29"/>
-      <c r="U28" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="V28" s="29"/>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="29"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
-      <c r="AF28" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG28" s="29"/>
-      <c r="AH28" s="29"/>
-      <c r="AI28" s="29"/>
-      <c r="AJ28" s="29"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="30" t="s">
+      <c r="B35" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="35"/>
+      <c r="AA35" s="35"/>
+      <c r="AB35" s="35"/>
+      <c r="AC35" s="35"/>
+      <c r="AD35" s="35"/>
+      <c r="AE35" s="35"/>
+      <c r="AF35" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG35" s="35"/>
+      <c r="AH35" s="35"/>
+      <c r="AI35" s="35"/>
+      <c r="AJ35" s="35"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K36" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+      <c r="Z36" s="35"/>
+      <c r="AA36" s="35"/>
+      <c r="AB36" s="35"/>
+      <c r="AC36" s="35"/>
+      <c r="AD36" s="35"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="35"/>
+      <c r="AG36" s="35"/>
+      <c r="AH36" s="35"/>
+      <c r="AI36" s="35"/>
+      <c r="AJ36" s="35"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="V29" s="29"/>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="29"/>
-      <c r="AC29" s="29"/>
-      <c r="AD29" s="29"/>
-      <c r="AE29" s="29"/>
-      <c r="AF29" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG29" s="29"/>
-      <c r="AH29" s="29"/>
-      <c r="AI29" s="29"/>
-      <c r="AJ29" s="29"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="30" t="s">
+      <c r="C37" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K37" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="35"/>
+      <c r="AA37" s="35"/>
+      <c r="AB37" s="35"/>
+      <c r="AC37" s="35"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="35"/>
+      <c r="AF37" s="35"/>
+      <c r="AG37" s="35"/>
+      <c r="AH37" s="35"/>
+      <c r="AI37" s="35"/>
+      <c r="AJ37" s="35"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="V30" s="29"/>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
-      <c r="AB30" s="29"/>
-      <c r="AC30" s="29"/>
-      <c r="AD30" s="29"/>
-      <c r="AE30" s="29"/>
-      <c r="AF30" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="29"/>
-      <c r="AI30" s="29"/>
-      <c r="AJ30" s="29"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="33" t="s">
+      <c r="C38" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+      <c r="Z38" s="35"/>
+      <c r="AA38" s="35"/>
+      <c r="AB38" s="35"/>
+      <c r="AC38" s="35"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="35"/>
+      <c r="AF38" s="34"/>
+      <c r="AG38" s="35"/>
+      <c r="AH38" s="35"/>
+      <c r="AI38" s="35"/>
+      <c r="AJ38" s="35"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="34"/>
-      <c r="AG32" s="34"/>
-      <c r="AH32" s="34"/>
-      <c r="AI32" s="34"/>
-      <c r="AJ32" s="34"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="35" t="s">
+      <c r="C39" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K39" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+      <c r="Z39" s="35"/>
+      <c r="AA39" s="35"/>
+      <c r="AB39" s="35"/>
+      <c r="AC39" s="35"/>
+      <c r="AD39" s="35"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="35"/>
+      <c r="AG39" s="35"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="35"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="34"/>
-      <c r="AC33" s="34"/>
-      <c r="AD33" s="34"/>
-      <c r="AE33" s="34"/>
-      <c r="AF33" s="34"/>
-      <c r="AG33" s="34"/>
-      <c r="AH33" s="34"/>
-      <c r="AI33" s="34"/>
-      <c r="AJ33" s="34"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="33" t="s">
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+      <c r="Z40" s="35"/>
+      <c r="AA40" s="35"/>
+      <c r="AB40" s="35"/>
+      <c r="AC40" s="35"/>
+      <c r="AD40" s="35"/>
+      <c r="AE40" s="35"/>
+      <c r="AF40" s="35"/>
+      <c r="AG40" s="35"/>
+      <c r="AH40" s="35"/>
+      <c r="AI40" s="35"/>
+      <c r="AJ40" s="35"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K41" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="35"/>
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="35"/>
+      <c r="AG41" s="35"/>
+      <c r="AH41" s="35"/>
+      <c r="AI41" s="35"/>
+      <c r="AJ41" s="35"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="34"/>
-      <c r="P34" s="34"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="34"/>
-      <c r="S34" s="34"/>
-      <c r="T34" s="34"/>
-      <c r="U34" s="34"/>
-      <c r="V34" s="34"/>
-      <c r="W34" s="34"/>
-      <c r="X34" s="34"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="34"/>
-      <c r="AC34" s="34"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="34"/>
-      <c r="AH34" s="34"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="34"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="B35" s="32" t="s">
+      <c r="C42" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K42" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="35"/>
+      <c r="AI42" s="35"/>
+      <c r="AJ42" s="35"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="33" t="s">
+      <c r="C43" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="34"/>
-      <c r="O35" s="34"/>
-      <c r="P35" s="34"/>
-      <c r="Q35" s="34"/>
-      <c r="R35" s="34"/>
-      <c r="S35" s="34"/>
-      <c r="T35" s="34"/>
-      <c r="U35" s="34"/>
-      <c r="V35" s="34"/>
-      <c r="W35" s="34"/>
-      <c r="X35" s="34"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="34"/>
-      <c r="AC35" s="34"/>
-      <c r="AD35" s="34"/>
-      <c r="AE35" s="34"/>
-      <c r="AF35" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG35" s="34"/>
-      <c r="AH35" s="34"/>
-      <c r="AI35" s="34"/>
-      <c r="AJ35" s="34"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="35" t="s">
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K43" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
+      <c r="AD43" s="35"/>
+      <c r="AE43" s="35"/>
+      <c r="AF43" s="35"/>
+      <c r="AG43" s="35"/>
+      <c r="AH43" s="35"/>
+      <c r="AI43" s="35"/>
+      <c r="AJ43" s="35"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K44" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="35"/>
+      <c r="AB44" s="35"/>
+      <c r="AC44" s="35"/>
+      <c r="AD44" s="35"/>
+      <c r="AE44" s="35"/>
+      <c r="AF44" s="35"/>
+      <c r="AG44" s="35"/>
+      <c r="AH44" s="35"/>
+      <c r="AI44" s="35"/>
+      <c r="AJ44" s="35"/>
+    </row>
+    <row r="45" ht="42.75" customHeight="1">
+      <c r="A45" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C45" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="35"/>
+      <c r="AD45" s="35"/>
+      <c r="AE45" s="35"/>
+      <c r="AF45" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG45" s="35"/>
+      <c r="AH45" s="35"/>
+      <c r="AI45" s="35"/>
+      <c r="AJ45" s="35"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="K36" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="34"/>
-      <c r="V36" s="34"/>
-      <c r="W36" s="34"/>
-      <c r="X36" s="34"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="34"/>
-      <c r="AC36" s="34"/>
-      <c r="AD36" s="34"/>
-      <c r="AE36" s="34"/>
-      <c r="AF36" s="34"/>
-      <c r="AG36" s="34"/>
-      <c r="AH36" s="34"/>
-      <c r="AI36" s="34"/>
-      <c r="AJ36" s="34"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" s="35" t="s">
+      <c r="C46" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="K37" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="34"/>
-      <c r="Y37" s="34"/>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
-      <c r="AF37" s="34"/>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="34"/>
-      <c r="AI37" s="34"/>
-      <c r="AJ37" s="34"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="C38" s="34" t="s">
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+      <c r="Z46" s="35"/>
+      <c r="AA46" s="35"/>
+      <c r="AB46" s="35"/>
+      <c r="AC46" s="35"/>
+      <c r="AD46" s="35"/>
+      <c r="AE46" s="35"/>
+      <c r="AF46" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG46" s="35"/>
+      <c r="AH46" s="35"/>
+      <c r="AI46" s="35"/>
+      <c r="AJ46" s="35"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="K38" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34"/>
-      <c r="S38" s="34"/>
-      <c r="T38" s="34"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="34"/>
-      <c r="Y38" s="34"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="34"/>
-      <c r="AF38" s="33"/>
-      <c r="AG38" s="34"/>
-      <c r="AH38" s="34"/>
-      <c r="AI38" s="34"/>
-      <c r="AJ38" s="34"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39" s="35" t="s">
+      <c r="C47" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="K39" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="34"/>
-      <c r="S39" s="34"/>
-      <c r="T39" s="34"/>
-      <c r="U39" s="34"/>
-      <c r="V39" s="34"/>
-      <c r="W39" s="34"/>
-      <c r="X39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="34"/>
-      <c r="AC39" s="34"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
-      <c r="AF39" s="34"/>
-      <c r="AG39" s="34"/>
-      <c r="AH39" s="34"/>
-      <c r="AI39" s="34"/>
-      <c r="AJ39" s="34"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="35" t="s">
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
+      <c r="AD47" s="35"/>
+      <c r="AE47" s="35"/>
+      <c r="AF47" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG47" s="35"/>
+      <c r="AH47" s="35"/>
+      <c r="AI47" s="35"/>
+      <c r="AJ47" s="35"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C48" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="K40" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
-      <c r="O40" s="34"/>
-      <c r="P40" s="34"/>
-      <c r="Q40" s="34"/>
-      <c r="R40" s="34"/>
-      <c r="S40" s="34"/>
-      <c r="T40" s="34"/>
-      <c r="U40" s="34"/>
-      <c r="V40" s="34"/>
-      <c r="W40" s="34"/>
-      <c r="X40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="34"/>
-      <c r="AC40" s="34"/>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="34"/>
-      <c r="AF40" s="34"/>
-      <c r="AG40" s="34"/>
-      <c r="AH40" s="34"/>
-      <c r="AI40" s="34"/>
-      <c r="AJ40" s="34"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="K41" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="34"/>
-      <c r="Q41" s="34"/>
-      <c r="R41" s="34"/>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="34"/>
-      <c r="X41" s="34"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="34"/>
-      <c r="AC41" s="34"/>
-      <c r="AD41" s="34"/>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="34"/>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="34"/>
-      <c r="AI41" s="34"/>
-      <c r="AJ41" s="34"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="K42" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="34"/>
-      <c r="Q42" s="34"/>
-      <c r="R42" s="34"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="34"/>
-      <c r="U42" s="34"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="34"/>
-      <c r="X42" s="34"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="34"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="34"/>
-      <c r="AC42" s="34"/>
-      <c r="AD42" s="34"/>
-      <c r="AE42" s="34"/>
-      <c r="AF42" s="34"/>
-      <c r="AG42" s="34"/>
-      <c r="AH42" s="34"/>
-      <c r="AI42" s="34"/>
-      <c r="AJ42" s="34"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
-      <c r="AD43" s="34"/>
-      <c r="AE43" s="34"/>
-      <c r="AF43" s="34"/>
-      <c r="AG43" s="34"/>
-      <c r="AH43" s="34"/>
-      <c r="AI43" s="34"/>
-      <c r="AJ43" s="34"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="C44" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="K44" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
-      <c r="W44" s="34"/>
-      <c r="X44" s="34"/>
-      <c r="Y44" s="34"/>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="34"/>
-      <c r="AD44" s="34"/>
-      <c r="AE44" s="34"/>
-      <c r="AF44" s="34"/>
-      <c r="AG44" s="34"/>
-      <c r="AH44" s="34"/>
-      <c r="AI44" s="34"/>
-      <c r="AJ44" s="34"/>
-    </row>
-    <row r="45" ht="42.75" customHeight="1">
-      <c r="A45" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="V45" s="34"/>
-      <c r="W45" s="34"/>
-      <c r="X45" s="34"/>
-      <c r="Y45" s="34"/>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
-      <c r="AB45" s="34"/>
-      <c r="AC45" s="34"/>
-      <c r="AD45" s="34"/>
-      <c r="AE45" s="34"/>
-      <c r="AF45" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG45" s="34"/>
-      <c r="AH45" s="34"/>
-      <c r="AI45" s="34"/>
-      <c r="AJ45" s="34"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="L46" s="34"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
-      <c r="O46" s="34"/>
-      <c r="P46" s="34"/>
-      <c r="Q46" s="34"/>
-      <c r="R46" s="34"/>
-      <c r="S46" s="34"/>
-      <c r="T46" s="34"/>
-      <c r="U46" s="34"/>
-      <c r="V46" s="34"/>
-      <c r="W46" s="34"/>
-      <c r="X46" s="34"/>
-      <c r="Y46" s="34"/>
-      <c r="Z46" s="34"/>
-      <c r="AA46" s="34"/>
-      <c r="AB46" s="34"/>
-      <c r="AC46" s="34"/>
-      <c r="AD46" s="34"/>
-      <c r="AE46" s="34"/>
-      <c r="AF46" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG46" s="34"/>
-      <c r="AH46" s="34"/>
-      <c r="AI46" s="34"/>
-      <c r="AJ46" s="34"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="34"/>
-      <c r="V47" s="34"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="34"/>
-      <c r="Y47" s="34"/>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="34"/>
-      <c r="AB47" s="34"/>
-      <c r="AC47" s="34"/>
-      <c r="AD47" s="34"/>
-      <c r="AE47" s="34"/>
-      <c r="AF47" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG47" s="34"/>
-      <c r="AH47" s="34"/>
-      <c r="AI47" s="34"/>
-      <c r="AJ47" s="34"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="34"/>
-      <c r="V48" s="34"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="34"/>
-      <c r="Y48" s="34"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="34"/>
-      <c r="AD48" s="34"/>
-      <c r="AE48" s="34"/>
-      <c r="AF48" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG48" s="34"/>
-      <c r="AH48" s="34"/>
-      <c r="AI48" s="34"/>
-      <c r="AJ48" s="34"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+      <c r="Z48" s="35"/>
+      <c r="AA48" s="35"/>
+      <c r="AB48" s="35"/>
+      <c r="AC48" s="35"/>
+      <c r="AD48" s="35"/>
+      <c r="AE48" s="35"/>
+      <c r="AF48" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG48" s="35"/>
+      <c r="AH48" s="35"/>
+      <c r="AI48" s="35"/>
+      <c r="AJ48" s="35"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="34"/>
-      <c r="V49" s="34"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="34"/>
-      <c r="Y49" s="34"/>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="34"/>
-      <c r="AD49" s="34"/>
-      <c r="AE49" s="34"/>
-      <c r="AF49" s="34"/>
-      <c r="AG49" s="34"/>
-      <c r="AH49" s="34"/>
-      <c r="AI49" s="34"/>
-      <c r="AJ49" s="34"/>
+      <c r="A49" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="36"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+      <c r="Z49" s="35"/>
+      <c r="AA49" s="35"/>
+      <c r="AB49" s="35"/>
+      <c r="AC49" s="35"/>
+      <c r="AD49" s="35"/>
+      <c r="AE49" s="35"/>
+      <c r="AF49" s="35"/>
+      <c r="AG49" s="35"/>
+      <c r="AH49" s="35"/>
+      <c r="AI49" s="35"/>
+      <c r="AJ49" s="35"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="AF50" s="27"/>
-      <c r="AG50" s="27"/>
-      <c r="AH50" s="27"/>
-      <c r="AI50" s="27"/>
-      <c r="AJ50" s="27"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="AF50" s="28"/>
+      <c r="AG50" s="28"/>
+      <c r="AH50" s="28"/>
+      <c r="AI50" s="28"/>
+      <c r="AJ50" s="28"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="D51" s="39"/>
       <c r="E51" s="38"/>
@@ -3445,7 +3439,7 @@
       <c r="J51" s="39"/>
       <c r="K51" s="39"/>
       <c r="L51" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M51" s="39"/>
       <c r="N51" s="39"/>
@@ -3467,7 +3461,7 @@
       <c r="AD51" s="39"/>
       <c r="AE51" s="39"/>
       <c r="AF51" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AG51" s="38"/>
       <c r="AH51" s="38"/>
@@ -3476,10 +3470,10 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="C52" s="38"/>
       <c r="D52" s="39"/>
@@ -3500,7 +3494,7 @@
       <c r="S52" s="39"/>
       <c r="T52" s="39"/>
       <c r="U52" s="38" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="V52" s="39"/>
       <c r="W52" s="39"/>
@@ -3515,17 +3509,17 @@
       <c r="AF52" s="38"/>
       <c r="AG52" s="38"/>
       <c r="AH52" s="40" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
       <c r="AI52" s="38"/>
       <c r="AJ52" s="38"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="39"/>
@@ -3546,7 +3540,7 @@
       <c r="S53" s="39"/>
       <c r="T53" s="39"/>
       <c r="U53" s="38" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="V53" s="39"/>
       <c r="W53" s="39"/>
@@ -3561,17 +3555,17 @@
       <c r="AF53" s="38"/>
       <c r="AG53" s="38"/>
       <c r="AH53" s="40" t="s">
-        <v>242</v>
+        <v>184</v>
       </c>
       <c r="AI53" s="38"/>
       <c r="AJ53" s="38"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>243</v>
+        <v>185</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="39"/>
@@ -3592,7 +3586,7 @@
       <c r="S54" s="39"/>
       <c r="T54" s="39"/>
       <c r="U54" s="38" t="s">
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="V54" s="39"/>
       <c r="W54" s="39"/>
@@ -3607,17 +3601,17 @@
       <c r="AF54" s="38"/>
       <c r="AG54" s="38"/>
       <c r="AH54" s="40" t="s">
-        <v>245</v>
+        <v>187</v>
       </c>
       <c r="AI54" s="38"/>
       <c r="AJ54" s="38"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="39"/>
@@ -3638,7 +3632,7 @@
       <c r="S55" s="39"/>
       <c r="T55" s="39"/>
       <c r="U55" s="38" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="V55" s="39"/>
       <c r="W55" s="39"/>
@@ -3653,17 +3647,17 @@
       <c r="AF55" s="38"/>
       <c r="AG55" s="38"/>
       <c r="AH55" s="40" t="s">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="AI55" s="38"/>
       <c r="AJ55" s="38"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="39"/>
@@ -3684,7 +3678,7 @@
       <c r="S56" s="39"/>
       <c r="T56" s="39"/>
       <c r="U56" s="38" t="s">
-        <v>250</v>
+        <v>194</v>
       </c>
       <c r="V56" s="39"/>
       <c r="W56" s="39"/>
@@ -3699,17 +3693,17 @@
       <c r="AF56" s="38"/>
       <c r="AG56" s="38"/>
       <c r="AH56" s="40" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="AI56" s="38"/>
       <c r="AJ56" s="38"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="C57" s="38"/>
       <c r="D57" s="39"/>
@@ -3730,7 +3724,7 @@
       <c r="S57" s="39"/>
       <c r="T57" s="39"/>
       <c r="U57" s="38" t="s">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="V57" s="39"/>
       <c r="W57" s="39"/>
@@ -3745,17 +3739,17 @@
       <c r="AF57" s="38"/>
       <c r="AG57" s="38"/>
       <c r="AH57" s="40" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="AI57" s="38"/>
       <c r="AJ57" s="38"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>255</v>
+        <v>203</v>
       </c>
       <c r="C58" s="38"/>
       <c r="D58" s="39"/>
@@ -3776,7 +3770,7 @@
       <c r="S58" s="39"/>
       <c r="T58" s="39"/>
       <c r="U58" s="38" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="V58" s="39"/>
       <c r="W58" s="39"/>
@@ -3791,17 +3785,17 @@
       <c r="AF58" s="38"/>
       <c r="AG58" s="38"/>
       <c r="AH58" s="40" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="AI58" s="38"/>
       <c r="AJ58" s="38"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="39"/>
@@ -3822,7 +3816,7 @@
       <c r="S59" s="39"/>
       <c r="T59" s="39"/>
       <c r="U59" s="38" t="s">
-        <v>259</v>
+        <v>210</v>
       </c>
       <c r="V59" s="39"/>
       <c r="W59" s="39"/>
@@ -3837,17 +3831,17 @@
       <c r="AF59" s="38"/>
       <c r="AG59" s="38"/>
       <c r="AH59" s="40" t="s">
-        <v>260</v>
+        <v>211</v>
       </c>
       <c r="AI59" s="38"/>
       <c r="AJ59" s="38"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="39"/>
@@ -3868,7 +3862,7 @@
       <c r="S60" s="39"/>
       <c r="T60" s="39"/>
       <c r="U60" s="38" t="s">
-        <v>262</v>
+        <v>213</v>
       </c>
       <c r="V60" s="39"/>
       <c r="W60" s="39"/>
@@ -3883,17 +3877,17 @@
       <c r="AF60" s="38"/>
       <c r="AG60" s="38"/>
       <c r="AH60" s="40" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="AI60" s="38"/>
       <c r="AJ60" s="38"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="C61" s="38"/>
       <c r="D61" s="39"/>
@@ -3914,7 +3908,7 @@
       <c r="S61" s="39"/>
       <c r="T61" s="39"/>
       <c r="U61" s="38" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="V61" s="39"/>
       <c r="W61" s="39"/>
@@ -3929,17 +3923,17 @@
       <c r="AF61" s="38"/>
       <c r="AG61" s="38"/>
       <c r="AH61" s="40" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="AI61" s="38"/>
       <c r="AJ61" s="38"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="C62" s="38"/>
       <c r="D62" s="39"/>
@@ -3960,7 +3954,7 @@
       <c r="S62" s="39"/>
       <c r="T62" s="39"/>
       <c r="U62" s="38" t="s">
-        <v>268</v>
+        <v>227</v>
       </c>
       <c r="V62" s="39"/>
       <c r="W62" s="39"/>
@@ -3975,17 +3969,17 @@
       <c r="AF62" s="38"/>
       <c r="AG62" s="38"/>
       <c r="AH62" s="40" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="AI62" s="38"/>
       <c r="AJ62" s="38"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="C63" s="38"/>
       <c r="D63" s="39"/>
@@ -4006,7 +4000,7 @@
       <c r="S63" s="39"/>
       <c r="T63" s="39"/>
       <c r="U63" s="38" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="V63" s="39"/>
       <c r="W63" s="39"/>
@@ -4021,20 +4015,20 @@
       <c r="AF63" s="38"/>
       <c r="AG63" s="38"/>
       <c r="AH63" s="40" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
       <c r="AI63" s="38"/>
       <c r="AJ63" s="38"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="D64" s="44"/>
       <c r="E64" s="43"/>
@@ -4072,10 +4066,10 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="C65" s="38"/>
       <c r="D65" s="39"/>
@@ -4096,7 +4090,7 @@
       <c r="S65" s="39"/>
       <c r="T65" s="39"/>
       <c r="U65" s="43" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="V65" s="39"/>
       <c r="W65" s="39"/>
@@ -4116,10 +4110,10 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C66" s="38"/>
       <c r="D66" s="39"/>
@@ -4140,7 +4134,7 @@
       <c r="S66" s="39"/>
       <c r="T66" s="39"/>
       <c r="U66" s="43" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="V66" s="39"/>
       <c r="W66" s="39"/>
@@ -4160,10 +4154,10 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C67" s="38"/>
       <c r="D67" s="39"/>
@@ -4184,7 +4178,7 @@
       <c r="S67" s="39"/>
       <c r="T67" s="39"/>
       <c r="U67" s="43" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="V67" s="39"/>
       <c r="W67" s="39"/>
@@ -4204,10 +4198,10 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C68" s="38"/>
       <c r="D68" s="39"/>
@@ -4228,7 +4222,7 @@
       <c r="S68" s="39"/>
       <c r="T68" s="39"/>
       <c r="U68" s="43" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="V68" s="39"/>
       <c r="W68" s="39"/>
@@ -4248,10 +4242,10 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C69" s="38"/>
       <c r="D69" s="39"/>
@@ -4272,7 +4266,7 @@
       <c r="S69" s="39"/>
       <c r="T69" s="39"/>
       <c r="U69" s="43" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="V69" s="39"/>
       <c r="W69" s="39"/>
@@ -4292,10 +4286,10 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="37" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B70" s="41" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C70" s="38"/>
       <c r="D70" s="39"/>
@@ -4316,7 +4310,7 @@
       <c r="S70" s="39"/>
       <c r="T70" s="39"/>
       <c r="U70" s="38" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="V70" s="39"/>
       <c r="W70" s="39"/>
@@ -4336,10 +4330,10 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="C71" s="43"/>
       <c r="D71" s="44"/>
@@ -4378,10 +4372,10 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C72" s="43"/>
       <c r="D72" s="44"/>
@@ -4446,56 +4440,56 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>60</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
@@ -4519,13 +4513,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>69</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>70</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -4548,9 +4542,9 @@
       <c r="V3" s="24"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
@@ -4572,10 +4566,10 @@
       <c r="V4" s="24"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="C5" s="26"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="C6" s="26"/>
+      <c r="C6" s="27"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="C7" s="24"/>
@@ -4785,87 +4779,87 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="A1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="F1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="A2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="21">
         <f>NOW()</f>
-        <v>43748.59095</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
+        <v>43755.20938</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="G2" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4890,57 +4884,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>60</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
@@ -4965,13 +4959,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>69</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>70</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -5021,13 +5015,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="24" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
@@ -5052,13 +5046,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="24" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
@@ -5083,13 +5077,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="24" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -5114,13 +5108,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="24" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
@@ -5145,13 +5139,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="24" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
@@ -5201,13 +5195,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
@@ -5232,13 +5226,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
@@ -5263,13 +5257,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
@@ -5294,13 +5288,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
@@ -5325,13 +5319,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="24" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
@@ -5356,13 +5350,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="24" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
@@ -5412,13 +5406,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -5443,13 +5437,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
@@ -5474,13 +5468,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
@@ -5505,13 +5499,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
@@ -5536,13 +5530,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -5567,13 +5561,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
@@ -5623,13 +5617,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
@@ -5654,13 +5648,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
@@ -5685,13 +5679,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
@@ -5716,13 +5710,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
@@ -5747,13 +5741,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="24" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
@@ -5803,13 +5797,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="24" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
@@ -5834,13 +5828,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="24" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="24"/>
       <c r="E32" s="24"/>
@@ -5890,121 +5884,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -6015,26 +6009,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -6044,290 +6038,290 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
+      <c r="A48" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="19"/>
+      <c r="P48" s="19"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="19"/>
+      <c r="S48" s="19"/>
+      <c r="T48" s="19"/>
+      <c r="U48" s="19"/>
+      <c r="V48" s="19"/>
+      <c r="W48" s="19"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
+      <c r="A49" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="B51" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="C51" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="C52" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="C53" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="C54" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="B55" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="C55" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="B56" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C56" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="B58" s="25" t="s">
-        <v>206</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>207</v>
+      <c r="A58" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="B59" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>210</v>
+      <c r="A59" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="B60" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>213</v>
+      <c r="A60" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="B61" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>145</v>
+      <c r="A61" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>216</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>217</v>
+      <c r="A63" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>219</v>
+      <c r="A64" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>221</v>
+      <c r="A65" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>223</v>
+      <c r="A66" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>226</v>
+      <c r="A67" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="B69" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="C69" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="B70" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="C70" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="B72" t="s">
-        <v>234</v>
-      </c>
-      <c r="C72" s="36" t="s">
-        <v>182</v>
+        <v>271</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="B73" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="C73" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/pnc_danger_sign_follow_up_baby.xlsx
+++ b/config/default/forms/app/pnc_danger_sign_follow_up_baby.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="287">
   <si>
     <t>type</t>
   </si>
@@ -115,22 +115,28 @@
     <t>repeat_count</t>
   </si>
   <si>
+    <t>list_name</t>
+  </si>
+  <si>
     <t>cht::notes</t>
   </si>
   <si>
     <t>begin group</t>
   </si>
   <si>
-    <t>list_name</t>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
   </si>
   <si>
     <t>form_title</t>
   </si>
   <si>
-    <t>inputs</t>
-  </si>
-  <si>
-    <t>NO_LABEL</t>
+    <t>./source = 'user'</t>
+  </si>
+  <si>
+    <t>field-list</t>
   </si>
   <si>
     <t>form_id</t>
@@ -148,12 +154,6 @@
     <t>instance_name</t>
   </si>
   <si>
-    <t>./source = 'user'</t>
-  </si>
-  <si>
-    <t>field-list</t>
-  </si>
-  <si>
     <t>default_language</t>
   </si>
   <si>
@@ -178,84 +178,84 @@
     <t>PNC danger sign follow-up - baby</t>
   </si>
   <si>
+    <t>delivery_uuid</t>
+  </si>
+  <si>
+    <t>Delivery Report ID</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
     <t>pnc_danger_sign_follow_up_baby</t>
   </si>
   <si>
-    <t>delivery_uuid</t>
-  </si>
-  <si>
-    <t>Delivery Report ID</t>
-  </si>
-  <si>
-    <t>yes_no</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>contact</t>
+    <t>db:person</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>What is the patient's name?</t>
+  </si>
+  <si>
+    <t>db-object</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>short_name</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>Patient ID</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>sex</t>
   </si>
   <si>
     <t>pages</t>
   </si>
   <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>db:person</t>
-  </si>
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>What is the patient's name?</t>
-  </si>
-  <si>
-    <t>db-object</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>short_name</t>
-  </si>
-  <si>
-    <t>Short Name</t>
-  </si>
-  <si>
-    <t>patient_id</t>
-  </si>
-  <si>
-    <t>Patient ID</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
     <t>Parent ID</t>
   </si>
   <si>
@@ -340,130 +340,55 @@
     <t>Please confirm if the baby has any of the following danger signs.</t>
   </si>
   <si>
-    <t>lmp_approximations</t>
-  </si>
-  <si>
-    <t>upto_2_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 2 Months Ago</t>
-  </si>
-  <si>
     <t>../danger_sign_present = 'yes' or ../danger_sign_present = 'no'</t>
   </si>
   <si>
-    <t>upto_3_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 3 Months Ago</t>
-  </si>
-  <si>
     <t>infected_umbilical_cord</t>
   </si>
   <si>
     <t>Infected umbilical cord</t>
   </si>
   <si>
-    <t>upto_4_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 4 Months Ago</t>
-  </si>
-  <si>
     <t>convulsion</t>
   </si>
   <si>
-    <t>between_5_and_6_months_ago</t>
-  </si>
-  <si>
     <t>Convulsions</t>
   </si>
   <si>
-    <t>Between 5 And 6 Months Ago</t>
-  </si>
-  <si>
-    <t>between_7_and_8_months_ago</t>
-  </si>
-  <si>
-    <t>Between 7 And 8 Months Ago</t>
-  </si>
-  <si>
     <t>difficulty_feeding</t>
   </si>
   <si>
     <t>Difficulty feeding or drinking</t>
   </si>
   <si>
-    <t>trimester1_choices</t>
-  </si>
-  <si>
     <t>vomit</t>
   </si>
   <si>
-    <t>eat_extra_meal</t>
-  </si>
-  <si>
-    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
-  </si>
-  <si>
     <t>Vomits everything</t>
   </si>
   <si>
-    <t>take_iron_and_folic_acid</t>
-  </si>
-  <si>
-    <t>Take iron and folic acid tablets</t>
-  </si>
-  <si>
     <t>drowsy</t>
   </si>
   <si>
     <t>Drowsy or unconscious</t>
   </si>
   <si>
-    <t>avoid_heavy_work</t>
-  </si>
-  <si>
-    <t>Avoid heavy work, rest more</t>
-  </si>
-  <si>
-    <t>sleep_under_bednet</t>
-  </si>
-  <si>
     <t>stiff</t>
   </si>
   <si>
-    <t>Sleep under an insecticide treated bednet</t>
-  </si>
-  <si>
     <t>Body stiffness</t>
   </si>
   <si>
-    <t>go_for_anc_visit</t>
-  </si>
-  <si>
-    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
-  </si>
-  <si>
     <t>yellow_skin</t>
   </si>
   <si>
     <t>Yellow skin color</t>
   </si>
   <si>
-    <t>develop_birth_plan</t>
-  </si>
-  <si>
-    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
-  </si>
-  <si>
     <t>fever</t>
   </si>
   <si>
     <t>Fever</t>
-  </si>
-  <si>
-    <t>trimester2_choices</t>
   </si>
   <si>
     <t>blue_skin</t>
@@ -504,25 +429,205 @@
     <t>../danger_sign_present = 'no' and ../r_danger_sign_present = 'no'</t>
   </si>
   <si>
+    <t>refer_patient_note_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The baby should be taken to the health facility immediately if experiencing any of these danger signs. </t>
+  </si>
+  <si>
+    <t>../danger_sign_present = 'yes' or ../r_danger_sign_present = 'yes'</t>
+  </si>
+  <si>
+    <t>refer_patient_note_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please advise the caregiver to do so and accompany them if possible. </t>
+  </si>
+  <si>
+    <t>lmp_approximations</t>
+  </si>
+  <si>
+    <t>upto_2_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 2 Months Ago</t>
+  </si>
+  <si>
+    <t>upto_3_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 3 Months Ago</t>
+  </si>
+  <si>
+    <t>upto_4_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 4 Months Ago</t>
+  </si>
+  <si>
+    <t>between_5_and_6_months_ago</t>
+  </si>
+  <si>
+    <t>Between 5 And 6 Months Ago</t>
+  </si>
+  <si>
+    <t>between_7_and_8_months_ago</t>
+  </si>
+  <si>
+    <t>Between 7 And 8 Months Ago</t>
+  </si>
+  <si>
+    <t>trimester1_choices</t>
+  </si>
+  <si>
+    <t>eat_extra_meal</t>
+  </si>
+  <si>
+    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
+  </si>
+  <si>
+    <t>take_iron_and_folic_acid</t>
+  </si>
+  <si>
+    <t>Take iron and folic acid tablets</t>
+  </si>
+  <si>
+    <t>__visited_hf</t>
+  </si>
+  <si>
+    <t>avoid_heavy_work</t>
+  </si>
+  <si>
+    <t>Avoid heavy work, rest more</t>
+  </si>
+  <si>
+    <t>Whether or not the baby was taken to the health facility as recommended.</t>
+  </si>
+  <si>
+    <t>${visit_confirm}</t>
+  </si>
+  <si>
+    <t>sleep_under_bednet</t>
+  </si>
+  <si>
+    <t>Sleep under an insecticide treated bednet</t>
+  </si>
+  <si>
+    <t>__still_experiencing_danger_sign</t>
+  </si>
+  <si>
+    <t>Whether or not the baby is still experiencing any danger signs.</t>
+  </si>
+  <si>
+    <t>${danger_sign_present}</t>
+  </si>
+  <si>
+    <t>__infected_umbilical_cord</t>
+  </si>
+  <si>
+    <t>Whether or not the umbilical cord was infected.</t>
+  </si>
+  <si>
+    <t>${infected_umbilical_cord}</t>
+  </si>
+  <si>
+    <t>__convulsions</t>
+  </si>
+  <si>
+    <t>go_for_anc_visit</t>
+  </si>
+  <si>
+    <t>Whether or not the baby is suffering from convulsions.</t>
+  </si>
+  <si>
+    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
+  </si>
+  <si>
+    <t>${convulsion}</t>
+  </si>
+  <si>
+    <t>develop_birth_plan</t>
+  </si>
+  <si>
+    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
+  </si>
+  <si>
+    <t>__difficulty_feeding_or_drinking</t>
+  </si>
+  <si>
+    <t>Whether or not the baby is having difficulty feeding or drinking.</t>
+  </si>
+  <si>
+    <t>${difficulty_feeding}</t>
+  </si>
+  <si>
+    <t>__vomits_everything</t>
+  </si>
+  <si>
+    <t>Whether or not the baby vomits everything.</t>
+  </si>
+  <si>
+    <t>${vomit}</t>
+  </si>
+  <si>
+    <t>trimester2_choices</t>
+  </si>
+  <si>
+    <t>__drowsy_or_unconscious</t>
+  </si>
+  <si>
+    <t>Whether or not the baby is drowsy or unconscious.</t>
+  </si>
+  <si>
+    <t>${drowsy}</t>
+  </si>
+  <si>
+    <t>__body_stiffness</t>
+  </si>
+  <si>
+    <t>Whether or not the baby's body is stiff.</t>
+  </si>
+  <si>
+    <t>${stiff}</t>
+  </si>
+  <si>
+    <t>__yellow_skin_color</t>
+  </si>
+  <si>
+    <t>Whether or not the baby has yellow skin color.</t>
+  </si>
+  <si>
+    <t>${yellow_skin}</t>
+  </si>
+  <si>
+    <t>__fever</t>
+  </si>
+  <si>
+    <t>Whether or not the baby has a fever.</t>
+  </si>
+  <si>
     <t>couselling_on_exclusive_breastfeeding</t>
   </si>
   <si>
     <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
   </si>
   <si>
-    <t>refer_patient_note_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The baby should be taken to the health facility immediately if experiencing any of these danger signs. </t>
-  </si>
-  <si>
-    <t>../danger_sign_present = 'yes' or ../r_danger_sign_present = 'yes'</t>
-  </si>
-  <si>
-    <t>refer_patient_note_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please advise the caregiver to do so and accompany them if possible. </t>
+    <t>${fever}</t>
+  </si>
+  <si>
+    <t>__blue_skin_color</t>
+  </si>
+  <si>
+    <t>Whether or not the baby has blue skin color (hypothermia).</t>
+  </si>
+  <si>
+    <t>${blue_skin}</t>
+  </si>
+  <si>
+    <t>__has_danger_sign</t>
+  </si>
+  <si>
+    <t>Whether or not any danger signs are present.</t>
   </si>
   <si>
     <t>conditions</t>
@@ -534,6 +639,9 @@
     <t>Heart condition</t>
   </si>
   <si>
+    <t>${r_danger_sign_present}</t>
+  </si>
+  <si>
     <t>asthma</t>
   </si>
   <si>
@@ -549,6 +657,9 @@
     <t>known_diabetes</t>
   </si>
   <si>
+    <t>meta</t>
+  </si>
+  <si>
     <t>Known diabetes</t>
   </si>
   <si>
@@ -564,162 +675,111 @@
     <t>known</t>
   </si>
   <si>
-    <t>__visited_hf</t>
+    <t>__patient_uuid</t>
+  </si>
+  <si>
+    <t>Patient UUID</t>
+  </si>
+  <si>
+    <t>../../../inputs/contact/_id</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>${visit_confirm}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby was taken to the health facility as recommended.</t>
-  </si>
-  <si>
-    <t>__still_experiencing_danger_sign</t>
+    <t>__patient_id</t>
+  </si>
+  <si>
+    <t>../../../inputs/contact/patient_id</t>
   </si>
   <si>
     <t>fp_methods</t>
   </si>
   <si>
-    <t>${danger_sign_present}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby is still experiencing any danger signs.</t>
-  </si>
-  <si>
-    <t>__infected_umbilical_cord</t>
-  </si>
-  <si>
-    <t>${infected_umbilical_cord}</t>
-  </si>
-  <si>
-    <t>Whether or not the umbilical cord was infected.</t>
-  </si>
-  <si>
-    <t>__convulsions</t>
-  </si>
-  <si>
-    <t>${convulsion}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby is suffering from convulsions.</t>
+    <t>__household_uuid</t>
+  </si>
+  <si>
+    <t>Household uuid</t>
+  </si>
+  <si>
+    <t>../../../inputs/contact/parent/_id</t>
+  </si>
+  <si>
+    <t>__source</t>
+  </si>
+  <si>
+    <t>../../../inputs/source</t>
+  </si>
+  <si>
+    <t>__source_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source ID </t>
+  </si>
+  <si>
+    <t>../../../inputs/source_id</t>
+  </si>
+  <si>
+    <t>__delivery_uuid</t>
+  </si>
+  <si>
+    <t>Delivery  UUID</t>
+  </si>
+  <si>
+    <t>../../inputs/delivery_uuid</t>
   </si>
   <si>
     <t>Combined oral contraceptives</t>
   </si>
   <si>
-    <t>__difficulty_feeding_or_drinking</t>
-  </si>
-  <si>
     <t>Progesterone only pills</t>
   </si>
   <si>
-    <t>${difficulty_feeding}</t>
-  </si>
-  <si>
     <t>Injectibles</t>
   </si>
   <si>
-    <t>Whether or not the baby is having difficulty feeding or drinking.</t>
-  </si>
-  <si>
-    <t>__vomits_everything</t>
-  </si>
-  <si>
     <t>Implants (1 rod)</t>
   </si>
   <si>
     <t>Implants (2 rods)</t>
   </si>
   <si>
-    <t>${vomit}</t>
-  </si>
-  <si>
     <t>IUD</t>
   </si>
   <si>
-    <t>Whether or not the baby vomits everything.</t>
-  </si>
-  <si>
-    <t>__drowsy_or_unconscious</t>
-  </si>
-  <si>
     <t>Condoms</t>
   </si>
   <si>
-    <t>${drowsy}</t>
-  </si>
-  <si>
     <t>Tubal ligation</t>
   </si>
   <si>
-    <t>Whether or not the baby is drowsy or unconscious.</t>
-  </si>
-  <si>
     <t>Cycle beads</t>
   </si>
   <si>
-    <t>__body_stiffness</t>
-  </si>
-  <si>
-    <t>${stiff}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby's body is stiff.</t>
-  </si>
-  <si>
-    <t>__yellow_skin_color</t>
-  </si>
-  <si>
-    <t>${yellow_skin}</t>
-  </si>
-  <si>
     <t>reasons_not_on_fp</t>
   </si>
   <si>
-    <t>Whether or not the baby has yellow skin color.</t>
-  </si>
-  <si>
     <t>Wants to get pregnant</t>
   </si>
   <si>
-    <t>__fever</t>
-  </si>
-  <si>
     <t>Did not want FP</t>
   </si>
   <si>
     <t>follow_up_methods</t>
   </si>
   <si>
-    <t>${fever}</t>
-  </si>
-  <si>
     <t>in_person</t>
   </si>
   <si>
     <t>In person</t>
   </si>
   <si>
-    <t>Whether or not the baby has a fever.</t>
-  </si>
-  <si>
-    <t>__blue_skin_color</t>
-  </si>
-  <si>
     <t>by_phone</t>
   </si>
   <si>
     <t>By phone</t>
   </si>
   <si>
-    <t>${blue_skin}</t>
-  </si>
-  <si>
-    <t>Whether or not the baby has blue skin color (hypothermia).</t>
-  </si>
-  <si>
     <t>reasons_for_missing_visit</t>
   </si>
   <si>
@@ -729,27 +789,18 @@
     <t>She was not reminded</t>
   </si>
   <si>
-    <t>__has_danger_sign</t>
-  </si>
-  <si>
     <t>travelled</t>
   </si>
   <si>
     <t>She had travelled</t>
   </si>
   <si>
-    <t>${r_danger_sign_present}</t>
-  </si>
-  <si>
     <t>no_lab_results</t>
   </si>
   <si>
     <t>No Lab results yet</t>
   </si>
   <si>
-    <t>Whether or not any danger signs are present.</t>
-  </si>
-  <si>
     <t>too_early</t>
   </si>
   <si>
@@ -762,9 +813,6 @@
     <t>Relocated</t>
   </si>
   <si>
-    <t>meta</t>
-  </si>
-  <si>
     <t>actions_taken</t>
   </si>
   <si>
@@ -801,9 +849,6 @@
     <t>Body building foods: Milk, eggs, meat</t>
   </si>
   <si>
-    <t>__patient_uuid</t>
-  </si>
-  <si>
     <t>vegetables</t>
   </si>
   <si>
@@ -816,9 +861,6 @@
     <t>Fruits: Mangoes, ripe bananas, oranges</t>
   </si>
   <si>
-    <t>../../../inputs/contact/_id</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -834,9 +876,6 @@
     <t>Positive</t>
   </si>
   <si>
-    <t>__patient_id</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -849,37 +888,10 @@
     <t>wants_to_get_pregnant</t>
   </si>
   <si>
-    <t>../../../inputs/contact/patient_id</t>
-  </si>
-  <si>
-    <t>__household_uuid</t>
-  </si>
-  <si>
     <t>feels_sick_when_using_it</t>
   </si>
   <si>
     <t>Feels sick when using it</t>
-  </si>
-  <si>
-    <t>../../../inputs/contact/parent/_id</t>
-  </si>
-  <si>
-    <t>__source</t>
-  </si>
-  <si>
-    <t>../../../inputs/source</t>
-  </si>
-  <si>
-    <t>__source_id</t>
-  </si>
-  <si>
-    <t>../../../inputs/source_id</t>
-  </si>
-  <si>
-    <t>__delivery_uuid</t>
-  </si>
-  <si>
-    <t>../../inputs/delivery_uuid</t>
   </si>
 </sst>
 </file>
@@ -898,7 +910,6 @@
     <font>
       <b/>
     </font>
-    <font/>
     <font>
       <b/>
       <color rgb="FF000000"/>
@@ -910,6 +921,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
       <name val="Arial"/>
     </font>
@@ -932,26 +944,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1021,95 +1033,95 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1120,6 +1132,9 @@
     </xf>
     <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -1284,979 +1299,979 @@
       <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
-        <v>33</v>
+      <c r="AH1" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
+      <c r="A6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="s">
+      <c r="C11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="C12" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="B14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="10"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="B21" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="s">
+      <c r="B22" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="10"/>
+      <c r="AJ22" s="10"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="B23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+      <c r="AJ23" s="10"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="AF24" s="28"/>
@@ -2269,7 +2284,7 @@
         <v>87</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
@@ -2317,7 +2332,7 @@
         <v>89</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
@@ -2362,10 +2377,10 @@
         <v>86</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
@@ -2374,7 +2389,7 @@
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
@@ -2415,7 +2430,7 @@
         <v>92</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
@@ -2463,7 +2478,7 @@
         <v>94</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
@@ -2511,7 +2526,7 @@
         <v>96</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
@@ -2560,7 +2575,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" s="33" t="s">
         <v>98</v>
@@ -2577,7 +2592,7 @@
       <c r="J32" s="35"/>
       <c r="K32" s="34"/>
       <c r="L32" s="34" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
@@ -2621,7 +2636,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
       <c r="J33" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33" s="35"/>
       <c r="L33" s="35"/>
@@ -2667,7 +2682,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
       <c r="J34" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K34" s="35"/>
       <c r="L34" s="35"/>
@@ -2714,7 +2729,7 @@
       <c r="I35" s="35"/>
       <c r="J35" s="35"/>
       <c r="K35" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L35" s="35"/>
       <c r="M35" s="35"/>
@@ -2749,10 +2764,10 @@
         <v>100</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -2761,10 +2776,10 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
       <c r="J36" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L36" s="35"/>
       <c r="M36" s="35"/>
@@ -2797,10 +2812,10 @@
         <v>100</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
@@ -2809,10 +2824,10 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
       <c r="J37" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L37" s="35"/>
       <c r="M37" s="35"/>
@@ -2845,10 +2860,10 @@
         <v>100</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
@@ -2857,10 +2872,10 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
       <c r="J38" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
@@ -2893,10 +2908,10 @@
         <v>100</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
@@ -2905,10 +2920,10 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
       <c r="J39" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L39" s="35"/>
       <c r="M39" s="35"/>
@@ -2941,10 +2956,10 @@
         <v>100</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
@@ -2953,10 +2968,10 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
       <c r="J40" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L40" s="35"/>
       <c r="M40" s="35"/>
@@ -2989,10 +3004,10 @@
         <v>100</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
@@ -3001,10 +3016,10 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
       <c r="J41" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L41" s="35"/>
       <c r="M41" s="35"/>
@@ -3037,10 +3052,10 @@
         <v>100</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
@@ -3049,10 +3064,10 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
       <c r="J42" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L42" s="35"/>
       <c r="M42" s="35"/>
@@ -3085,10 +3100,10 @@
         <v>100</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -3097,10 +3112,10 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
       <c r="J43" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L43" s="35"/>
       <c r="M43" s="35"/>
@@ -3133,10 +3148,10 @@
         <v>100</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -3145,10 +3160,10 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
       <c r="J44" s="35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L44" s="35"/>
       <c r="M44" s="35"/>
@@ -3181,10 +3196,10 @@
         <v>86</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -3204,7 +3219,7 @@
       <c r="S45" s="35"/>
       <c r="T45" s="35"/>
       <c r="U45" s="34" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="V45" s="35"/>
       <c r="W45" s="35"/>
@@ -3229,10 +3244,10 @@
         <v>105</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -3242,7 +3257,7 @@
       <c r="I46" s="35"/>
       <c r="J46" s="35"/>
       <c r="K46" s="34" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="L46" s="35"/>
       <c r="M46" s="35"/>
@@ -3277,10 +3292,10 @@
         <v>105</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -3290,7 +3305,7 @@
       <c r="I47" s="35"/>
       <c r="J47" s="35"/>
       <c r="K47" s="34" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="L47" s="35"/>
       <c r="M47" s="35"/>
@@ -3325,10 +3340,10 @@
         <v>105</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -3338,7 +3353,7 @@
       <c r="I48" s="35"/>
       <c r="J48" s="35"/>
       <c r="K48" s="34" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="L48" s="35"/>
       <c r="M48" s="35"/>
@@ -3422,13 +3437,13 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D51" s="39"/>
       <c r="E51" s="38"/>
@@ -3473,9 +3488,11 @@
         <v>86</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="C52" s="38"/>
+        <v>153</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>156</v>
+      </c>
       <c r="D52" s="39"/>
       <c r="E52" s="38"/>
       <c r="F52" s="38"/>
@@ -3494,7 +3511,7 @@
       <c r="S52" s="39"/>
       <c r="T52" s="39"/>
       <c r="U52" s="38" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="V52" s="39"/>
       <c r="W52" s="39"/>
@@ -3509,7 +3526,7 @@
       <c r="AF52" s="38"/>
       <c r="AG52" s="38"/>
       <c r="AH52" s="40" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="AI52" s="38"/>
       <c r="AJ52" s="38"/>
@@ -3519,9 +3536,11 @@
         <v>86</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="C53" s="38"/>
+        <v>160</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>161</v>
+      </c>
       <c r="D53" s="39"/>
       <c r="E53" s="38"/>
       <c r="F53" s="38"/>
@@ -3540,7 +3559,7 @@
       <c r="S53" s="39"/>
       <c r="T53" s="39"/>
       <c r="U53" s="38" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="V53" s="39"/>
       <c r="W53" s="39"/>
@@ -3555,7 +3574,7 @@
       <c r="AF53" s="38"/>
       <c r="AG53" s="38"/>
       <c r="AH53" s="40" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="AI53" s="38"/>
       <c r="AJ53" s="38"/>
@@ -3565,9 +3584,11 @@
         <v>86</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="C54" s="38"/>
+        <v>163</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>164</v>
+      </c>
       <c r="D54" s="39"/>
       <c r="E54" s="38"/>
       <c r="F54" s="38"/>
@@ -3586,7 +3607,7 @@
       <c r="S54" s="39"/>
       <c r="T54" s="39"/>
       <c r="U54" s="38" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="V54" s="39"/>
       <c r="W54" s="39"/>
@@ -3601,7 +3622,7 @@
       <c r="AF54" s="38"/>
       <c r="AG54" s="38"/>
       <c r="AH54" s="40" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="AI54" s="38"/>
       <c r="AJ54" s="38"/>
@@ -3611,9 +3632,11 @@
         <v>86</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="C55" s="38"/>
+        <v>166</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>168</v>
+      </c>
       <c r="D55" s="39"/>
       <c r="E55" s="38"/>
       <c r="F55" s="38"/>
@@ -3632,7 +3655,7 @@
       <c r="S55" s="39"/>
       <c r="T55" s="39"/>
       <c r="U55" s="38" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="V55" s="39"/>
       <c r="W55" s="39"/>
@@ -3647,7 +3670,7 @@
       <c r="AF55" s="38"/>
       <c r="AG55" s="38"/>
       <c r="AH55" s="40" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="AI55" s="38"/>
       <c r="AJ55" s="38"/>
@@ -3657,9 +3680,11 @@
         <v>86</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="C56" s="38"/>
+        <v>173</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>174</v>
+      </c>
       <c r="D56" s="39"/>
       <c r="E56" s="38"/>
       <c r="F56" s="38"/>
@@ -3678,7 +3703,7 @@
       <c r="S56" s="39"/>
       <c r="T56" s="39"/>
       <c r="U56" s="38" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="V56" s="39"/>
       <c r="W56" s="39"/>
@@ -3693,7 +3718,7 @@
       <c r="AF56" s="38"/>
       <c r="AG56" s="38"/>
       <c r="AH56" s="40" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="AI56" s="38"/>
       <c r="AJ56" s="38"/>
@@ -3703,9 +3728,11 @@
         <v>86</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="C57" s="38"/>
+        <v>176</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>177</v>
+      </c>
       <c r="D57" s="39"/>
       <c r="E57" s="38"/>
       <c r="F57" s="38"/>
@@ -3724,7 +3751,7 @@
       <c r="S57" s="39"/>
       <c r="T57" s="39"/>
       <c r="U57" s="38" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="V57" s="39"/>
       <c r="W57" s="39"/>
@@ -3739,7 +3766,7 @@
       <c r="AF57" s="38"/>
       <c r="AG57" s="38"/>
       <c r="AH57" s="40" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="AI57" s="38"/>
       <c r="AJ57" s="38"/>
@@ -3749,9 +3776,11 @@
         <v>86</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="C58" s="38"/>
+        <v>180</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>181</v>
+      </c>
       <c r="D58" s="39"/>
       <c r="E58" s="38"/>
       <c r="F58" s="38"/>
@@ -3770,7 +3799,7 @@
       <c r="S58" s="39"/>
       <c r="T58" s="39"/>
       <c r="U58" s="38" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="V58" s="39"/>
       <c r="W58" s="39"/>
@@ -3785,7 +3814,7 @@
       <c r="AF58" s="38"/>
       <c r="AG58" s="38"/>
       <c r="AH58" s="40" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="AI58" s="38"/>
       <c r="AJ58" s="38"/>
@@ -3795,9 +3824,11 @@
         <v>86</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="C59" s="38"/>
+        <v>183</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>184</v>
+      </c>
       <c r="D59" s="39"/>
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
@@ -3816,7 +3847,7 @@
       <c r="S59" s="39"/>
       <c r="T59" s="39"/>
       <c r="U59" s="38" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="V59" s="39"/>
       <c r="W59" s="39"/>
@@ -3831,7 +3862,7 @@
       <c r="AF59" s="38"/>
       <c r="AG59" s="38"/>
       <c r="AH59" s="40" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="AI59" s="38"/>
       <c r="AJ59" s="38"/>
@@ -3841,9 +3872,11 @@
         <v>86</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="C60" s="38"/>
+        <v>186</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>187</v>
+      </c>
       <c r="D60" s="39"/>
       <c r="E60" s="38"/>
       <c r="F60" s="38"/>
@@ -3862,7 +3895,7 @@
       <c r="S60" s="39"/>
       <c r="T60" s="39"/>
       <c r="U60" s="38" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="V60" s="39"/>
       <c r="W60" s="39"/>
@@ -3877,7 +3910,7 @@
       <c r="AF60" s="38"/>
       <c r="AG60" s="38"/>
       <c r="AH60" s="40" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="AI60" s="38"/>
       <c r="AJ60" s="38"/>
@@ -3887,9 +3920,11 @@
         <v>86</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="C61" s="38"/>
+        <v>189</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>190</v>
+      </c>
       <c r="D61" s="39"/>
       <c r="E61" s="38"/>
       <c r="F61" s="38"/>
@@ -3908,7 +3943,7 @@
       <c r="S61" s="39"/>
       <c r="T61" s="39"/>
       <c r="U61" s="38" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="V61" s="39"/>
       <c r="W61" s="39"/>
@@ -3923,7 +3958,7 @@
       <c r="AF61" s="38"/>
       <c r="AG61" s="38"/>
       <c r="AH61" s="40" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="AI61" s="38"/>
       <c r="AJ61" s="38"/>
@@ -3933,9 +3968,11 @@
         <v>86</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="C62" s="38"/>
+        <v>194</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>195</v>
+      </c>
       <c r="D62" s="39"/>
       <c r="E62" s="38"/>
       <c r="F62" s="38"/>
@@ -3954,7 +3991,7 @@
       <c r="S62" s="39"/>
       <c r="T62" s="39"/>
       <c r="U62" s="38" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="V62" s="39"/>
       <c r="W62" s="39"/>
@@ -3969,7 +4006,7 @@
       <c r="AF62" s="38"/>
       <c r="AG62" s="38"/>
       <c r="AH62" s="40" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="AI62" s="38"/>
       <c r="AJ62" s="38"/>
@@ -3979,9 +4016,11 @@
         <v>86</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="C63" s="38"/>
+        <v>197</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>198</v>
+      </c>
       <c r="D63" s="39"/>
       <c r="E63" s="38"/>
       <c r="F63" s="38"/>
@@ -4000,7 +4039,7 @@
       <c r="S63" s="39"/>
       <c r="T63" s="39"/>
       <c r="U63" s="38" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="V63" s="39"/>
       <c r="W63" s="39"/>
@@ -4015,20 +4054,20 @@
       <c r="AF63" s="38"/>
       <c r="AG63" s="38"/>
       <c r="AH63" s="40" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="AI63" s="38"/>
       <c r="AJ63" s="38"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D64" s="44"/>
       <c r="E64" s="43"/>
@@ -4069,9 +4108,11 @@
         <v>86</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="C65" s="38"/>
+        <v>214</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>215</v>
+      </c>
       <c r="D65" s="39"/>
       <c r="E65" s="38"/>
       <c r="F65" s="38"/>
@@ -4090,7 +4131,7 @@
       <c r="S65" s="39"/>
       <c r="T65" s="39"/>
       <c r="U65" s="43" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="V65" s="39"/>
       <c r="W65" s="39"/>
@@ -4113,9 +4154,11 @@
         <v>86</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="C66" s="38"/>
+        <v>218</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>71</v>
+      </c>
       <c r="D66" s="39"/>
       <c r="E66" s="38"/>
       <c r="F66" s="38"/>
@@ -4134,7 +4177,7 @@
       <c r="S66" s="39"/>
       <c r="T66" s="39"/>
       <c r="U66" s="43" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="V66" s="39"/>
       <c r="W66" s="39"/>
@@ -4157,9 +4200,11 @@
         <v>86</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="C67" s="38"/>
+        <v>221</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>222</v>
+      </c>
       <c r="D67" s="39"/>
       <c r="E67" s="38"/>
       <c r="F67" s="38"/>
@@ -4178,7 +4223,7 @@
       <c r="S67" s="39"/>
       <c r="T67" s="39"/>
       <c r="U67" s="43" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="V67" s="39"/>
       <c r="W67" s="39"/>
@@ -4201,9 +4246,11 @@
         <v>86</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="C68" s="38"/>
+        <v>224</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>49</v>
+      </c>
       <c r="D68" s="39"/>
       <c r="E68" s="38"/>
       <c r="F68" s="38"/>
@@ -4222,7 +4269,7 @@
       <c r="S68" s="39"/>
       <c r="T68" s="39"/>
       <c r="U68" s="43" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="V68" s="39"/>
       <c r="W68" s="39"/>
@@ -4245,9 +4292,11 @@
         <v>86</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="C69" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>227</v>
+      </c>
       <c r="D69" s="39"/>
       <c r="E69" s="38"/>
       <c r="F69" s="38"/>
@@ -4266,7 +4315,7 @@
       <c r="S69" s="39"/>
       <c r="T69" s="39"/>
       <c r="U69" s="43" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="V69" s="39"/>
       <c r="W69" s="39"/>
@@ -4289,9 +4338,11 @@
         <v>86</v>
       </c>
       <c r="B70" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="C70" s="38"/>
+        <v>229</v>
+      </c>
+      <c r="C70" s="45" t="s">
+        <v>230</v>
+      </c>
       <c r="D70" s="39"/>
       <c r="E70" s="38"/>
       <c r="F70" s="38"/>
@@ -4310,7 +4361,7 @@
       <c r="S70" s="39"/>
       <c r="T70" s="39"/>
       <c r="U70" s="38" t="s">
-        <v>282</v>
+        <v>231</v>
       </c>
       <c r="V70" s="39"/>
       <c r="W70" s="39"/>
@@ -4333,7 +4384,7 @@
         <v>85</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="C71" s="43"/>
       <c r="D71" s="44"/>
@@ -4375,7 +4426,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C72" s="43"/>
       <c r="D72" s="44"/>
@@ -4440,319 +4491,319 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
+      <c r="A3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="C5" s="27"/>
+      <c r="C5" s="25"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="C6" s="27"/>
+      <c r="C6" s="25"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="C7" s="24"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="C8" s="24"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="C9" s="24"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="C10" s="24"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="24"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="24"/>
+      <c r="C12" s="22"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="C13" s="24"/>
+      <c r="C13" s="22"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="C14" s="24"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="C15" s="24"/>
+      <c r="C15" s="22"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="C16" s="24"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="C17" s="24"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="24"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="24"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="24"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="24"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="24"/>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="24"/>
+      <c r="C23" s="22"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="24"/>
+      <c r="C24" s="22"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="24"/>
+      <c r="C25" s="22"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="24"/>
+      <c r="C26" s="22"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="24"/>
+      <c r="C27" s="22"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="24"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="24"/>
+      <c r="C29" s="22"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="24"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="24"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="24"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="24"/>
+      <c r="C33" s="22"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="24"/>
+      <c r="C34" s="22"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="24"/>
+      <c r="C35" s="22"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="24"/>
+      <c r="C36" s="22"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="24"/>
+      <c r="C37" s="22"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="24"/>
+      <c r="C38" s="22"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="24"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="24"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="24"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="24"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="24"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="24"/>
+      <c r="C44" s="22"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="24"/>
+      <c r="C45" s="22"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="24"/>
+      <c r="C46" s="22"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="24"/>
+      <c r="C47" s="22"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="24"/>
+      <c r="C48" s="22"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="24"/>
+      <c r="C49" s="22"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="24"/>
+      <c r="C50" s="22"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="24"/>
+      <c r="C51" s="22"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="24"/>
+      <c r="C52" s="22"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="24"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="24"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="24"/>
+      <c r="C55" s="22"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="24"/>
+      <c r="C56" s="22"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="24"/>
+      <c r="C57" s="22"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="24"/>
+      <c r="C58" s="22"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="24"/>
+      <c r="C59" s="22"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="24"/>
+      <c r="C60" s="22"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="24"/>
+      <c r="C61" s="22"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="24"/>
+      <c r="C62" s="22"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="24"/>
+      <c r="C63" s="22"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="24"/>
+      <c r="C64" s="22"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="24"/>
+      <c r="C65" s="22"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="24"/>
+      <c r="C66" s="22"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="24"/>
+      <c r="C67" s="22"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4779,87 +4830,87 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="A1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="E1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="21">
+      <c r="B2" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="24">
         <f>NOW()</f>
-        <v>43755.20938</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
+        <v>43773.37915</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4884,1121 +4935,1121 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
+      <c r="A3" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
+      <c r="A5" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
+      <c r="A6" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
+      <c r="A7" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
+      <c r="A8" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
+      <c r="A9" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
+      <c r="A11" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
+      <c r="A12" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
+      <c r="A13" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
+      <c r="A14" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
+      <c r="A15" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
+      <c r="A16" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
+      <c r="C18" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
+      <c r="A19" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
+      <c r="A20" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
+      <c r="A21" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
+      <c r="A22" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
+      <c r="A23" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
+      <c r="A25" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
+      <c r="A26" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
+      <c r="A27" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
+      <c r="A28" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
+      <c r="A29" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
+      <c r="A31" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
+      <c r="A32" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="C43" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -6009,26 +6060,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -6038,290 +6089,290 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="19"/>
+      <c r="A48" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>225</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="19"/>
+      <c r="A49" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="B51" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C51" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="B52" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="C52" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="C53" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="B54" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="C54" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="B55" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="C55" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="B56" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>246</v>
+      <c r="A58" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>247</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>248</v>
+      <c r="A59" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="C60" s="26" t="s">
-        <v>250</v>
+      <c r="A60" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="26" t="s">
-        <v>244</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>174</v>
+      <c r="A61" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>253</v>
+      <c r="A63" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>255</v>
+      <c r="A64" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>258</v>
+      <c r="A65" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="C66" s="26" t="s">
-        <v>260</v>
+      <c r="A66" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>263</v>
+      <c r="A67" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="B69" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="C69" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="B70" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C70" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="B72" t="s">
-        <v>271</v>
-      </c>
-      <c r="C72" s="45" t="s">
-        <v>216</v>
+        <v>284</v>
+      </c>
+      <c r="C72" s="46" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="B73" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="C73" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/pnc_danger_sign_follow_up_baby.xlsx
+++ b/config/default/forms/app/pnc_danger_sign_follow_up_baby.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="287">
   <si>
     <t>type</t>
   </si>
@@ -115,46 +115,55 @@
     <t>repeat_count</t>
   </si>
   <si>
+    <t>form_title</t>
+  </si>
+  <si>
     <t>list_name</t>
   </si>
   <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
     <t>cht::notes</t>
   </si>
   <si>
+    <t>PNC danger sign follow-up - baby</t>
+  </si>
+  <si>
     <t>begin group</t>
   </si>
   <si>
+    <t>pnc_danger_sign_follow_up_baby</t>
+  </si>
+  <si>
     <t>inputs</t>
   </si>
   <si>
     <t>NO_LABEL</t>
   </si>
   <si>
-    <t>form_title</t>
-  </si>
-  <si>
     <t>./source = 'user'</t>
   </si>
   <si>
     <t>field-list</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>instance_name</t>
-  </si>
-  <si>
-    <t>default_language</t>
+    <t>yes_no</t>
   </si>
   <si>
     <t>hidden</t>
@@ -175,7 +184,13 @@
     <t>Source ID</t>
   </si>
   <si>
-    <t>PNC danger sign follow-up - baby</t>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
   <si>
     <t>delivery_uuid</t>
@@ -184,7 +199,40 @@
     <t>Delivery Report ID</t>
   </si>
   <si>
-    <t>yes_no</t>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>db:person</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>What is the patient's name?</t>
+  </si>
+  <si>
+    <t>db-object</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>short_name</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>Patient ID</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
   </si>
   <si>
     <t>yes</t>
@@ -193,25 +241,10 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>pnc_danger_sign_follow_up_baby</t>
-  </si>
-  <si>
-    <t>db:person</t>
-  </si>
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>What is the patient's name?</t>
-  </si>
-  <si>
-    <t>db-object</t>
-  </si>
-  <si>
-    <t>Name</t>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Sex</t>
   </si>
   <si>
     <t>no</t>
@@ -220,42 +253,9 @@
     <t>No</t>
   </si>
   <si>
-    <t>short_name</t>
-  </si>
-  <si>
-    <t>Short Name</t>
-  </si>
-  <si>
-    <t>patient_id</t>
-  </si>
-  <si>
-    <t>Patient ID</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>pages</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
     <t>parent</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
     <t>Parent ID</t>
   </si>
   <si>
@@ -289,12 +289,27 @@
     <t>../inputs/contact/_id</t>
   </si>
   <si>
+    <t>lmp_approximations</t>
+  </si>
+  <si>
+    <t>upto_2_months_ago</t>
+  </si>
+  <si>
     <t>../inputs/contact/patient_id</t>
   </si>
   <si>
+    <t>Upto 2 Months Ago</t>
+  </si>
+  <si>
     <t>patient_name</t>
   </si>
   <si>
+    <t>upto_3_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 3 Months Ago</t>
+  </si>
+  <si>
     <t>../inputs/contact/name</t>
   </si>
   <si>
@@ -307,30 +322,90 @@
     <t>t_danger_signs_referral_follow_up</t>
   </si>
   <si>
+    <t>upto_4_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 4 Months Ago</t>
+  </si>
+  <si>
     <t>../danger_signs/r_danger_sign_present</t>
   </si>
   <si>
+    <t>between_5_and_6_months_ago</t>
+  </si>
+  <si>
+    <t>Between 5 And 6 Months Ago</t>
+  </si>
+  <si>
+    <t>between_7_and_8_months_ago</t>
+  </si>
+  <si>
+    <t>Between 7 And 8 Months Ago</t>
+  </si>
+  <si>
     <t>danger_signs</t>
   </si>
   <si>
     <t>Danger Sign Follow-up - Baby</t>
   </si>
   <si>
+    <t>trimester1_choices</t>
+  </si>
+  <si>
+    <t>eat_extra_meal</t>
+  </si>
+  <si>
+    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
+  </si>
+  <si>
+    <t>take_iron_and_folic_acid</t>
+  </si>
+  <si>
+    <t>Take iron and folic acid tablets</t>
+  </si>
+  <si>
+    <t>avoid_heavy_work</t>
+  </si>
+  <si>
+    <t>Avoid heavy work, rest more</t>
+  </si>
+  <si>
     <t>select_one yes_no</t>
   </si>
   <si>
+    <t>sleep_under_bednet</t>
+  </si>
+  <si>
+    <t>Sleep under an insecticide treated bednet</t>
+  </si>
+  <si>
     <t>visit_confirm</t>
   </si>
   <si>
     <t>Was the baby taken to the health facility as recommended?</t>
   </si>
   <si>
+    <t>go_for_anc_visit</t>
+  </si>
+  <si>
+    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
+  </si>
+  <si>
     <t>danger_sign_present</t>
   </si>
   <si>
+    <t>develop_birth_plan</t>
+  </si>
+  <si>
     <t>Is the baby still experiencing any danger signs?</t>
   </si>
   <si>
+    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
+  </si>
+  <si>
+    <t>trimester2_choices</t>
+  </si>
+  <si>
     <t>note</t>
   </si>
   <si>
@@ -349,24 +424,72 @@
     <t>Infected umbilical cord</t>
   </si>
   <si>
+    <t>couselling_on_exclusive_breastfeeding</t>
+  </si>
+  <si>
     <t>convulsion</t>
   </si>
   <si>
+    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
+  </si>
+  <si>
     <t>Convulsions</t>
   </si>
   <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>heart_condition</t>
+  </si>
+  <si>
+    <t>Heart condition</t>
+  </si>
+  <si>
     <t>difficulty_feeding</t>
   </si>
   <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>high_blood_pressure</t>
+  </si>
+  <si>
+    <t>High blood pressure</t>
+  </si>
+  <si>
+    <t>known_diabetes</t>
+  </si>
+  <si>
+    <t>Known diabetes</t>
+  </si>
+  <si>
     <t>Difficulty feeding or drinking</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>vomit</t>
   </si>
   <si>
     <t>Vomits everything</t>
   </si>
   <si>
+    <t>hiv_statuses</t>
+  </si>
+  <si>
+    <t>known</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>drowsy</t>
   </si>
   <si>
@@ -383,6 +506,9 @@
   </si>
   <si>
     <t>Yellow skin color</t>
+  </si>
+  <si>
+    <t>fp_methods</t>
   </si>
   <si>
     <t>fever</t>
@@ -444,267 +570,300 @@
     <t xml:space="preserve">Please advise the caregiver to do so and accompany them if possible. </t>
   </si>
   <si>
-    <t>lmp_approximations</t>
-  </si>
-  <si>
-    <t>upto_2_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 2 Months Ago</t>
-  </si>
-  <si>
-    <t>upto_3_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 3 Months Ago</t>
-  </si>
-  <si>
-    <t>upto_4_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 4 Months Ago</t>
-  </si>
-  <si>
-    <t>between_5_and_6_months_ago</t>
-  </si>
-  <si>
-    <t>Between 5 And 6 Months Ago</t>
-  </si>
-  <si>
-    <t>between_7_and_8_months_ago</t>
-  </si>
-  <si>
-    <t>Between 7 And 8 Months Ago</t>
-  </si>
-  <si>
-    <t>trimester1_choices</t>
-  </si>
-  <si>
-    <t>eat_extra_meal</t>
-  </si>
-  <si>
-    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
-  </si>
-  <si>
-    <t>take_iron_and_folic_acid</t>
-  </si>
-  <si>
-    <t>Take iron and folic acid tablets</t>
-  </si>
-  <si>
     <t>__visited_hf</t>
   </si>
   <si>
-    <t>avoid_heavy_work</t>
-  </si>
-  <si>
-    <t>Avoid heavy work, rest more</t>
+    <t>${visit_confirm}</t>
+  </si>
+  <si>
+    <t>Combined oral contraceptives</t>
   </si>
   <si>
     <t>Whether or not the baby was taken to the health facility as recommended.</t>
   </si>
   <si>
-    <t>${visit_confirm}</t>
-  </si>
-  <si>
-    <t>sleep_under_bednet</t>
-  </si>
-  <si>
-    <t>Sleep under an insecticide treated bednet</t>
-  </si>
-  <si>
     <t>__still_experiencing_danger_sign</t>
   </si>
   <si>
+    <t>${danger_sign_present}</t>
+  </si>
+  <si>
+    <t>Progesterone only pills</t>
+  </si>
+  <si>
     <t>Whether or not the baby is still experiencing any danger signs.</t>
   </si>
   <si>
-    <t>${danger_sign_present}</t>
+    <t>Injectibles</t>
   </si>
   <si>
     <t>__infected_umbilical_cord</t>
   </si>
   <si>
+    <t>${infected_umbilical_cord}</t>
+  </si>
+  <si>
+    <t>Implants (1 rod)</t>
+  </si>
+  <si>
     <t>Whether or not the umbilical cord was infected.</t>
   </si>
   <si>
-    <t>${infected_umbilical_cord}</t>
+    <t>Implants (2 rods)</t>
   </si>
   <si>
     <t>__convulsions</t>
   </si>
   <si>
-    <t>go_for_anc_visit</t>
+    <t>IUD</t>
+  </si>
+  <si>
+    <t>${convulsion}</t>
   </si>
   <si>
     <t>Whether or not the baby is suffering from convulsions.</t>
   </si>
   <si>
-    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
-  </si>
-  <si>
-    <t>${convulsion}</t>
-  </si>
-  <si>
-    <t>develop_birth_plan</t>
-  </si>
-  <si>
-    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
-  </si>
-  <si>
     <t>__difficulty_feeding_or_drinking</t>
   </si>
   <si>
+    <t>${difficulty_feeding}</t>
+  </si>
+  <si>
+    <t>Condoms</t>
+  </si>
+  <si>
     <t>Whether or not the baby is having difficulty feeding or drinking.</t>
   </si>
   <si>
-    <t>${difficulty_feeding}</t>
-  </si>
-  <si>
     <t>__vomits_everything</t>
   </si>
   <si>
+    <t>Tubal ligation</t>
+  </si>
+  <si>
+    <t>Cycle beads</t>
+  </si>
+  <si>
+    <t>${vomit}</t>
+  </si>
+  <si>
     <t>Whether or not the baby vomits everything.</t>
   </si>
   <si>
-    <t>${vomit}</t>
-  </si>
-  <si>
-    <t>trimester2_choices</t>
-  </si>
-  <si>
     <t>__drowsy_or_unconscious</t>
   </si>
   <si>
+    <t>${drowsy}</t>
+  </si>
+  <si>
     <t>Whether or not the baby is drowsy or unconscious.</t>
   </si>
   <si>
-    <t>${drowsy}</t>
-  </si>
-  <si>
     <t>__body_stiffness</t>
   </si>
   <si>
+    <t>${stiff}</t>
+  </si>
+  <si>
     <t>Whether or not the baby's body is stiff.</t>
   </si>
   <si>
-    <t>${stiff}</t>
-  </si>
-  <si>
     <t>__yellow_skin_color</t>
   </si>
   <si>
+    <t>${yellow_skin}</t>
+  </si>
+  <si>
     <t>Whether or not the baby has yellow skin color.</t>
   </si>
   <si>
-    <t>${yellow_skin}</t>
-  </si>
-  <si>
     <t>__fever</t>
   </si>
   <si>
+    <t>${fever}</t>
+  </si>
+  <si>
     <t>Whether or not the baby has a fever.</t>
   </si>
   <si>
-    <t>couselling_on_exclusive_breastfeeding</t>
-  </si>
-  <si>
-    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
-  </si>
-  <si>
-    <t>${fever}</t>
-  </si>
-  <si>
     <t>__blue_skin_color</t>
   </si>
   <si>
+    <t>${blue_skin}</t>
+  </si>
+  <si>
     <t>Whether or not the baby has blue skin color (hypothermia).</t>
   </si>
   <si>
-    <t>${blue_skin}</t>
-  </si>
-  <si>
     <t>__has_danger_sign</t>
   </si>
   <si>
+    <t>${r_danger_sign_present}</t>
+  </si>
+  <si>
+    <t>reasons_not_on_fp</t>
+  </si>
+  <si>
     <t>Whether or not any danger signs are present.</t>
   </si>
   <si>
-    <t>conditions</t>
-  </si>
-  <si>
-    <t>heart_condition</t>
-  </si>
-  <si>
-    <t>Heart condition</t>
-  </si>
-  <si>
-    <t>${r_danger_sign_present}</t>
-  </si>
-  <si>
-    <t>asthma</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
-    <t>high_blood_pressure</t>
-  </si>
-  <si>
-    <t>High blood pressure</t>
-  </si>
-  <si>
-    <t>known_diabetes</t>
+    <t>Wants to get pregnant</t>
+  </si>
+  <si>
+    <t>Did not want FP</t>
+  </si>
+  <si>
+    <t>follow_up_methods</t>
+  </si>
+  <si>
+    <t>in_person</t>
+  </si>
+  <si>
+    <t>In person</t>
+  </si>
+  <si>
+    <t>by_phone</t>
+  </si>
+  <si>
+    <t>By phone</t>
   </si>
   <si>
     <t>meta</t>
   </si>
   <si>
-    <t>Known diabetes</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>hiv_statuses</t>
-  </si>
-  <si>
-    <t>known</t>
+    <t>reasons_for_missing_visit</t>
+  </si>
+  <si>
+    <t>not_reminded</t>
+  </si>
+  <si>
+    <t>She was not reminded</t>
+  </si>
+  <si>
+    <t>travelled</t>
+  </si>
+  <si>
+    <t>She had travelled</t>
+  </si>
+  <si>
+    <t>no_lab_results</t>
+  </si>
+  <si>
+    <t>No Lab results yet</t>
+  </si>
+  <si>
+    <t>too_early</t>
+  </si>
+  <si>
+    <t>It is too early to start clinic</t>
+  </si>
+  <si>
+    <t>relocated</t>
+  </si>
+  <si>
+    <t>Relocated</t>
+  </si>
+  <si>
+    <t>actions_taken</t>
+  </si>
+  <si>
+    <t>referred</t>
+  </si>
+  <si>
+    <t>Referred the mother</t>
+  </si>
+  <si>
+    <t>key_message</t>
+  </si>
+  <si>
+    <t>Provided key health message</t>
+  </si>
+  <si>
+    <t>accompany</t>
+  </si>
+  <si>
+    <t>Accompany the mother to facility</t>
+  </si>
+  <si>
+    <t>recent_foods</t>
+  </si>
+  <si>
+    <t>carbohydrates</t>
+  </si>
+  <si>
+    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
+  </si>
+  <si>
+    <t>protein</t>
   </si>
   <si>
     <t>__patient_uuid</t>
   </si>
   <si>
+    <t>Body building foods: Milk, eggs, meat</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
+  </si>
+  <si>
+    <t>fruits</t>
+  </si>
+  <si>
+    <t>Fruits: Mangoes, ripe bananas, oranges</t>
+  </si>
+  <si>
+    <t>../../../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
     <t>Patient UUID</t>
   </si>
   <si>
-    <t>../../../inputs/contact/_id</t>
-  </si>
-  <si>
-    <t>unknown</t>
+    <t>pos_neg</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>__patient_id</t>
   </si>
   <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>reasons_to_discontinue</t>
+  </si>
+  <si>
+    <t>wants_to_get_pregnant</t>
+  </si>
+  <si>
     <t>../../../inputs/contact/patient_id</t>
   </si>
   <si>
-    <t>fp_methods</t>
-  </si>
-  <si>
     <t>__household_uuid</t>
   </si>
   <si>
-    <t>Household uuid</t>
-  </si>
-  <si>
     <t>../../../inputs/contact/parent/_id</t>
   </si>
   <si>
+    <t>Household UUID</t>
+  </si>
+  <si>
     <t>__source</t>
   </si>
   <si>
@@ -714,184 +873,25 @@
     <t>__source_id</t>
   </si>
   <si>
+    <t>feels_sick_when_using_it</t>
+  </si>
+  <si>
+    <t>Feels sick when using it</t>
+  </si>
+  <si>
+    <t>../../../inputs/source_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">Source ID </t>
   </si>
   <si>
-    <t>../../../inputs/source_id</t>
-  </si>
-  <si>
     <t>__delivery_uuid</t>
   </si>
   <si>
-    <t>Delivery  UUID</t>
-  </si>
-  <si>
     <t>../../inputs/delivery_uuid</t>
   </si>
   <si>
-    <t>Combined oral contraceptives</t>
-  </si>
-  <si>
-    <t>Progesterone only pills</t>
-  </si>
-  <si>
-    <t>Injectibles</t>
-  </si>
-  <si>
-    <t>Implants (1 rod)</t>
-  </si>
-  <si>
-    <t>Implants (2 rods)</t>
-  </si>
-  <si>
-    <t>IUD</t>
-  </si>
-  <si>
-    <t>Condoms</t>
-  </si>
-  <si>
-    <t>Tubal ligation</t>
-  </si>
-  <si>
-    <t>Cycle beads</t>
-  </si>
-  <si>
-    <t>reasons_not_on_fp</t>
-  </si>
-  <si>
-    <t>Wants to get pregnant</t>
-  </si>
-  <si>
-    <t>Did not want FP</t>
-  </si>
-  <si>
-    <t>follow_up_methods</t>
-  </si>
-  <si>
-    <t>in_person</t>
-  </si>
-  <si>
-    <t>In person</t>
-  </si>
-  <si>
-    <t>by_phone</t>
-  </si>
-  <si>
-    <t>By phone</t>
-  </si>
-  <si>
-    <t>reasons_for_missing_visit</t>
-  </si>
-  <si>
-    <t>not_reminded</t>
-  </si>
-  <si>
-    <t>She was not reminded</t>
-  </si>
-  <si>
-    <t>travelled</t>
-  </si>
-  <si>
-    <t>She had travelled</t>
-  </si>
-  <si>
-    <t>no_lab_results</t>
-  </si>
-  <si>
-    <t>No Lab results yet</t>
-  </si>
-  <si>
-    <t>too_early</t>
-  </si>
-  <si>
-    <t>It is too early to start clinic</t>
-  </si>
-  <si>
-    <t>relocated</t>
-  </si>
-  <si>
-    <t>Relocated</t>
-  </si>
-  <si>
-    <t>actions_taken</t>
-  </si>
-  <si>
-    <t>referred</t>
-  </si>
-  <si>
-    <t>Referred the mother</t>
-  </si>
-  <si>
-    <t>key_message</t>
-  </si>
-  <si>
-    <t>Provided key health message</t>
-  </si>
-  <si>
-    <t>accompany</t>
-  </si>
-  <si>
-    <t>Accompany the mother to facility</t>
-  </si>
-  <si>
-    <t>recent_foods</t>
-  </si>
-  <si>
-    <t>carbohydrates</t>
-  </si>
-  <si>
-    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>Body building foods: Milk, eggs, meat</t>
-  </si>
-  <si>
-    <t>vegetables</t>
-  </si>
-  <si>
-    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
-  </si>
-  <si>
-    <t>fruits</t>
-  </si>
-  <si>
-    <t>Fruits: Mangoes, ripe bananas, oranges</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>None of the above</t>
-  </si>
-  <si>
-    <t>pos_neg</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>reasons_to_discontinue</t>
-  </si>
-  <si>
-    <t>wants_to_get_pregnant</t>
-  </si>
-  <si>
-    <t>feels_sick_when_using_it</t>
-  </si>
-  <si>
-    <t>Feels sick when using it</t>
+    <t>Delivery UUID</t>
   </si>
 </sst>
 </file>
@@ -950,26 +950,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFFCE5CD"/>
+        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
         <bgColor rgb="FFF3F3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
     <fill>
@@ -1038,27 +1038,33 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1068,22 +1074,25 @@
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -1094,17 +1103,8 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
@@ -1133,11 +1133,11 @@
     <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1296,982 +1296,982 @@
       <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
+      <c r="AH1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
+      <c r="A2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
-      <c r="AH3" s="10"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
+      <c r="B3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
-      <c r="AB4" s="10"/>
-      <c r="AC4" s="10"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
-      <c r="AF4" s="10"/>
-      <c r="AG4" s="10"/>
-      <c r="AH4" s="10"/>
-      <c r="AI4" s="10"/>
-      <c r="AJ4" s="10"/>
+      <c r="A4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="10"/>
-      <c r="AJ5" s="10"/>
+      <c r="A5" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
-      <c r="AI6" s="10"/>
-      <c r="AJ6" s="10"/>
+      <c r="A6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="12"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="12"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="12"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="12"/>
+      <c r="AE14" s="12"/>
+      <c r="AF14" s="12"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="12"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="10"/>
-      <c r="AI7" s="10"/>
-      <c r="AJ7" s="10"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="10"/>
-      <c r="AD8" s="10"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="10"/>
-      <c r="AI8" s="10"/>
-      <c r="AJ8" s="10"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="10"/>
-      <c r="AI9" s="10"/>
-      <c r="AJ9" s="10"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
-      <c r="AB10" s="10"/>
-      <c r="AC10" s="10"/>
-      <c r="AD10" s="10"/>
-      <c r="AE10" s="10"/>
-      <c r="AF10" s="10"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-      <c r="AJ10" s="10"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
-      <c r="AB11" s="10"/>
-      <c r="AC11" s="10"/>
-      <c r="AD11" s="10">
-        <v>0.0</v>
-      </c>
-      <c r="AE11" s="10"/>
-      <c r="AF11" s="10"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-      <c r="AJ11" s="10"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="10"/>
-      <c r="AF12" s="10"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-      <c r="AJ12" s="10"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
-      <c r="AB13" s="10"/>
-      <c r="AC13" s="10"/>
-      <c r="AD13" s="10"/>
-      <c r="AE13" s="10"/>
-      <c r="AF13" s="10"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-      <c r="AJ13" s="10"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="10"/>
-      <c r="AE15" s="10"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="10"/>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
-      <c r="AB16" s="10"/>
-      <c r="AC16" s="10"/>
-      <c r="AD16" s="10"/>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="10"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
+      <c r="C16" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="10"/>
-      <c r="AB17" s="10"/>
-      <c r="AC17" s="10"/>
-      <c r="AD17" s="10"/>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="10"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="A18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="10"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="10"/>
-      <c r="AB18" s="10"/>
-      <c r="AC18" s="10"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="10"/>
-      <c r="AB19" s="10"/>
-      <c r="AC19" s="10"/>
-      <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="10"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
+      <c r="B19" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
-      <c r="AD20" s="10"/>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="10"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
+      <c r="B20" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+      <c r="AI20" s="12"/>
+      <c r="AJ20" s="12"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="10"/>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
+      <c r="B21" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
+      <c r="B22" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+      <c r="AI22" s="12"/>
+      <c r="AJ22" s="12"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="10"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
+      <c r="B23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+      <c r="AF23" s="12"/>
+      <c r="AG23" s="12"/>
+      <c r="AH23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="AF24" s="28"/>
@@ -2284,7 +2284,7 @@
         <v>87</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
@@ -2317,7 +2317,7 @@
       <c r="AD25" s="30"/>
       <c r="AE25" s="30"/>
       <c r="AF25" s="31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG25" s="30"/>
       <c r="AH25" s="30"/>
@@ -2332,7 +2332,7 @@
         <v>89</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
@@ -2365,7 +2365,7 @@
       <c r="AD26" s="30"/>
       <c r="AE26" s="30"/>
       <c r="AF26" s="31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG26" s="30"/>
       <c r="AH26" s="30"/>
@@ -2377,10 +2377,10 @@
         <v>86</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
@@ -2389,7 +2389,7 @@
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
@@ -2402,7 +2402,7 @@
       <c r="S27" s="30"/>
       <c r="T27" s="30"/>
       <c r="U27" s="31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V27" s="30"/>
       <c r="W27" s="30"/>
@@ -2415,7 +2415,7 @@
       <c r="AD27" s="30"/>
       <c r="AE27" s="30"/>
       <c r="AF27" s="31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG27" s="30"/>
       <c r="AH27" s="30"/>
@@ -2427,10 +2427,10 @@
         <v>86</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
@@ -2450,7 +2450,7 @@
       <c r="S28" s="30"/>
       <c r="T28" s="30"/>
       <c r="U28" s="31" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="V28" s="30"/>
       <c r="W28" s="30"/>
@@ -2463,7 +2463,7 @@
       <c r="AD28" s="30"/>
       <c r="AE28" s="30"/>
       <c r="AF28" s="31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG28" s="30"/>
       <c r="AH28" s="30"/>
@@ -2475,10 +2475,10 @@
         <v>86</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
@@ -2498,7 +2498,7 @@
       <c r="S29" s="30"/>
       <c r="T29" s="30"/>
       <c r="U29" s="31" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="V29" s="30"/>
       <c r="W29" s="30"/>
@@ -2511,7 +2511,7 @@
       <c r="AD29" s="30"/>
       <c r="AE29" s="30"/>
       <c r="AF29" s="31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG29" s="30"/>
       <c r="AH29" s="30"/>
@@ -2523,10 +2523,10 @@
         <v>86</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
@@ -2546,7 +2546,7 @@
       <c r="S30" s="30"/>
       <c r="T30" s="30"/>
       <c r="U30" s="31" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="V30" s="30"/>
       <c r="W30" s="30"/>
@@ -2559,7 +2559,7 @@
       <c r="AD30" s="30"/>
       <c r="AE30" s="30"/>
       <c r="AF30" s="31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG30" s="30"/>
       <c r="AH30" s="30"/>
@@ -2575,13 +2575,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="33" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
@@ -2592,7 +2592,7 @@
       <c r="J32" s="35"/>
       <c r="K32" s="34"/>
       <c r="L32" s="34" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
@@ -2621,13 +2621,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -2636,7 +2636,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
       <c r="J33" s="35" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="K33" s="35"/>
       <c r="L33" s="35"/>
@@ -2667,13 +2667,13 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="36" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -2682,7 +2682,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
       <c r="J34" s="35" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="K34" s="35"/>
       <c r="L34" s="35"/>
@@ -2713,13 +2713,13 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="36" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
@@ -2729,7 +2729,7 @@
       <c r="I35" s="35"/>
       <c r="J35" s="35"/>
       <c r="K35" s="34" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L35" s="35"/>
       <c r="M35" s="35"/>
@@ -2752,7 +2752,7 @@
       <c r="AD35" s="35"/>
       <c r="AE35" s="35"/>
       <c r="AF35" s="34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG35" s="35"/>
       <c r="AH35" s="35"/>
@@ -2761,13 +2761,13 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -2776,10 +2776,10 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
       <c r="J36" s="35" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L36" s="35"/>
       <c r="M36" s="35"/>
@@ -2809,13 +2809,13 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="36" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
@@ -2824,10 +2824,10 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
       <c r="J37" s="35" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L37" s="35"/>
       <c r="M37" s="35"/>
@@ -2857,13 +2857,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
@@ -2872,10 +2872,10 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
       <c r="J38" s="35" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
@@ -2905,13 +2905,13 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="36" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
@@ -2920,10 +2920,10 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
       <c r="J39" s="35" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L39" s="35"/>
       <c r="M39" s="35"/>
@@ -2953,13 +2953,13 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="36" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
@@ -2968,10 +2968,10 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
       <c r="J40" s="35" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L40" s="35"/>
       <c r="M40" s="35"/>
@@ -3001,13 +3001,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="36" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
@@ -3016,10 +3016,10 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
       <c r="J41" s="35" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L41" s="35"/>
       <c r="M41" s="35"/>
@@ -3049,13 +3049,13 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="36" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
@@ -3064,10 +3064,10 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
       <c r="J42" s="35" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L42" s="35"/>
       <c r="M42" s="35"/>
@@ -3097,13 +3097,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="36" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -3112,10 +3112,10 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
       <c r="J43" s="35" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L43" s="35"/>
       <c r="M43" s="35"/>
@@ -3145,13 +3145,13 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="36" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -3160,10 +3160,10 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
       <c r="J44" s="35" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L44" s="35"/>
       <c r="M44" s="35"/>
@@ -3196,10 +3196,10 @@
         <v>86</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -3219,7 +3219,7 @@
       <c r="S45" s="35"/>
       <c r="T45" s="35"/>
       <c r="U45" s="34" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="V45" s="35"/>
       <c r="W45" s="35"/>
@@ -3232,7 +3232,7 @@
       <c r="AD45" s="35"/>
       <c r="AE45" s="35"/>
       <c r="AF45" s="34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG45" s="35"/>
       <c r="AH45" s="35"/>
@@ -3241,13 +3241,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="33" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -3257,7 +3257,7 @@
       <c r="I46" s="35"/>
       <c r="J46" s="35"/>
       <c r="K46" s="34" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="L46" s="35"/>
       <c r="M46" s="35"/>
@@ -3280,7 +3280,7 @@
       <c r="AD46" s="35"/>
       <c r="AE46" s="35"/>
       <c r="AF46" s="34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG46" s="35"/>
       <c r="AH46" s="35"/>
@@ -3289,13 +3289,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="36" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -3305,7 +3305,7 @@
       <c r="I47" s="35"/>
       <c r="J47" s="35"/>
       <c r="K47" s="34" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="L47" s="35"/>
       <c r="M47" s="35"/>
@@ -3328,7 +3328,7 @@
       <c r="AD47" s="35"/>
       <c r="AE47" s="35"/>
       <c r="AF47" s="34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG47" s="35"/>
       <c r="AH47" s="35"/>
@@ -3337,13 +3337,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="36" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -3353,7 +3353,7 @@
       <c r="I48" s="35"/>
       <c r="J48" s="35"/>
       <c r="K48" s="34" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="L48" s="35"/>
       <c r="M48" s="35"/>
@@ -3376,7 +3376,7 @@
       <c r="AD48" s="35"/>
       <c r="AE48" s="35"/>
       <c r="AF48" s="34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG48" s="35"/>
       <c r="AH48" s="35"/>
@@ -3437,13 +3437,13 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="37" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D51" s="39"/>
       <c r="E51" s="38"/>
@@ -3454,7 +3454,7 @@
       <c r="J51" s="39"/>
       <c r="K51" s="39"/>
       <c r="L51" s="40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M51" s="39"/>
       <c r="N51" s="39"/>
@@ -3476,7 +3476,7 @@
       <c r="AD51" s="39"/>
       <c r="AE51" s="39"/>
       <c r="AF51" s="40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG51" s="38"/>
       <c r="AH51" s="38"/>
@@ -3488,10 +3488,10 @@
         <v>86</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>156</v>
+        <v>179</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="D52" s="39"/>
       <c r="E52" s="38"/>
@@ -3511,7 +3511,7 @@
       <c r="S52" s="39"/>
       <c r="T52" s="39"/>
       <c r="U52" s="38" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="V52" s="39"/>
       <c r="W52" s="39"/>
@@ -3526,7 +3526,7 @@
       <c r="AF52" s="38"/>
       <c r="AG52" s="38"/>
       <c r="AH52" s="40" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="AI52" s="38"/>
       <c r="AJ52" s="38"/>
@@ -3536,10 +3536,10 @@
         <v>86</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>161</v>
+        <v>183</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="D53" s="39"/>
       <c r="E53" s="38"/>
@@ -3559,7 +3559,7 @@
       <c r="S53" s="39"/>
       <c r="T53" s="39"/>
       <c r="U53" s="38" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="V53" s="39"/>
       <c r="W53" s="39"/>
@@ -3574,7 +3574,7 @@
       <c r="AF53" s="38"/>
       <c r="AG53" s="38"/>
       <c r="AH53" s="40" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="AI53" s="38"/>
       <c r="AJ53" s="38"/>
@@ -3584,10 +3584,10 @@
         <v>86</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="C54" s="40" t="s">
-        <v>164</v>
+        <v>188</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="D54" s="39"/>
       <c r="E54" s="38"/>
@@ -3607,7 +3607,7 @@
       <c r="S54" s="39"/>
       <c r="T54" s="39"/>
       <c r="U54" s="38" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="V54" s="39"/>
       <c r="W54" s="39"/>
@@ -3622,7 +3622,7 @@
       <c r="AF54" s="38"/>
       <c r="AG54" s="38"/>
       <c r="AH54" s="40" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="AI54" s="38"/>
       <c r="AJ54" s="38"/>
@@ -3632,10 +3632,10 @@
         <v>86</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="C55" s="40" t="s">
-        <v>168</v>
+        <v>193</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="D55" s="39"/>
       <c r="E55" s="38"/>
@@ -3655,7 +3655,7 @@
       <c r="S55" s="39"/>
       <c r="T55" s="39"/>
       <c r="U55" s="38" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="V55" s="39"/>
       <c r="W55" s="39"/>
@@ -3670,7 +3670,7 @@
       <c r="AF55" s="38"/>
       <c r="AG55" s="38"/>
       <c r="AH55" s="40" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="AI55" s="38"/>
       <c r="AJ55" s="38"/>
@@ -3680,10 +3680,10 @@
         <v>86</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" s="40" t="s">
-        <v>174</v>
+        <v>197</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="D56" s="39"/>
       <c r="E56" s="38"/>
@@ -3703,7 +3703,7 @@
       <c r="S56" s="39"/>
       <c r="T56" s="39"/>
       <c r="U56" s="38" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="V56" s="39"/>
       <c r="W56" s="39"/>
@@ -3718,7 +3718,7 @@
       <c r="AF56" s="38"/>
       <c r="AG56" s="38"/>
       <c r="AH56" s="40" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="AI56" s="38"/>
       <c r="AJ56" s="38"/>
@@ -3728,10 +3728,10 @@
         <v>86</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="C57" s="40" t="s">
-        <v>177</v>
+        <v>201</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="D57" s="39"/>
       <c r="E57" s="38"/>
@@ -3751,7 +3751,7 @@
       <c r="S57" s="39"/>
       <c r="T57" s="39"/>
       <c r="U57" s="38" t="s">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="V57" s="39"/>
       <c r="W57" s="39"/>
@@ -3766,7 +3766,7 @@
       <c r="AF57" s="38"/>
       <c r="AG57" s="38"/>
       <c r="AH57" s="40" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="AI57" s="38"/>
       <c r="AJ57" s="38"/>
@@ -3776,10 +3776,10 @@
         <v>86</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="C58" s="40" t="s">
-        <v>181</v>
+        <v>206</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="D58" s="39"/>
       <c r="E58" s="38"/>
@@ -3799,7 +3799,7 @@
       <c r="S58" s="39"/>
       <c r="T58" s="39"/>
       <c r="U58" s="38" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="V58" s="39"/>
       <c r="W58" s="39"/>
@@ -3814,7 +3814,7 @@
       <c r="AF58" s="38"/>
       <c r="AG58" s="38"/>
       <c r="AH58" s="40" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="AI58" s="38"/>
       <c r="AJ58" s="38"/>
@@ -3824,10 +3824,10 @@
         <v>86</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>184</v>
+        <v>209</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="D59" s="39"/>
       <c r="E59" s="38"/>
@@ -3847,7 +3847,7 @@
       <c r="S59" s="39"/>
       <c r="T59" s="39"/>
       <c r="U59" s="38" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="V59" s="39"/>
       <c r="W59" s="39"/>
@@ -3862,7 +3862,7 @@
       <c r="AF59" s="38"/>
       <c r="AG59" s="38"/>
       <c r="AH59" s="40" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AI59" s="38"/>
       <c r="AJ59" s="38"/>
@@ -3872,10 +3872,10 @@
         <v>86</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="C60" s="40" t="s">
-        <v>187</v>
+        <v>212</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="D60" s="39"/>
       <c r="E60" s="38"/>
@@ -3895,7 +3895,7 @@
       <c r="S60" s="39"/>
       <c r="T60" s="39"/>
       <c r="U60" s="38" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="V60" s="39"/>
       <c r="W60" s="39"/>
@@ -3910,7 +3910,7 @@
       <c r="AF60" s="38"/>
       <c r="AG60" s="38"/>
       <c r="AH60" s="40" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="AI60" s="38"/>
       <c r="AJ60" s="38"/>
@@ -3920,10 +3920,10 @@
         <v>86</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="C61" s="40" t="s">
-        <v>190</v>
+        <v>215</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="D61" s="39"/>
       <c r="E61" s="38"/>
@@ -3943,7 +3943,7 @@
       <c r="S61" s="39"/>
       <c r="T61" s="39"/>
       <c r="U61" s="38" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="V61" s="39"/>
       <c r="W61" s="39"/>
@@ -3958,7 +3958,7 @@
       <c r="AF61" s="38"/>
       <c r="AG61" s="38"/>
       <c r="AH61" s="40" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AI61" s="38"/>
       <c r="AJ61" s="38"/>
@@ -3968,10 +3968,10 @@
         <v>86</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="C62" s="40" t="s">
-        <v>195</v>
+        <v>218</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="D62" s="39"/>
       <c r="E62" s="38"/>
@@ -3991,7 +3991,7 @@
       <c r="S62" s="39"/>
       <c r="T62" s="39"/>
       <c r="U62" s="38" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="V62" s="39"/>
       <c r="W62" s="39"/>
@@ -4006,7 +4006,7 @@
       <c r="AF62" s="38"/>
       <c r="AG62" s="38"/>
       <c r="AH62" s="40" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="AI62" s="38"/>
       <c r="AJ62" s="38"/>
@@ -4016,10 +4016,10 @@
         <v>86</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="C63" s="40" t="s">
-        <v>198</v>
+        <v>221</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="D63" s="39"/>
       <c r="E63" s="38"/>
@@ -4039,7 +4039,7 @@
       <c r="S63" s="39"/>
       <c r="T63" s="39"/>
       <c r="U63" s="38" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="V63" s="39"/>
       <c r="W63" s="39"/>
@@ -4054,64 +4054,64 @@
       <c r="AF63" s="38"/>
       <c r="AG63" s="38"/>
       <c r="AH63" s="40" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="AI63" s="38"/>
       <c r="AJ63" s="38"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="42" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C64" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D64" s="44"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="44"/>
-      <c r="H64" s="44"/>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
-      <c r="K64" s="44"/>
-      <c r="L64" s="44"/>
-      <c r="M64" s="44"/>
-      <c r="N64" s="44"/>
-      <c r="O64" s="44"/>
-      <c r="P64" s="44"/>
-      <c r="Q64" s="44"/>
-      <c r="R64" s="44"/>
-      <c r="S64" s="44"/>
-      <c r="T64" s="44"/>
-      <c r="U64" s="43"/>
-      <c r="V64" s="44"/>
-      <c r="W64" s="44"/>
-      <c r="X64" s="44"/>
-      <c r="Y64" s="44"/>
-      <c r="Z64" s="44"/>
-      <c r="AA64" s="44"/>
-      <c r="AB64" s="44"/>
-      <c r="AC64" s="44"/>
-      <c r="AD64" s="44"/>
-      <c r="AE64" s="44"/>
-      <c r="AF64" s="43"/>
-      <c r="AG64" s="43"/>
-      <c r="AH64" s="43"/>
-      <c r="AI64" s="43"/>
-      <c r="AJ64" s="43"/>
+        <v>232</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="43"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="43"/>
+      <c r="N64" s="43"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="43"/>
+      <c r="R64" s="43"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="43"/>
+      <c r="U64" s="44"/>
+      <c r="V64" s="43"/>
+      <c r="W64" s="43"/>
+      <c r="X64" s="43"/>
+      <c r="Y64" s="43"/>
+      <c r="Z64" s="43"/>
+      <c r="AA64" s="43"/>
+      <c r="AB64" s="43"/>
+      <c r="AC64" s="43"/>
+      <c r="AD64" s="43"/>
+      <c r="AE64" s="43"/>
+      <c r="AF64" s="44"/>
+      <c r="AG64" s="44"/>
+      <c r="AH64" s="44"/>
+      <c r="AI64" s="44"/>
+      <c r="AJ64" s="44"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="37" t="s">
         <v>86</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>215</v>
+        <v>255</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="D65" s="39"/>
       <c r="E65" s="38"/>
@@ -4130,8 +4130,8 @@
       <c r="R65" s="39"/>
       <c r="S65" s="39"/>
       <c r="T65" s="39"/>
-      <c r="U65" s="43" t="s">
-        <v>216</v>
+      <c r="U65" s="44" t="s">
+        <v>261</v>
       </c>
       <c r="V65" s="39"/>
       <c r="W65" s="39"/>
@@ -4145,7 +4145,9 @@
       <c r="AE65" s="39"/>
       <c r="AF65" s="38"/>
       <c r="AG65" s="38"/>
-      <c r="AH65" s="38"/>
+      <c r="AH65" s="44" t="s">
+        <v>264</v>
+      </c>
       <c r="AI65" s="38"/>
       <c r="AJ65" s="38"/>
     </row>
@@ -4154,10 +4156,10 @@
         <v>86</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>71</v>
+        <v>267</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="D66" s="39"/>
       <c r="E66" s="38"/>
@@ -4176,8 +4178,8 @@
       <c r="R66" s="39"/>
       <c r="S66" s="39"/>
       <c r="T66" s="39"/>
-      <c r="U66" s="43" t="s">
-        <v>219</v>
+      <c r="U66" s="44" t="s">
+        <v>273</v>
       </c>
       <c r="V66" s="39"/>
       <c r="W66" s="39"/>
@@ -4191,7 +4193,9 @@
       <c r="AE66" s="39"/>
       <c r="AF66" s="38"/>
       <c r="AG66" s="38"/>
-      <c r="AH66" s="38"/>
+      <c r="AH66" s="44" t="s">
+        <v>70</v>
+      </c>
       <c r="AI66" s="38"/>
       <c r="AJ66" s="38"/>
     </row>
@@ -4200,10 +4204,10 @@
         <v>86</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>222</v>
+        <v>274</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="D67" s="39"/>
       <c r="E67" s="38"/>
@@ -4222,8 +4226,8 @@
       <c r="R67" s="39"/>
       <c r="S67" s="39"/>
       <c r="T67" s="39"/>
-      <c r="U67" s="43" t="s">
-        <v>223</v>
+      <c r="U67" s="44" t="s">
+        <v>275</v>
       </c>
       <c r="V67" s="39"/>
       <c r="W67" s="39"/>
@@ -4237,7 +4241,9 @@
       <c r="AE67" s="39"/>
       <c r="AF67" s="38"/>
       <c r="AG67" s="38"/>
-      <c r="AH67" s="38"/>
+      <c r="AH67" s="44" t="s">
+        <v>276</v>
+      </c>
       <c r="AI67" s="38"/>
       <c r="AJ67" s="38"/>
     </row>
@@ -4246,10 +4252,10 @@
         <v>86</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="C68" s="43" t="s">
-        <v>49</v>
+        <v>277</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="D68" s="39"/>
       <c r="E68" s="38"/>
@@ -4268,8 +4274,8 @@
       <c r="R68" s="39"/>
       <c r="S68" s="39"/>
       <c r="T68" s="39"/>
-      <c r="U68" s="43" t="s">
-        <v>225</v>
+      <c r="U68" s="44" t="s">
+        <v>278</v>
       </c>
       <c r="V68" s="39"/>
       <c r="W68" s="39"/>
@@ -4283,7 +4289,9 @@
       <c r="AE68" s="39"/>
       <c r="AF68" s="38"/>
       <c r="AG68" s="38"/>
-      <c r="AH68" s="38"/>
+      <c r="AH68" s="44" t="s">
+        <v>52</v>
+      </c>
       <c r="AI68" s="38"/>
       <c r="AJ68" s="38"/>
     </row>
@@ -4292,10 +4300,10 @@
         <v>86</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>227</v>
+        <v>279</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="D69" s="39"/>
       <c r="E69" s="38"/>
@@ -4314,8 +4322,8 @@
       <c r="R69" s="39"/>
       <c r="S69" s="39"/>
       <c r="T69" s="39"/>
-      <c r="U69" s="43" t="s">
-        <v>228</v>
+      <c r="U69" s="44" t="s">
+        <v>282</v>
       </c>
       <c r="V69" s="39"/>
       <c r="W69" s="39"/>
@@ -4329,7 +4337,9 @@
       <c r="AE69" s="39"/>
       <c r="AF69" s="38"/>
       <c r="AG69" s="38"/>
-      <c r="AH69" s="38"/>
+      <c r="AH69" s="44" t="s">
+        <v>283</v>
+      </c>
       <c r="AI69" s="38"/>
       <c r="AJ69" s="38"/>
     </row>
@@ -4338,10 +4348,10 @@
         <v>86</v>
       </c>
       <c r="B70" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="C70" s="45" t="s">
-        <v>230</v>
+        <v>284</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="D70" s="39"/>
       <c r="E70" s="38"/>
@@ -4361,7 +4371,7 @@
       <c r="S70" s="39"/>
       <c r="T70" s="39"/>
       <c r="U70" s="38" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="V70" s="39"/>
       <c r="W70" s="39"/>
@@ -4375,7 +4385,9 @@
       <c r="AE70" s="39"/>
       <c r="AF70" s="38"/>
       <c r="AG70" s="38"/>
-      <c r="AH70" s="38"/>
+      <c r="AH70" s="46" t="s">
+        <v>286</v>
+      </c>
       <c r="AI70" s="38"/>
       <c r="AJ70" s="38"/>
     </row>
@@ -4384,84 +4396,84 @@
         <v>85</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C71" s="43"/>
-      <c r="D71" s="44"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="44"/>
-      <c r="H71" s="44"/>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
-      <c r="K71" s="44"/>
-      <c r="L71" s="44"/>
-      <c r="M71" s="44"/>
-      <c r="N71" s="44"/>
-      <c r="O71" s="44"/>
-      <c r="P71" s="44"/>
-      <c r="Q71" s="44"/>
-      <c r="R71" s="44"/>
-      <c r="S71" s="44"/>
-      <c r="T71" s="44"/>
-      <c r="U71" s="44"/>
-      <c r="V71" s="44"/>
-      <c r="W71" s="44"/>
-      <c r="X71" s="44"/>
-      <c r="Y71" s="44"/>
-      <c r="Z71" s="44"/>
-      <c r="AA71" s="44"/>
-      <c r="AB71" s="44"/>
-      <c r="AC71" s="44"/>
-      <c r="AD71" s="44"/>
-      <c r="AE71" s="44"/>
-      <c r="AF71" s="43"/>
-      <c r="AG71" s="43"/>
-      <c r="AH71" s="43"/>
-      <c r="AI71" s="43"/>
-      <c r="AJ71" s="43"/>
+        <v>232</v>
+      </c>
+      <c r="C71" s="44"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="43"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="43"/>
+      <c r="R71" s="43"/>
+      <c r="S71" s="43"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="43"/>
+      <c r="X71" s="43"/>
+      <c r="Y71" s="43"/>
+      <c r="Z71" s="43"/>
+      <c r="AA71" s="43"/>
+      <c r="AB71" s="43"/>
+      <c r="AC71" s="43"/>
+      <c r="AD71" s="43"/>
+      <c r="AE71" s="43"/>
+      <c r="AF71" s="44"/>
+      <c r="AG71" s="44"/>
+      <c r="AH71" s="44"/>
+      <c r="AI71" s="44"/>
+      <c r="AJ71" s="44"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="42" t="s">
         <v>85</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72" s="43"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="44"/>
-      <c r="J72" s="44"/>
-      <c r="K72" s="44"/>
-      <c r="L72" s="44"/>
-      <c r="M72" s="44"/>
-      <c r="N72" s="44"/>
-      <c r="O72" s="44"/>
-      <c r="P72" s="44"/>
-      <c r="Q72" s="44"/>
-      <c r="R72" s="44"/>
-      <c r="S72" s="44"/>
-      <c r="T72" s="44"/>
-      <c r="U72" s="44"/>
-      <c r="V72" s="44"/>
-      <c r="W72" s="44"/>
-      <c r="X72" s="44"/>
-      <c r="Y72" s="44"/>
-      <c r="Z72" s="44"/>
-      <c r="AA72" s="44"/>
-      <c r="AB72" s="44"/>
-      <c r="AC72" s="44"/>
-      <c r="AD72" s="44"/>
-      <c r="AE72" s="44"/>
-      <c r="AF72" s="43"/>
-      <c r="AG72" s="43"/>
-      <c r="AH72" s="43"/>
-      <c r="AI72" s="43"/>
-      <c r="AJ72" s="43"/>
+        <v>57</v>
+      </c>
+      <c r="C72" s="44"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
+      <c r="N72" s="43"/>
+      <c r="O72" s="43"/>
+      <c r="P72" s="43"/>
+      <c r="Q72" s="43"/>
+      <c r="R72" s="43"/>
+      <c r="S72" s="43"/>
+      <c r="T72" s="43"/>
+      <c r="U72" s="43"/>
+      <c r="V72" s="43"/>
+      <c r="W72" s="43"/>
+      <c r="X72" s="43"/>
+      <c r="Y72" s="43"/>
+      <c r="Z72" s="43"/>
+      <c r="AA72" s="43"/>
+      <c r="AB72" s="43"/>
+      <c r="AC72" s="43"/>
+      <c r="AD72" s="43"/>
+      <c r="AE72" s="43"/>
+      <c r="AF72" s="44"/>
+      <c r="AG72" s="44"/>
+      <c r="AH72" s="44"/>
+      <c r="AI72" s="44"/>
+      <c r="AJ72" s="44"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4491,31 +4503,31 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="17"/>
@@ -4533,277 +4545,277 @@
       <c r="V1" s="17"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
+      <c r="A2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
+      <c r="A3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="C5" s="25"/>
+      <c r="C5" s="27"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="C6" s="25"/>
+      <c r="C6" s="27"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="C7" s="22"/>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="C8" s="22"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="C9" s="22"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="C10" s="22"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="22"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="22"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="C13" s="22"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="C14" s="22"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="C15" s="22"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="C16" s="22"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="C17" s="22"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="22"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="22"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="22"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="22"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="22"/>
+      <c r="C22" s="25"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="22"/>
+      <c r="C23" s="25"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="22"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="22"/>
+      <c r="C25" s="25"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="22"/>
+      <c r="C26" s="25"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="22"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="22"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="22"/>
+      <c r="C29" s="25"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="22"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="22"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="22"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="22"/>
+      <c r="C33" s="25"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="22"/>
+      <c r="C34" s="25"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="22"/>
+      <c r="C35" s="25"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="22"/>
+      <c r="C36" s="25"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="22"/>
+      <c r="C37" s="25"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="22"/>
+      <c r="C38" s="25"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="22"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="22"/>
+      <c r="C40" s="25"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="22"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="22"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="22"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="22"/>
+      <c r="C44" s="25"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="22"/>
+      <c r="C45" s="25"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="22"/>
+      <c r="C46" s="25"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="22"/>
+      <c r="C47" s="25"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="22"/>
+      <c r="C48" s="25"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="22"/>
+      <c r="C49" s="25"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="22"/>
+      <c r="C50" s="25"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="22"/>
+      <c r="C51" s="25"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="22"/>
+      <c r="C52" s="25"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="22"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="22"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="22"/>
+      <c r="C55" s="25"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="22"/>
+      <c r="C56" s="25"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="22"/>
+      <c r="C57" s="25"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="22"/>
+      <c r="C58" s="25"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="22"/>
+      <c r="C59" s="25"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="22"/>
+      <c r="C60" s="25"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="22"/>
+      <c r="C61" s="25"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="22"/>
+      <c r="C62" s="25"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="22"/>
+      <c r="C63" s="25"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="22"/>
+      <c r="C64" s="25"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="22"/>
+      <c r="C65" s="25"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="22"/>
+      <c r="C66" s="25"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="22"/>
+      <c r="C67" s="25"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4830,67 +4842,67 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="24">
+      <c r="C2" s="18">
         <f>NOW()</f>
-        <v>43773.37915</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>78</v>
+        <v>43773.51542</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>57</v>
       </c>
       <c r="F2" s="17"/>
-      <c r="G2" s="27" t="s">
-        <v>79</v>
+      <c r="G2" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
@@ -4935,31 +4947,31 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="17"/>
@@ -4978,1078 +4990,1078 @@
       <c r="W1" s="17"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="A2" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="A3" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="22" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="B25" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="22" t="s">
+      <c r="C25" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="22" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C26" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="22" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C27" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="C28" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="22" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C29" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="22" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="22" t="s">
+      <c r="B31" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="C31" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
+      <c r="B32" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>234</v>
+        <v>187</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>220</v>
+        <v>164</v>
       </c>
       <c r="B43" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -6060,26 +6072,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -6089,25 +6101,25 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
+      <c r="A48" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
       <c r="N48" s="17"/>
       <c r="O48" s="17"/>
       <c r="P48" s="17"/>
@@ -6120,25 +6132,25 @@
       <c r="W48" s="17"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
+      <c r="A49" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
       <c r="N49" s="17"/>
       <c r="O49" s="17"/>
       <c r="P49" s="17"/>
@@ -6153,226 +6165,226 @@
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B51" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C51" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B52" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C52" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C53" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C54" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B55" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C55" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="B56" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="C56" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>262</v>
+      <c r="A58" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>264</v>
+      <c r="A59" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>266</v>
+      <c r="A60" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>211</v>
+      <c r="A61" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="17" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>269</v>
+        <v>252</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="17" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>270</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>271</v>
+        <v>254</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="17" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>273</v>
+        <v>257</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="17" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B66" s="17" t="s">
-        <v>274</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>275</v>
+        <v>259</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="17" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="B67" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>277</v>
+        <v>262</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="B69" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C69" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="B70" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="C70" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B72" t="s">
-        <v>284</v>
-      </c>
-      <c r="C72" s="46" t="s">
-        <v>242</v>
+        <v>272</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B73" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C73" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B74" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="C74" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/pnc_danger_sign_follow_up_baby.xlsx
+++ b/config/default/forms/app/pnc_danger_sign_follow_up_baby.xlsx
@@ -14,17 +14,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="287">
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
   <si>
     <t>type</t>
   </si>
   <si>
+    <t>version</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>style</t>
+  </si>
+  <si>
     <t>label::en</t>
   </si>
   <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
     <t>label::hi</t>
   </si>
   <si>
@@ -115,40 +139,19 @@
     <t>repeat_count</t>
   </si>
   <si>
-    <t>form_title</t>
-  </si>
-  <si>
-    <t>list_name</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>instance_name</t>
-  </si>
-  <si>
-    <t>default_language</t>
+    <t>PNC danger sign follow-up - baby</t>
   </si>
   <si>
     <t>cht::notes</t>
   </si>
   <si>
-    <t>PNC danger sign follow-up - baby</t>
+    <t>pnc_danger_sign_follow_up_baby</t>
   </si>
   <si>
     <t>begin group</t>
   </si>
   <si>
-    <t>pnc_danger_sign_follow_up_baby</t>
+    <t>pages</t>
   </si>
   <si>
     <t>inputs</t>
@@ -163,45 +166,54 @@
     <t>field-list</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>Source ID</t>
+  </si>
+  <si>
     <t>yes_no</t>
   </si>
   <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>Source ID</t>
-  </si>
-  <si>
-    <t>pages</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
     <t>delivery_uuid</t>
   </si>
   <si>
     <t>Delivery Report ID</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>contact</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>db:person</t>
   </si>
   <si>
@@ -235,24 +247,12 @@
     <t>Date of Birth</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
     <t>Sex</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>parent</t>
   </si>
   <si>
@@ -274,45 +274,105 @@
     <t>end group</t>
   </si>
   <si>
+    <t>lmp_approximations</t>
+  </si>
+  <si>
+    <t>upto_2_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 2 Months Ago</t>
+  </si>
+  <si>
+    <t>upto_3_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 3 Months Ago</t>
+  </si>
+  <si>
+    <t>upto_4_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 4 Months Ago</t>
+  </si>
+  <si>
+    <t>between_5_and_6_months_ago</t>
+  </si>
+  <si>
+    <t>Between 5 And 6 Months Ago</t>
+  </si>
+  <si>
     <t>calculate</t>
   </si>
   <si>
+    <t>between_7_and_8_months_ago</t>
+  </si>
+  <si>
+    <t>Between 7 And 8 Months Ago</t>
+  </si>
+  <si>
+    <t>trimester1_choices</t>
+  </si>
+  <si>
     <t>patient_age_in_years</t>
   </si>
   <si>
+    <t>eat_extra_meal</t>
+  </si>
+  <si>
+    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
+  </si>
+  <si>
     <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
   </si>
   <si>
     <t>patient_uuid</t>
   </si>
   <si>
+    <t>take_iron_and_folic_acid</t>
+  </si>
+  <si>
+    <t>Take iron and folic acid tablets</t>
+  </si>
+  <si>
     <t>../inputs/contact/_id</t>
   </si>
   <si>
-    <t>lmp_approximations</t>
-  </si>
-  <si>
-    <t>upto_2_months_ago</t>
+    <t>avoid_heavy_work</t>
+  </si>
+  <si>
+    <t>Avoid heavy work, rest more</t>
+  </si>
+  <si>
+    <t>sleep_under_bednet</t>
+  </si>
+  <si>
+    <t>Sleep under an insecticide treated bednet</t>
   </si>
   <si>
     <t>../inputs/contact/patient_id</t>
   </si>
   <si>
-    <t>Upto 2 Months Ago</t>
+    <t>go_for_anc_visit</t>
+  </si>
+  <si>
+    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
   </si>
   <si>
     <t>patient_name</t>
   </si>
   <si>
-    <t>upto_3_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 3 Months Ago</t>
+    <t>develop_birth_plan</t>
+  </si>
+  <si>
+    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
   </si>
   <si>
     <t>../inputs/contact/name</t>
   </si>
   <si>
+    <t>trimester2_choices</t>
+  </si>
+  <si>
     <t>t_danger_signs_referral_follow_up_date</t>
   </si>
   <si>
@@ -322,25 +382,13 @@
     <t>t_danger_signs_referral_follow_up</t>
   </si>
   <si>
-    <t>upto_4_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 4 Months Ago</t>
-  </si>
-  <si>
     <t>../danger_signs/r_danger_sign_present</t>
   </si>
   <si>
-    <t>between_5_and_6_months_ago</t>
-  </si>
-  <si>
-    <t>Between 5 And 6 Months Ago</t>
-  </si>
-  <si>
-    <t>between_7_and_8_months_ago</t>
-  </si>
-  <si>
-    <t>Between 7 And 8 Months Ago</t>
+    <t>couselling_on_exclusive_breastfeeding</t>
+  </si>
+  <si>
+    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
   </si>
   <si>
     <t>danger_signs</t>
@@ -349,34 +397,40 @@
     <t>Danger Sign Follow-up - Baby</t>
   </si>
   <si>
-    <t>trimester1_choices</t>
-  </si>
-  <si>
-    <t>eat_extra_meal</t>
-  </si>
-  <si>
-    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
-  </si>
-  <si>
-    <t>take_iron_and_folic_acid</t>
-  </si>
-  <si>
-    <t>Take iron and folic acid tablets</t>
-  </si>
-  <si>
-    <t>avoid_heavy_work</t>
-  </si>
-  <si>
-    <t>Avoid heavy work, rest more</t>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>heart_condition</t>
+  </si>
+  <si>
+    <t>Heart condition</t>
+  </si>
+  <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>high_blood_pressure</t>
+  </si>
+  <si>
+    <t>High blood pressure</t>
+  </si>
+  <si>
+    <t>known_diabetes</t>
+  </si>
+  <si>
+    <t>Known diabetes</t>
   </si>
   <si>
     <t>select_one yes_no</t>
   </si>
   <si>
-    <t>sleep_under_bednet</t>
-  </si>
-  <si>
-    <t>Sleep under an insecticide treated bednet</t>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
   <si>
     <t>visit_confirm</t>
@@ -385,27 +439,24 @@
     <t>Was the baby taken to the health facility as recommended?</t>
   </si>
   <si>
-    <t>go_for_anc_visit</t>
-  </si>
-  <si>
-    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
+    <t>hiv_statuses</t>
+  </si>
+  <si>
+    <t>known</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>fp_methods</t>
   </si>
   <si>
     <t>danger_sign_present</t>
   </si>
   <si>
-    <t>develop_birth_plan</t>
-  </si>
-  <si>
     <t>Is the baby still experiencing any danger signs?</t>
   </si>
   <si>
-    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
-  </si>
-  <si>
-    <t>trimester2_choices</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -424,72 +475,24 @@
     <t>Infected umbilical cord</t>
   </si>
   <si>
-    <t>couselling_on_exclusive_breastfeeding</t>
-  </si>
-  <si>
     <t>convulsion</t>
   </si>
   <si>
-    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
-  </si>
-  <si>
     <t>Convulsions</t>
   </si>
   <si>
-    <t>conditions</t>
-  </si>
-  <si>
-    <t>heart_condition</t>
-  </si>
-  <si>
-    <t>Heart condition</t>
-  </si>
-  <si>
     <t>difficulty_feeding</t>
   </si>
   <si>
-    <t>asthma</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
-    <t>high_blood_pressure</t>
-  </si>
-  <si>
-    <t>High blood pressure</t>
-  </si>
-  <si>
-    <t>known_diabetes</t>
-  </si>
-  <si>
-    <t>Known diabetes</t>
-  </si>
-  <si>
     <t>Difficulty feeding or drinking</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>vomit</t>
   </si>
   <si>
     <t>Vomits everything</t>
   </si>
   <si>
-    <t>hiv_statuses</t>
-  </si>
-  <si>
-    <t>known</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>drowsy</t>
   </si>
   <si>
@@ -508,9 +511,6 @@
     <t>Yellow skin color</t>
   </si>
   <si>
-    <t>fp_methods</t>
-  </si>
-  <si>
     <t>fever</t>
   </si>
   <si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>Blue skin color (hypothermia)</t>
+  </si>
+  <si>
+    <t>Combined oral contraceptives</t>
   </si>
   <si>
     <t>r_danger_sign_present</t>
@@ -552,9 +555,15 @@
     <t>Great news! Please continue to closely monitor the baby.</t>
   </si>
   <si>
+    <t>Progesterone only pills</t>
+  </si>
+  <si>
     <t>../danger_sign_present = 'no' and ../r_danger_sign_present = 'no'</t>
   </si>
   <si>
+    <t>Injectibles</t>
+  </si>
+  <si>
     <t>refer_patient_note_1</t>
   </si>
   <si>
@@ -564,21 +573,36 @@
     <t>../danger_sign_present = 'yes' or ../r_danger_sign_present = 'yes'</t>
   </si>
   <si>
+    <t>Implants (1 rod)</t>
+  </si>
+  <si>
     <t>refer_patient_note_2</t>
   </si>
   <si>
     <t xml:space="preserve">Please advise the caregiver to do so and accompany them if possible. </t>
   </si>
   <si>
+    <t>Implants (2 rods)</t>
+  </si>
+  <si>
+    <t>IUD</t>
+  </si>
+  <si>
+    <t>Condoms</t>
+  </si>
+  <si>
+    <t>Tubal ligation</t>
+  </si>
+  <si>
+    <t>Cycle beads</t>
+  </si>
+  <si>
     <t>__visited_hf</t>
   </si>
   <si>
     <t>${visit_confirm}</t>
   </si>
   <si>
-    <t>Combined oral contraceptives</t>
-  </si>
-  <si>
     <t>Whether or not the baby was taken to the health facility as recommended.</t>
   </si>
   <si>
@@ -588,49 +612,49 @@
     <t>${danger_sign_present}</t>
   </si>
   <si>
-    <t>Progesterone only pills</t>
-  </si>
-  <si>
     <t>Whether or not the baby is still experiencing any danger signs.</t>
   </si>
   <si>
-    <t>Injectibles</t>
-  </si>
-  <si>
     <t>__infected_umbilical_cord</t>
   </si>
   <si>
     <t>${infected_umbilical_cord}</t>
   </si>
   <si>
-    <t>Implants (1 rod)</t>
+    <t>reasons_not_on_fp</t>
   </si>
   <si>
     <t>Whether or not the umbilical cord was infected.</t>
   </si>
   <si>
-    <t>Implants (2 rods)</t>
-  </si>
-  <si>
     <t>__convulsions</t>
   </si>
   <si>
-    <t>IUD</t>
+    <t>Wants to get pregnant</t>
   </si>
   <si>
     <t>${convulsion}</t>
   </si>
   <si>
+    <t>Did not want FP</t>
+  </si>
+  <si>
     <t>Whether or not the baby is suffering from convulsions.</t>
   </si>
   <si>
     <t>__difficulty_feeding_or_drinking</t>
   </si>
   <si>
+    <t>follow_up_methods</t>
+  </si>
+  <si>
     <t>${difficulty_feeding}</t>
   </si>
   <si>
-    <t>Condoms</t>
+    <t>in_person</t>
+  </si>
+  <si>
+    <t>In person</t>
   </si>
   <si>
     <t>Whether or not the baby is having difficulty feeding or drinking.</t>
@@ -639,219 +663,201 @@
     <t>__vomits_everything</t>
   </si>
   <si>
-    <t>Tubal ligation</t>
-  </si>
-  <si>
-    <t>Cycle beads</t>
-  </si>
-  <si>
     <t>${vomit}</t>
   </si>
   <si>
+    <t>by_phone</t>
+  </si>
+  <si>
     <t>Whether or not the baby vomits everything.</t>
   </si>
   <si>
+    <t>By phone</t>
+  </si>
+  <si>
     <t>__drowsy_or_unconscious</t>
   </si>
   <si>
     <t>${drowsy}</t>
   </si>
   <si>
+    <t>reasons_for_missing_visit</t>
+  </si>
+  <si>
     <t>Whether or not the baby is drowsy or unconscious.</t>
   </si>
   <si>
+    <t>not_reminded</t>
+  </si>
+  <si>
+    <t>She was not reminded</t>
+  </si>
+  <si>
     <t>__body_stiffness</t>
   </si>
   <si>
+    <t>travelled</t>
+  </si>
+  <si>
+    <t>She had travelled</t>
+  </si>
+  <si>
     <t>${stiff}</t>
   </si>
   <si>
+    <t>no_lab_results</t>
+  </si>
+  <si>
+    <t>No Lab results yet</t>
+  </si>
+  <si>
     <t>Whether or not the baby's body is stiff.</t>
   </si>
   <si>
+    <t>too_early</t>
+  </si>
+  <si>
+    <t>It is too early to start clinic</t>
+  </si>
+  <si>
     <t>__yellow_skin_color</t>
   </si>
   <si>
+    <t>relocated</t>
+  </si>
+  <si>
+    <t>Relocated</t>
+  </si>
+  <si>
     <t>${yellow_skin}</t>
   </si>
   <si>
     <t>Whether or not the baby has yellow skin color.</t>
   </si>
   <si>
+    <t>actions_taken</t>
+  </si>
+  <si>
+    <t>referred</t>
+  </si>
+  <si>
     <t>__fever</t>
   </si>
   <si>
+    <t>Referred the mother</t>
+  </si>
+  <si>
+    <t>key_message</t>
+  </si>
+  <si>
+    <t>Provided key health message</t>
+  </si>
+  <si>
     <t>${fever}</t>
   </si>
   <si>
+    <t>accompany</t>
+  </si>
+  <si>
     <t>Whether or not the baby has a fever.</t>
   </si>
   <si>
+    <t>Accompany the mother to facility</t>
+  </si>
+  <si>
     <t>__blue_skin_color</t>
   </si>
   <si>
     <t>${blue_skin}</t>
   </si>
   <si>
+    <t>recent_foods</t>
+  </si>
+  <si>
+    <t>carbohydrates</t>
+  </si>
+  <si>
+    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
+  </si>
+  <si>
     <t>Whether or not the baby has blue skin color (hypothermia).</t>
   </si>
   <si>
+    <t>protein</t>
+  </si>
+  <si>
     <t>__has_danger_sign</t>
   </si>
   <si>
+    <t>Body building foods: Milk, eggs, meat</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
+  </si>
+  <si>
     <t>${r_danger_sign_present}</t>
   </si>
   <si>
-    <t>reasons_not_on_fp</t>
+    <t>fruits</t>
+  </si>
+  <si>
+    <t>Fruits: Mangoes, ripe bananas, oranges</t>
   </si>
   <si>
     <t>Whether or not any danger signs are present.</t>
   </si>
   <si>
-    <t>Wants to get pregnant</t>
-  </si>
-  <si>
-    <t>Did not want FP</t>
-  </si>
-  <si>
-    <t>follow_up_methods</t>
-  </si>
-  <si>
-    <t>in_person</t>
-  </si>
-  <si>
-    <t>In person</t>
-  </si>
-  <si>
-    <t>by_phone</t>
-  </si>
-  <si>
-    <t>By phone</t>
+    <t>none</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>pos_neg</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>reasons_to_discontinue</t>
+  </si>
+  <si>
+    <t>wants_to_get_pregnant</t>
   </si>
   <si>
     <t>meta</t>
   </si>
   <si>
-    <t>reasons_for_missing_visit</t>
-  </si>
-  <si>
-    <t>not_reminded</t>
-  </si>
-  <si>
-    <t>She was not reminded</t>
-  </si>
-  <si>
-    <t>travelled</t>
-  </si>
-  <si>
-    <t>She had travelled</t>
-  </si>
-  <si>
-    <t>no_lab_results</t>
-  </si>
-  <si>
-    <t>No Lab results yet</t>
-  </si>
-  <si>
-    <t>too_early</t>
-  </si>
-  <si>
-    <t>It is too early to start clinic</t>
-  </si>
-  <si>
-    <t>relocated</t>
-  </si>
-  <si>
-    <t>Relocated</t>
-  </si>
-  <si>
-    <t>actions_taken</t>
-  </si>
-  <si>
-    <t>referred</t>
-  </si>
-  <si>
-    <t>Referred the mother</t>
-  </si>
-  <si>
-    <t>key_message</t>
-  </si>
-  <si>
-    <t>Provided key health message</t>
-  </si>
-  <si>
-    <t>accompany</t>
-  </si>
-  <si>
-    <t>Accompany the mother to facility</t>
-  </si>
-  <si>
-    <t>recent_foods</t>
-  </si>
-  <si>
-    <t>carbohydrates</t>
-  </si>
-  <si>
-    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
-  </si>
-  <si>
-    <t>protein</t>
+    <t>feels_sick_when_using_it</t>
+  </si>
+  <si>
+    <t>Feels sick when using it</t>
   </si>
   <si>
     <t>__patient_uuid</t>
   </si>
   <si>
-    <t>Body building foods: Milk, eggs, meat</t>
-  </si>
-  <si>
-    <t>vegetables</t>
-  </si>
-  <si>
-    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
-  </si>
-  <si>
-    <t>fruits</t>
-  </si>
-  <si>
-    <t>Fruits: Mangoes, ripe bananas, oranges</t>
-  </si>
-  <si>
     <t>../../../inputs/contact/_id</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>None of the above</t>
-  </si>
-  <si>
     <t>Patient UUID</t>
   </si>
   <si>
-    <t>pos_neg</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>__patient_id</t>
   </si>
   <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>reasons_to_discontinue</t>
-  </si>
-  <si>
-    <t>wants_to_get_pregnant</t>
-  </si>
-  <si>
     <t>../../../inputs/contact/patient_id</t>
   </si>
   <si>
@@ -871,12 +877,6 @@
   </si>
   <si>
     <t>__source_id</t>
-  </si>
-  <si>
-    <t>feels_sick_when_using_it</t>
-  </si>
-  <si>
-    <t>Feels sick when using it</t>
   </si>
   <si>
     <t>../../../inputs/source_id</t>
@@ -909,11 +909,11 @@
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -923,10 +923,10 @@
     </font>
     <font/>
     <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1037,25 +1037,28 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1065,6 +1068,15 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -1077,30 +1089,18 @@
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1124,19 +1124,19 @@
     <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1200,1091 +1200,1091 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="Y1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
+      <c r="Z1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
+      <c r="L2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
+      <c r="C3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
+      <c r="A4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="12"/>
-      <c r="AJ18" s="12"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="12"/>
-      <c r="AI19" s="12"/>
-      <c r="AJ19" s="12"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="12"/>
-      <c r="AJ20" s="12"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="12"/>
-      <c r="AB23" s="12"/>
-      <c r="AC23" s="12"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="12"/>
-      <c r="AG23" s="12"/>
-      <c r="AH23" s="12"/>
-      <c r="AI23" s="12"/>
-      <c r="AJ23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="AF24" s="28"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="29" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
@@ -2304,7 +2304,7 @@
       <c r="S25" s="30"/>
       <c r="T25" s="30"/>
       <c r="U25" s="30" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="V25" s="30"/>
       <c r="W25" s="30"/>
@@ -2317,7 +2317,7 @@
       <c r="AD25" s="30"/>
       <c r="AE25" s="30"/>
       <c r="AF25" s="31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AG25" s="30"/>
       <c r="AH25" s="30"/>
@@ -2326,13 +2326,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="29" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
@@ -2352,7 +2352,7 @@
       <c r="S26" s="30"/>
       <c r="T26" s="30"/>
       <c r="U26" s="30" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V26" s="30"/>
       <c r="W26" s="30"/>
@@ -2365,7 +2365,7 @@
       <c r="AD26" s="30"/>
       <c r="AE26" s="30"/>
       <c r="AF26" s="31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AG26" s="30"/>
       <c r="AH26" s="30"/>
@@ -2374,13 +2374,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="29" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
@@ -2388,9 +2388,7 @@
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
-      <c r="J27" s="30" t="s">
-        <v>73</v>
-      </c>
+      <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
@@ -2402,7 +2400,7 @@
       <c r="S27" s="30"/>
       <c r="T27" s="30"/>
       <c r="U27" s="31" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="V27" s="30"/>
       <c r="W27" s="30"/>
@@ -2415,7 +2413,7 @@
       <c r="AD27" s="30"/>
       <c r="AE27" s="30"/>
       <c r="AF27" s="31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AG27" s="30"/>
       <c r="AH27" s="30"/>
@@ -2424,13 +2422,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="29" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
@@ -2450,7 +2448,7 @@
       <c r="S28" s="30"/>
       <c r="T28" s="30"/>
       <c r="U28" s="31" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="V28" s="30"/>
       <c r="W28" s="30"/>
@@ -2463,7 +2461,7 @@
       <c r="AD28" s="30"/>
       <c r="AE28" s="30"/>
       <c r="AF28" s="31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AG28" s="30"/>
       <c r="AH28" s="30"/>
@@ -2472,13 +2470,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="29" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
@@ -2498,7 +2496,7 @@
       <c r="S29" s="30"/>
       <c r="T29" s="30"/>
       <c r="U29" s="31" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="V29" s="30"/>
       <c r="W29" s="30"/>
@@ -2511,7 +2509,7 @@
       <c r="AD29" s="30"/>
       <c r="AE29" s="30"/>
       <c r="AF29" s="31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AG29" s="30"/>
       <c r="AH29" s="30"/>
@@ -2520,13 +2518,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="29" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
@@ -2546,7 +2544,7 @@
       <c r="S30" s="30"/>
       <c r="T30" s="30"/>
       <c r="U30" s="31" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="V30" s="30"/>
       <c r="W30" s="30"/>
@@ -2559,7 +2557,7 @@
       <c r="AD30" s="30"/>
       <c r="AE30" s="30"/>
       <c r="AF30" s="31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AG30" s="30"/>
       <c r="AH30" s="30"/>
@@ -2575,13 +2573,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
@@ -2592,7 +2590,7 @@
       <c r="J32" s="35"/>
       <c r="K32" s="34"/>
       <c r="L32" s="34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
@@ -2621,13 +2619,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -2636,7 +2634,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
       <c r="J33" s="35" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K33" s="35"/>
       <c r="L33" s="35"/>
@@ -2667,13 +2665,13 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="36" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -2682,7 +2680,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
       <c r="J34" s="35" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K34" s="35"/>
       <c r="L34" s="35"/>
@@ -2713,13 +2711,13 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="36" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
@@ -2729,7 +2727,7 @@
       <c r="I35" s="35"/>
       <c r="J35" s="35"/>
       <c r="K35" s="34" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="L35" s="35"/>
       <c r="M35" s="35"/>
@@ -2752,7 +2750,7 @@
       <c r="AD35" s="35"/>
       <c r="AE35" s="35"/>
       <c r="AF35" s="34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AG35" s="35"/>
       <c r="AH35" s="35"/>
@@ -2761,13 +2759,13 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -2776,10 +2774,10 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
       <c r="J36" s="35" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="L36" s="35"/>
       <c r="M36" s="35"/>
@@ -2809,13 +2807,13 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="36" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
@@ -2824,10 +2822,10 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
       <c r="J37" s="35" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="L37" s="35"/>
       <c r="M37" s="35"/>
@@ -2857,13 +2855,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
@@ -2872,10 +2870,10 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
       <c r="J38" s="35" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
@@ -2905,13 +2903,13 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="36" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
@@ -2920,10 +2918,10 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
       <c r="J39" s="35" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="L39" s="35"/>
       <c r="M39" s="35"/>
@@ -2953,13 +2951,13 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="36" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
@@ -2968,10 +2966,10 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
       <c r="J40" s="35" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="L40" s="35"/>
       <c r="M40" s="35"/>
@@ -3001,13 +2999,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="36" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
@@ -3016,10 +3014,10 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
       <c r="J41" s="35" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="L41" s="35"/>
       <c r="M41" s="35"/>
@@ -3049,13 +3047,13 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="36" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
@@ -3064,10 +3062,10 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
       <c r="J42" s="35" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="L42" s="35"/>
       <c r="M42" s="35"/>
@@ -3097,7 +3095,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="36" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B43" s="36" t="s">
         <v>165</v>
@@ -3112,10 +3110,10 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
       <c r="J43" s="35" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="L43" s="35"/>
       <c r="M43" s="35"/>
@@ -3145,7 +3143,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="36" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B44" s="36" t="s">
         <v>167</v>
@@ -3160,10 +3158,10 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
       <c r="J44" s="35" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="L44" s="35"/>
       <c r="M44" s="35"/>
@@ -3193,13 +3191,13 @@
     </row>
     <row r="45" ht="42.75" customHeight="1">
       <c r="A45" s="36" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -3219,7 +3217,7 @@
       <c r="S45" s="35"/>
       <c r="T45" s="35"/>
       <c r="U45" s="34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="V45" s="35"/>
       <c r="W45" s="35"/>
@@ -3232,7 +3230,7 @@
       <c r="AD45" s="35"/>
       <c r="AE45" s="35"/>
       <c r="AF45" s="34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AG45" s="35"/>
       <c r="AH45" s="35"/>
@@ -3241,13 +3239,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="33" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -3257,7 +3255,7 @@
       <c r="I46" s="35"/>
       <c r="J46" s="35"/>
       <c r="K46" s="34" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L46" s="35"/>
       <c r="M46" s="35"/>
@@ -3280,7 +3278,7 @@
       <c r="AD46" s="35"/>
       <c r="AE46" s="35"/>
       <c r="AF46" s="34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AG46" s="35"/>
       <c r="AH46" s="35"/>
@@ -3289,13 +3287,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="36" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -3305,7 +3303,7 @@
       <c r="I47" s="35"/>
       <c r="J47" s="35"/>
       <c r="K47" s="34" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L47" s="35"/>
       <c r="M47" s="35"/>
@@ -3328,7 +3326,7 @@
       <c r="AD47" s="35"/>
       <c r="AE47" s="35"/>
       <c r="AF47" s="34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AG47" s="35"/>
       <c r="AH47" s="35"/>
@@ -3337,13 +3335,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="36" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -3353,7 +3351,7 @@
       <c r="I48" s="35"/>
       <c r="J48" s="35"/>
       <c r="K48" s="34" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="L48" s="35"/>
       <c r="M48" s="35"/>
@@ -3376,7 +3374,7 @@
       <c r="AD48" s="35"/>
       <c r="AE48" s="35"/>
       <c r="AF48" s="34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AG48" s="35"/>
       <c r="AH48" s="35"/>
@@ -3437,13 +3435,13 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D51" s="39"/>
       <c r="E51" s="38"/>
@@ -3454,7 +3452,7 @@
       <c r="J51" s="39"/>
       <c r="K51" s="39"/>
       <c r="L51" s="40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M51" s="39"/>
       <c r="N51" s="39"/>
@@ -3476,7 +3474,7 @@
       <c r="AD51" s="39"/>
       <c r="AE51" s="39"/>
       <c r="AF51" s="40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AG51" s="38"/>
       <c r="AH51" s="38"/>
@@ -3485,13 +3483,13 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D52" s="39"/>
       <c r="E52" s="38"/>
@@ -3511,7 +3509,7 @@
       <c r="S52" s="39"/>
       <c r="T52" s="39"/>
       <c r="U52" s="38" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="V52" s="39"/>
       <c r="W52" s="39"/>
@@ -3526,20 +3524,20 @@
       <c r="AF52" s="38"/>
       <c r="AG52" s="38"/>
       <c r="AH52" s="40" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="AI52" s="38"/>
       <c r="AJ52" s="38"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D53" s="39"/>
       <c r="E53" s="38"/>
@@ -3559,7 +3557,7 @@
       <c r="S53" s="39"/>
       <c r="T53" s="39"/>
       <c r="U53" s="38" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="V53" s="39"/>
       <c r="W53" s="39"/>
@@ -3574,20 +3572,20 @@
       <c r="AF53" s="38"/>
       <c r="AG53" s="38"/>
       <c r="AH53" s="40" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AI53" s="38"/>
       <c r="AJ53" s="38"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D54" s="39"/>
       <c r="E54" s="38"/>
@@ -3607,7 +3605,7 @@
       <c r="S54" s="39"/>
       <c r="T54" s="39"/>
       <c r="U54" s="38" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="V54" s="39"/>
       <c r="W54" s="39"/>
@@ -3622,20 +3620,20 @@
       <c r="AF54" s="38"/>
       <c r="AG54" s="38"/>
       <c r="AH54" s="40" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AI54" s="38"/>
       <c r="AJ54" s="38"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D55" s="39"/>
       <c r="E55" s="38"/>
@@ -3655,7 +3653,7 @@
       <c r="S55" s="39"/>
       <c r="T55" s="39"/>
       <c r="U55" s="38" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="V55" s="39"/>
       <c r="W55" s="39"/>
@@ -3670,20 +3668,20 @@
       <c r="AF55" s="38"/>
       <c r="AG55" s="38"/>
       <c r="AH55" s="40" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="AI55" s="38"/>
       <c r="AJ55" s="38"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D56" s="39"/>
       <c r="E56" s="38"/>
@@ -3703,7 +3701,7 @@
       <c r="S56" s="39"/>
       <c r="T56" s="39"/>
       <c r="U56" s="38" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="V56" s="39"/>
       <c r="W56" s="39"/>
@@ -3718,20 +3716,20 @@
       <c r="AF56" s="38"/>
       <c r="AG56" s="38"/>
       <c r="AH56" s="40" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="AI56" s="38"/>
       <c r="AJ56" s="38"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D57" s="39"/>
       <c r="E57" s="38"/>
@@ -3751,7 +3749,7 @@
       <c r="S57" s="39"/>
       <c r="T57" s="39"/>
       <c r="U57" s="38" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="V57" s="39"/>
       <c r="W57" s="39"/>
@@ -3766,20 +3764,20 @@
       <c r="AF57" s="38"/>
       <c r="AG57" s="38"/>
       <c r="AH57" s="40" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AI57" s="38"/>
       <c r="AJ57" s="38"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D58" s="39"/>
       <c r="E58" s="38"/>
@@ -3799,7 +3797,7 @@
       <c r="S58" s="39"/>
       <c r="T58" s="39"/>
       <c r="U58" s="38" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="V58" s="39"/>
       <c r="W58" s="39"/>
@@ -3814,20 +3812,20 @@
       <c r="AF58" s="38"/>
       <c r="AG58" s="38"/>
       <c r="AH58" s="40" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="AI58" s="38"/>
       <c r="AJ58" s="38"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D59" s="39"/>
       <c r="E59" s="38"/>
@@ -3847,7 +3845,7 @@
       <c r="S59" s="39"/>
       <c r="T59" s="39"/>
       <c r="U59" s="38" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="V59" s="39"/>
       <c r="W59" s="39"/>
@@ -3862,20 +3860,20 @@
       <c r="AF59" s="38"/>
       <c r="AG59" s="38"/>
       <c r="AH59" s="40" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="AI59" s="38"/>
       <c r="AJ59" s="38"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D60" s="39"/>
       <c r="E60" s="38"/>
@@ -3895,7 +3893,7 @@
       <c r="S60" s="39"/>
       <c r="T60" s="39"/>
       <c r="U60" s="38" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="V60" s="39"/>
       <c r="W60" s="39"/>
@@ -3910,20 +3908,20 @@
       <c r="AF60" s="38"/>
       <c r="AG60" s="38"/>
       <c r="AH60" s="40" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="AI60" s="38"/>
       <c r="AJ60" s="38"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D61" s="39"/>
       <c r="E61" s="38"/>
@@ -3943,7 +3941,7 @@
       <c r="S61" s="39"/>
       <c r="T61" s="39"/>
       <c r="U61" s="38" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="V61" s="39"/>
       <c r="W61" s="39"/>
@@ -3958,20 +3956,20 @@
       <c r="AF61" s="38"/>
       <c r="AG61" s="38"/>
       <c r="AH61" s="40" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="AI61" s="38"/>
       <c r="AJ61" s="38"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D62" s="39"/>
       <c r="E62" s="38"/>
@@ -3991,7 +3989,7 @@
       <c r="S62" s="39"/>
       <c r="T62" s="39"/>
       <c r="U62" s="38" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="V62" s="39"/>
       <c r="W62" s="39"/>
@@ -4006,20 +4004,20 @@
       <c r="AF62" s="38"/>
       <c r="AG62" s="38"/>
       <c r="AH62" s="40" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="AI62" s="38"/>
       <c r="AJ62" s="38"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D63" s="39"/>
       <c r="E63" s="38"/>
@@ -4039,7 +4037,7 @@
       <c r="S63" s="39"/>
       <c r="T63" s="39"/>
       <c r="U63" s="38" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="V63" s="39"/>
       <c r="W63" s="39"/>
@@ -4054,64 +4052,64 @@
       <c r="AF63" s="38"/>
       <c r="AG63" s="38"/>
       <c r="AH63" s="40" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="AI63" s="38"/>
       <c r="AJ63" s="38"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="C64" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D64" s="43"/>
-      <c r="E64" s="44"/>
-      <c r="F64" s="44"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="43"/>
-      <c r="R64" s="43"/>
-      <c r="S64" s="43"/>
-      <c r="T64" s="43"/>
-      <c r="U64" s="44"/>
-      <c r="V64" s="43"/>
-      <c r="W64" s="43"/>
-      <c r="X64" s="43"/>
-      <c r="Y64" s="43"/>
-      <c r="Z64" s="43"/>
-      <c r="AA64" s="43"/>
-      <c r="AB64" s="43"/>
-      <c r="AC64" s="43"/>
-      <c r="AD64" s="43"/>
-      <c r="AE64" s="43"/>
-      <c r="AF64" s="44"/>
-      <c r="AG64" s="44"/>
-      <c r="AH64" s="44"/>
-      <c r="AI64" s="44"/>
-      <c r="AJ64" s="44"/>
+        <v>47</v>
+      </c>
+      <c r="D64" s="44"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="45"/>
+      <c r="V64" s="44"/>
+      <c r="W64" s="44"/>
+      <c r="X64" s="44"/>
+      <c r="Y64" s="44"/>
+      <c r="Z64" s="44"/>
+      <c r="AA64" s="44"/>
+      <c r="AB64" s="44"/>
+      <c r="AC64" s="44"/>
+      <c r="AD64" s="44"/>
+      <c r="AE64" s="44"/>
+      <c r="AF64" s="45"/>
+      <c r="AG64" s="45"/>
+      <c r="AH64" s="45"/>
+      <c r="AI64" s="45"/>
+      <c r="AJ64" s="45"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="C65" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D65" s="39"/>
       <c r="E65" s="38"/>
@@ -4130,8 +4128,8 @@
       <c r="R65" s="39"/>
       <c r="S65" s="39"/>
       <c r="T65" s="39"/>
-      <c r="U65" s="44" t="s">
-        <v>261</v>
+      <c r="U65" s="45" t="s">
+        <v>272</v>
       </c>
       <c r="V65" s="39"/>
       <c r="W65" s="39"/>
@@ -4145,21 +4143,21 @@
       <c r="AE65" s="39"/>
       <c r="AF65" s="38"/>
       <c r="AG65" s="38"/>
-      <c r="AH65" s="44" t="s">
-        <v>264</v>
+      <c r="AH65" s="45" t="s">
+        <v>273</v>
       </c>
       <c r="AI65" s="38"/>
       <c r="AJ65" s="38"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D66" s="39"/>
       <c r="E66" s="38"/>
@@ -4178,8 +4176,8 @@
       <c r="R66" s="39"/>
       <c r="S66" s="39"/>
       <c r="T66" s="39"/>
-      <c r="U66" s="44" t="s">
-        <v>273</v>
+      <c r="U66" s="45" t="s">
+        <v>275</v>
       </c>
       <c r="V66" s="39"/>
       <c r="W66" s="39"/>
@@ -4193,21 +4191,21 @@
       <c r="AE66" s="39"/>
       <c r="AF66" s="38"/>
       <c r="AG66" s="38"/>
-      <c r="AH66" s="44" t="s">
-        <v>70</v>
+      <c r="AH66" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="AI66" s="38"/>
       <c r="AJ66" s="38"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D67" s="39"/>
       <c r="E67" s="38"/>
@@ -4226,8 +4224,8 @@
       <c r="R67" s="39"/>
       <c r="S67" s="39"/>
       <c r="T67" s="39"/>
-      <c r="U67" s="44" t="s">
-        <v>275</v>
+      <c r="U67" s="45" t="s">
+        <v>277</v>
       </c>
       <c r="V67" s="39"/>
       <c r="W67" s="39"/>
@@ -4241,21 +4239,21 @@
       <c r="AE67" s="39"/>
       <c r="AF67" s="38"/>
       <c r="AG67" s="38"/>
-      <c r="AH67" s="44" t="s">
-        <v>276</v>
+      <c r="AH67" s="45" t="s">
+        <v>278</v>
       </c>
       <c r="AI67" s="38"/>
       <c r="AJ67" s="38"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D68" s="39"/>
       <c r="E68" s="38"/>
@@ -4274,8 +4272,8 @@
       <c r="R68" s="39"/>
       <c r="S68" s="39"/>
       <c r="T68" s="39"/>
-      <c r="U68" s="44" t="s">
-        <v>278</v>
+      <c r="U68" s="45" t="s">
+        <v>280</v>
       </c>
       <c r="V68" s="39"/>
       <c r="W68" s="39"/>
@@ -4289,21 +4287,21 @@
       <c r="AE68" s="39"/>
       <c r="AF68" s="38"/>
       <c r="AG68" s="38"/>
-      <c r="AH68" s="44" t="s">
-        <v>52</v>
+      <c r="AH68" s="45" t="s">
+        <v>54</v>
       </c>
       <c r="AI68" s="38"/>
       <c r="AJ68" s="38"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D69" s="39"/>
       <c r="E69" s="38"/>
@@ -4322,7 +4320,7 @@
       <c r="R69" s="39"/>
       <c r="S69" s="39"/>
       <c r="T69" s="39"/>
-      <c r="U69" s="44" t="s">
+      <c r="U69" s="45" t="s">
         <v>282</v>
       </c>
       <c r="V69" s="39"/>
@@ -4337,7 +4335,7 @@
       <c r="AE69" s="39"/>
       <c r="AF69" s="38"/>
       <c r="AG69" s="38"/>
-      <c r="AH69" s="44" t="s">
+      <c r="AH69" s="45" t="s">
         <v>283</v>
       </c>
       <c r="AI69" s="38"/>
@@ -4345,13 +4343,13 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B70" s="41" t="s">
         <v>284</v>
       </c>
       <c r="C70" s="38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D70" s="39"/>
       <c r="E70" s="38"/>
@@ -4396,84 +4394,84 @@
         <v>85</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="C71" s="44"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="44"/>
-      <c r="F71" s="44"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
-      <c r="Q71" s="43"/>
-      <c r="R71" s="43"/>
-      <c r="S71" s="43"/>
-      <c r="T71" s="43"/>
-      <c r="U71" s="43"/>
-      <c r="V71" s="43"/>
-      <c r="W71" s="43"/>
-      <c r="X71" s="43"/>
-      <c r="Y71" s="43"/>
-      <c r="Z71" s="43"/>
-      <c r="AA71" s="43"/>
-      <c r="AB71" s="43"/>
-      <c r="AC71" s="43"/>
-      <c r="AD71" s="43"/>
-      <c r="AE71" s="43"/>
-      <c r="AF71" s="44"/>
-      <c r="AG71" s="44"/>
-      <c r="AH71" s="44"/>
-      <c r="AI71" s="44"/>
-      <c r="AJ71" s="44"/>
+        <v>268</v>
+      </c>
+      <c r="C71" s="45"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="44"/>
+      <c r="R71" s="44"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="44"/>
+      <c r="U71" s="44"/>
+      <c r="V71" s="44"/>
+      <c r="W71" s="44"/>
+      <c r="X71" s="44"/>
+      <c r="Y71" s="44"/>
+      <c r="Z71" s="44"/>
+      <c r="AA71" s="44"/>
+      <c r="AB71" s="44"/>
+      <c r="AC71" s="44"/>
+      <c r="AD71" s="44"/>
+      <c r="AE71" s="44"/>
+      <c r="AF71" s="45"/>
+      <c r="AG71" s="45"/>
+      <c r="AH71" s="45"/>
+      <c r="AI71" s="45"/>
+      <c r="AJ71" s="45"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="42" t="s">
         <v>85</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" s="44"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="44"/>
-      <c r="F72" s="44"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
-      <c r="Q72" s="43"/>
-      <c r="R72" s="43"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="43"/>
-      <c r="U72" s="43"/>
-      <c r="V72" s="43"/>
-      <c r="W72" s="43"/>
-      <c r="X72" s="43"/>
-      <c r="Y72" s="43"/>
-      <c r="Z72" s="43"/>
-      <c r="AA72" s="43"/>
-      <c r="AB72" s="43"/>
-      <c r="AC72" s="43"/>
-      <c r="AD72" s="43"/>
-      <c r="AE72" s="43"/>
-      <c r="AF72" s="44"/>
-      <c r="AG72" s="44"/>
-      <c r="AH72" s="44"/>
-      <c r="AI72" s="44"/>
-      <c r="AJ72" s="44"/>
+        <v>50</v>
+      </c>
+      <c r="C72" s="45"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="44"/>
+      <c r="S72" s="44"/>
+      <c r="T72" s="44"/>
+      <c r="U72" s="44"/>
+      <c r="V72" s="44"/>
+      <c r="W72" s="44"/>
+      <c r="X72" s="44"/>
+      <c r="Y72" s="44"/>
+      <c r="Z72" s="44"/>
+      <c r="AA72" s="44"/>
+      <c r="AB72" s="44"/>
+      <c r="AC72" s="44"/>
+      <c r="AD72" s="44"/>
+      <c r="AE72" s="44"/>
+      <c r="AF72" s="45"/>
+      <c r="AG72" s="45"/>
+      <c r="AH72" s="45"/>
+      <c r="AI72" s="45"/>
+      <c r="AJ72" s="45"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4503,56 +4501,56 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>73</v>
+      <c r="A2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -4575,14 +4573,14 @@
       <c r="V2" s="25"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>77</v>
+      <c r="A3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -4605,8 +4603,8 @@
       <c r="V3" s="25"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="26"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -4842,87 +4840,87 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="18">
+      <c r="A2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="9">
         <f>NOW()</f>
-        <v>43773.51542</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
+        <v>43773.55102</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4947,57 +4945,57 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -5022,13 +5020,13 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -5078,13 +5076,13 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -5109,13 +5107,13 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -5140,13 +5138,13 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>102</v>
-      </c>
       <c r="C7" s="25" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -5171,13 +5169,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -5202,13 +5200,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -5258,13 +5256,13 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -5289,13 +5287,13 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -5320,13 +5318,13 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="25" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -5351,13 +5349,13 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="25" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -5382,13 +5380,13 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -5413,13 +5411,13 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="25" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -5469,13 +5467,13 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="25" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -5500,13 +5498,13 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="25" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -5531,13 +5529,13 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="25" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -5562,13 +5560,13 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="25" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -5593,13 +5591,13 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="25" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -5624,13 +5622,13 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="25" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -5680,13 +5678,13 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="25" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -5711,13 +5709,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="25" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -5742,13 +5740,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="25" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -5773,13 +5771,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="25" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -5804,13 +5802,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="25" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -5860,13 +5858,13 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="25" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -5891,13 +5889,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="25" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -5947,121 +5945,121 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -6072,26 +6070,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -6102,13 +6100,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
@@ -6120,26 +6118,26 @@
       <c r="K48" s="26"/>
       <c r="L48" s="26"/>
       <c r="M48" s="26"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
@@ -6151,240 +6149,240 @@
       <c r="K49" s="26"/>
       <c r="L49" s="26"/>
       <c r="M49" s="26"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C51" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B52" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C52" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B53" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C53" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C54" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C55" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="26" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="26" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="26" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B63" s="17" t="s">
+      <c r="A63" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="C63" s="26" t="s">
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B65" s="15" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B64" s="17" t="s">
+      <c r="C65" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="C64" s="26" t="s">
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B66" s="15" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B65" s="17" t="s">
+      <c r="C66" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="C65" s="26" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B66" s="17" t="s">
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C67" s="26" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="B67" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B69" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C69" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
+        <v>261</v>
+      </c>
+      <c r="B70" t="s">
+        <v>264</v>
+      </c>
+      <c r="C70" t="s">
         <v>265</v>
-      </c>
-      <c r="B70" t="s">
-        <v>269</v>
-      </c>
-      <c r="C70" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B72" t="s">
-        <v>272</v>
-      </c>
-      <c r="C72" s="45" t="s">
-        <v>225</v>
+        <v>267</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B73" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C73" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B74" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C74" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/pnc_danger_sign_follow_up_baby.xlsx
+++ b/config/default/forms/app/pnc_danger_sign_follow_up_baby.xlsx
@@ -14,17 +14,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="287">
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>list_name</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
   <si>
     <t>type</t>
   </si>
   <si>
+    <t>version</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
+    <t>style</t>
+  </si>
+  <si>
     <t>label::en</t>
   </si>
   <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
     <t>label::hi</t>
   </si>
   <si>
@@ -115,16 +139,19 @@
     <t>repeat_count</t>
   </si>
   <si>
+    <t>PNC danger sign follow-up - baby</t>
+  </si>
+  <si>
     <t>cht::notes</t>
   </si>
   <si>
+    <t>pnc_danger_sign_follow_up_baby</t>
+  </si>
+  <si>
     <t>begin group</t>
   </si>
   <si>
-    <t>list_name</t>
-  </si>
-  <si>
-    <t>form_title</t>
+    <t>pages</t>
   </si>
   <si>
     <t>inputs</t>
@@ -133,28 +160,16 @@
     <t>NO_LABEL</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>instance_name</t>
-  </si>
-  <si>
     <t>./source = 'user'</t>
   </si>
   <si>
     <t>field-list</t>
   </si>
   <si>
-    <t>default_language</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>en</t>
   </si>
   <si>
     <t>hidden</t>
@@ -175,10 +190,7 @@
     <t>Source ID</t>
   </si>
   <si>
-    <t>PNC danger sign follow-up - baby</t>
-  </si>
-  <si>
-    <t>pnc_danger_sign_follow_up_baby</t>
+    <t>yes_no</t>
   </si>
   <si>
     <t>delivery_uuid</t>
@@ -187,9 +199,6 @@
     <t>Delivery Report ID</t>
   </si>
   <si>
-    <t>yes_no</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
@@ -199,13 +208,10 @@
     <t>contact</t>
   </si>
   <si>
-    <t>pages</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>en</t>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>db:person</t>
@@ -220,12 +226,6 @@
     <t>db-object</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -274,30 +274,105 @@
     <t>end group</t>
   </si>
   <si>
+    <t>lmp_approximations</t>
+  </si>
+  <si>
+    <t>upto_2_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 2 Months Ago</t>
+  </si>
+  <si>
+    <t>upto_3_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 3 Months Ago</t>
+  </si>
+  <si>
+    <t>upto_4_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 4 Months Ago</t>
+  </si>
+  <si>
+    <t>between_5_and_6_months_ago</t>
+  </si>
+  <si>
+    <t>Between 5 And 6 Months Ago</t>
+  </si>
+  <si>
     <t>calculate</t>
   </si>
   <si>
+    <t>between_7_and_8_months_ago</t>
+  </si>
+  <si>
+    <t>Between 7 And 8 Months Ago</t>
+  </si>
+  <si>
+    <t>trimester1_choices</t>
+  </si>
+  <si>
     <t>patient_age_in_years</t>
   </si>
   <si>
+    <t>eat_extra_meal</t>
+  </si>
+  <si>
+    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
+  </si>
+  <si>
     <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
   </si>
   <si>
     <t>patient_uuid</t>
   </si>
   <si>
+    <t>take_iron_and_folic_acid</t>
+  </si>
+  <si>
+    <t>Take iron and folic acid tablets</t>
+  </si>
+  <si>
     <t>../inputs/contact/_id</t>
   </si>
   <si>
+    <t>avoid_heavy_work</t>
+  </si>
+  <si>
+    <t>Avoid heavy work, rest more</t>
+  </si>
+  <si>
+    <t>sleep_under_bednet</t>
+  </si>
+  <si>
+    <t>Sleep under an insecticide treated bednet</t>
+  </si>
+  <si>
     <t>../inputs/contact/patient_id</t>
   </si>
   <si>
+    <t>go_for_anc_visit</t>
+  </si>
+  <si>
+    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
+  </si>
+  <si>
     <t>patient_name</t>
   </si>
   <si>
+    <t>develop_birth_plan</t>
+  </si>
+  <si>
+    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
+  </si>
+  <si>
     <t>../inputs/contact/name</t>
   </si>
   <si>
+    <t>trimester2_choices</t>
+  </si>
+  <si>
     <t>t_danger_signs_referral_follow_up_date</t>
   </si>
   <si>
@@ -310,21 +385,72 @@
     <t>../danger_signs/r_danger_sign_present</t>
   </si>
   <si>
+    <t>couselling_on_exclusive_breastfeeding</t>
+  </si>
+  <si>
+    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
+  </si>
+  <si>
     <t>danger_signs</t>
   </si>
   <si>
     <t>Danger Sign Follow-up - Baby</t>
   </si>
   <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>heart_condition</t>
+  </si>
+  <si>
+    <t>Heart condition</t>
+  </si>
+  <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>high_blood_pressure</t>
+  </si>
+  <si>
+    <t>High blood pressure</t>
+  </si>
+  <si>
+    <t>known_diabetes</t>
+  </si>
+  <si>
+    <t>Known diabetes</t>
+  </si>
+  <si>
     <t>select_one yes_no</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>visit_confirm</t>
   </si>
   <si>
     <t>Was the baby taken to the health facility as recommended?</t>
   </si>
   <si>
+    <t>hiv_statuses</t>
+  </si>
+  <si>
+    <t>known</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>fp_methods</t>
+  </si>
+  <si>
     <t>danger_sign_present</t>
   </si>
   <si>
@@ -340,136 +466,64 @@
     <t>Please confirm if the baby has any of the following danger signs.</t>
   </si>
   <si>
-    <t>lmp_approximations</t>
-  </si>
-  <si>
-    <t>upto_2_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 2 Months Ago</t>
-  </si>
-  <si>
     <t>../danger_sign_present = 'yes' or ../danger_sign_present = 'no'</t>
   </si>
   <si>
-    <t>upto_3_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 3 Months Ago</t>
-  </si>
-  <si>
     <t>infected_umbilical_cord</t>
   </si>
   <si>
     <t>Infected umbilical cord</t>
   </si>
   <si>
-    <t>upto_4_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 4 Months Ago</t>
-  </si>
-  <si>
     <t>convulsion</t>
   </si>
   <si>
-    <t>between_5_and_6_months_ago</t>
-  </si>
-  <si>
     <t>Convulsions</t>
   </si>
   <si>
-    <t>Between 5 And 6 Months Ago</t>
-  </si>
-  <si>
-    <t>between_7_and_8_months_ago</t>
-  </si>
-  <si>
-    <t>Between 7 And 8 Months Ago</t>
-  </si>
-  <si>
     <t>difficulty_feeding</t>
   </si>
   <si>
     <t>Difficulty feeding or drinking</t>
   </si>
   <si>
-    <t>trimester1_choices</t>
-  </si>
-  <si>
     <t>vomit</t>
   </si>
   <si>
-    <t>eat_extra_meal</t>
-  </si>
-  <si>
-    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
-  </si>
-  <si>
     <t>Vomits everything</t>
   </si>
   <si>
-    <t>take_iron_and_folic_acid</t>
-  </si>
-  <si>
-    <t>Take iron and folic acid tablets</t>
-  </si>
-  <si>
     <t>drowsy</t>
   </si>
   <si>
     <t>Drowsy or unconscious</t>
   </si>
   <si>
-    <t>avoid_heavy_work</t>
-  </si>
-  <si>
-    <t>Avoid heavy work, rest more</t>
-  </si>
-  <si>
-    <t>sleep_under_bednet</t>
-  </si>
-  <si>
     <t>stiff</t>
   </si>
   <si>
-    <t>Sleep under an insecticide treated bednet</t>
-  </si>
-  <si>
     <t>Body stiffness</t>
   </si>
   <si>
-    <t>go_for_anc_visit</t>
-  </si>
-  <si>
-    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
-  </si>
-  <si>
     <t>yellow_skin</t>
   </si>
   <si>
     <t>Yellow skin color</t>
   </si>
   <si>
-    <t>develop_birth_plan</t>
-  </si>
-  <si>
-    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
-  </si>
-  <si>
     <t>fever</t>
   </si>
   <si>
     <t>Fever</t>
   </si>
   <si>
-    <t>trimester2_choices</t>
-  </si>
-  <si>
     <t>blue_skin</t>
   </si>
   <si>
     <t>Blue skin color (hypothermia)</t>
+  </si>
+  <si>
+    <t>Combined oral contraceptives</t>
   </si>
   <si>
     <t>r_danger_sign_present</t>
@@ -501,13 +555,13 @@
     <t>Great news! Please continue to closely monitor the baby.</t>
   </si>
   <si>
+    <t>Progesterone only pills</t>
+  </si>
+  <si>
     <t>../danger_sign_present = 'no' and ../r_danger_sign_present = 'no'</t>
   </si>
   <si>
-    <t>couselling_on_exclusive_breastfeeding</t>
-  </si>
-  <si>
-    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
+    <t>Injectibles</t>
   </si>
   <si>
     <t>refer_patient_note_1</t>
@@ -519,57 +573,33 @@
     <t>../danger_sign_present = 'yes' or ../r_danger_sign_present = 'yes'</t>
   </si>
   <si>
+    <t>Implants (1 rod)</t>
+  </si>
+  <si>
     <t>refer_patient_note_2</t>
   </si>
   <si>
     <t xml:space="preserve">Please advise the caregiver to do so and accompany them if possible. </t>
   </si>
   <si>
-    <t>conditions</t>
-  </si>
-  <si>
-    <t>heart_condition</t>
-  </si>
-  <si>
-    <t>Heart condition</t>
-  </si>
-  <si>
-    <t>asthma</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
-    <t>high_blood_pressure</t>
-  </si>
-  <si>
-    <t>High blood pressure</t>
-  </si>
-  <si>
-    <t>known_diabetes</t>
-  </si>
-  <si>
-    <t>Known diabetes</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>hiv_statuses</t>
-  </si>
-  <si>
-    <t>known</t>
+    <t>Implants (2 rods)</t>
+  </si>
+  <si>
+    <t>IUD</t>
+  </si>
+  <si>
+    <t>Condoms</t>
+  </si>
+  <si>
+    <t>Tubal ligation</t>
+  </si>
+  <si>
+    <t>Cycle beads</t>
   </si>
   <si>
     <t>__visited_hf</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>${visit_confirm}</t>
   </si>
   <si>
@@ -579,9 +609,6 @@
     <t>__still_experiencing_danger_sign</t>
   </si>
   <si>
-    <t>fp_methods</t>
-  </si>
-  <si>
     <t>${danger_sign_present}</t>
   </si>
   <si>
@@ -594,31 +621,40 @@
     <t>${infected_umbilical_cord}</t>
   </si>
   <si>
+    <t>reasons_not_on_fp</t>
+  </si>
+  <si>
     <t>Whether or not the umbilical cord was infected.</t>
   </si>
   <si>
     <t>__convulsions</t>
   </si>
   <si>
+    <t>Wants to get pregnant</t>
+  </si>
+  <si>
     <t>${convulsion}</t>
   </si>
   <si>
+    <t>Did not want FP</t>
+  </si>
+  <si>
     <t>Whether or not the baby is suffering from convulsions.</t>
   </si>
   <si>
-    <t>Combined oral contraceptives</t>
-  </si>
-  <si>
     <t>__difficulty_feeding_or_drinking</t>
   </si>
   <si>
-    <t>Progesterone only pills</t>
+    <t>follow_up_methods</t>
   </si>
   <si>
     <t>${difficulty_feeding}</t>
   </si>
   <si>
-    <t>Injectibles</t>
+    <t>in_person</t>
+  </si>
+  <si>
+    <t>In person</t>
   </si>
   <si>
     <t>Whether or not the baby is having difficulty feeding or drinking.</t>
@@ -627,243 +663,213 @@
     <t>__vomits_everything</t>
   </si>
   <si>
-    <t>Implants (1 rod)</t>
-  </si>
-  <si>
-    <t>Implants (2 rods)</t>
-  </si>
-  <si>
     <t>${vomit}</t>
   </si>
   <si>
-    <t>IUD</t>
+    <t>by_phone</t>
   </si>
   <si>
     <t>Whether or not the baby vomits everything.</t>
   </si>
   <si>
+    <t>By phone</t>
+  </si>
+  <si>
     <t>__drowsy_or_unconscious</t>
   </si>
   <si>
-    <t>Condoms</t>
-  </si>
-  <si>
     <t>${drowsy}</t>
   </si>
   <si>
-    <t>Tubal ligation</t>
+    <t>reasons_for_missing_visit</t>
   </si>
   <si>
     <t>Whether or not the baby is drowsy or unconscious.</t>
   </si>
   <si>
-    <t>Cycle beads</t>
+    <t>not_reminded</t>
+  </si>
+  <si>
+    <t>She was not reminded</t>
   </si>
   <si>
     <t>__body_stiffness</t>
   </si>
   <si>
+    <t>travelled</t>
+  </si>
+  <si>
+    <t>She had travelled</t>
+  </si>
+  <si>
     <t>${stiff}</t>
   </si>
   <si>
+    <t>no_lab_results</t>
+  </si>
+  <si>
+    <t>No Lab results yet</t>
+  </si>
+  <si>
     <t>Whether or not the baby's body is stiff.</t>
   </si>
   <si>
+    <t>too_early</t>
+  </si>
+  <si>
+    <t>It is too early to start clinic</t>
+  </si>
+  <si>
     <t>__yellow_skin_color</t>
   </si>
   <si>
+    <t>relocated</t>
+  </si>
+  <si>
+    <t>Relocated</t>
+  </si>
+  <si>
     <t>${yellow_skin}</t>
   </si>
   <si>
-    <t>reasons_not_on_fp</t>
-  </si>
-  <si>
     <t>Whether or not the baby has yellow skin color.</t>
   </si>
   <si>
-    <t>Wants to get pregnant</t>
+    <t>actions_taken</t>
+  </si>
+  <si>
+    <t>referred</t>
   </si>
   <si>
     <t>__fever</t>
   </si>
   <si>
-    <t>Did not want FP</t>
-  </si>
-  <si>
-    <t>follow_up_methods</t>
+    <t>Referred the mother</t>
+  </si>
+  <si>
+    <t>key_message</t>
+  </si>
+  <si>
+    <t>Provided key health message</t>
   </si>
   <si>
     <t>${fever}</t>
   </si>
   <si>
-    <t>in_person</t>
-  </si>
-  <si>
-    <t>In person</t>
+    <t>accompany</t>
   </si>
   <si>
     <t>Whether or not the baby has a fever.</t>
   </si>
   <si>
+    <t>Accompany the mother to facility</t>
+  </si>
+  <si>
     <t>__blue_skin_color</t>
   </si>
   <si>
-    <t>by_phone</t>
-  </si>
-  <si>
-    <t>By phone</t>
-  </si>
-  <si>
     <t>${blue_skin}</t>
   </si>
   <si>
+    <t>recent_foods</t>
+  </si>
+  <si>
+    <t>carbohydrates</t>
+  </si>
+  <si>
+    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
+  </si>
+  <si>
     <t>Whether or not the baby has blue skin color (hypothermia).</t>
   </si>
   <si>
-    <t>reasons_for_missing_visit</t>
-  </si>
-  <si>
-    <t>not_reminded</t>
-  </si>
-  <si>
-    <t>She was not reminded</t>
+    <t>protein</t>
   </si>
   <si>
     <t>__has_danger_sign</t>
   </si>
   <si>
-    <t>travelled</t>
-  </si>
-  <si>
-    <t>She had travelled</t>
+    <t>Body building foods: Milk, eggs, meat</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
   </si>
   <si>
     <t>${r_danger_sign_present}</t>
   </si>
   <si>
-    <t>no_lab_results</t>
-  </si>
-  <si>
-    <t>No Lab results yet</t>
+    <t>fruits</t>
+  </si>
+  <si>
+    <t>Fruits: Mangoes, ripe bananas, oranges</t>
   </si>
   <si>
     <t>Whether or not any danger signs are present.</t>
   </si>
   <si>
-    <t>too_early</t>
-  </si>
-  <si>
-    <t>It is too early to start clinic</t>
-  </si>
-  <si>
-    <t>relocated</t>
-  </si>
-  <si>
-    <t>Relocated</t>
+    <t>none</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>pos_neg</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>reasons_to_discontinue</t>
+  </si>
+  <si>
+    <t>wants_to_get_pregnant</t>
   </si>
   <si>
     <t>meta</t>
   </si>
   <si>
-    <t>actions_taken</t>
-  </si>
-  <si>
-    <t>referred</t>
-  </si>
-  <si>
-    <t>Referred the mother</t>
-  </si>
-  <si>
-    <t>key_message</t>
-  </si>
-  <si>
-    <t>Provided key health message</t>
-  </si>
-  <si>
-    <t>accompany</t>
-  </si>
-  <si>
-    <t>Accompany the mother to facility</t>
-  </si>
-  <si>
-    <t>recent_foods</t>
-  </si>
-  <si>
-    <t>carbohydrates</t>
-  </si>
-  <si>
-    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>Body building foods: Milk, eggs, meat</t>
+    <t>feels_sick_when_using_it</t>
+  </si>
+  <si>
+    <t>Feels sick when using it</t>
   </si>
   <si>
     <t>__patient_uuid</t>
   </si>
   <si>
-    <t>vegetables</t>
-  </si>
-  <si>
-    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
-  </si>
-  <si>
-    <t>fruits</t>
-  </si>
-  <si>
-    <t>Fruits: Mangoes, ripe bananas, oranges</t>
-  </si>
-  <si>
     <t>../../../inputs/contact/_id</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>None of the above</t>
-  </si>
-  <si>
-    <t>pos_neg</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>Positive</t>
+    <t>Patient UUID</t>
   </si>
   <si>
     <t>__patient_id</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>reasons_to_discontinue</t>
-  </si>
-  <si>
-    <t>wants_to_get_pregnant</t>
-  </si>
-  <si>
     <t>../../../inputs/contact/patient_id</t>
   </si>
   <si>
     <t>__household_uuid</t>
   </si>
   <si>
-    <t>feels_sick_when_using_it</t>
-  </si>
-  <si>
-    <t>Feels sick when using it</t>
-  </si>
-  <si>
     <t>../../../inputs/contact/parent/_id</t>
   </si>
   <si>
+    <t>Household UUID</t>
+  </si>
+  <si>
     <t>__source</t>
   </si>
   <si>
@@ -876,10 +882,16 @@
     <t>../../../inputs/source_id</t>
   </si>
   <si>
+    <t xml:space="preserve">Source ID </t>
+  </si>
+  <si>
     <t>__delivery_uuid</t>
   </si>
   <si>
     <t>../../inputs/delivery_uuid</t>
+  </si>
+  <si>
+    <t>Delivery UUID</t>
   </si>
 </sst>
 </file>
@@ -897,12 +909,11 @@
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <b/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -910,11 +921,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -932,18 +944,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor rgb="FFEFEFEF"/>
       </patternFill>
@@ -956,8 +956,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1021,108 +1033,111 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1185,1091 +1200,1091 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="Z1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
+      <c r="AA1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="A2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
+      <c r="B2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="13"/>
+      <c r="AH4" s="13"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13"/>
+      <c r="AH5" s="13"/>
+      <c r="AI5" s="13"/>
+      <c r="AJ5" s="13"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
+      <c r="AI6" s="13"/>
+      <c r="AJ6" s="13"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13"/>
+      <c r="AH7" s="13"/>
+      <c r="AI7" s="13"/>
+      <c r="AJ7" s="13"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13"/>
+      <c r="AJ9" s="13"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13"/>
+      <c r="AI10" s="13"/>
+      <c r="AJ10" s="13"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13">
+        <v>0.0</v>
+      </c>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13"/>
+      <c r="AI11" s="13"/>
+      <c r="AJ11" s="13"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13"/>
+      <c r="AI12" s="13"/>
+      <c r="AJ12" s="13"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13"/>
+      <c r="AI13" s="13"/>
+      <c r="AJ13" s="13"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="B14" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13"/>
+      <c r="AI14" s="13"/>
+      <c r="AJ14" s="13"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
-      <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="7"/>
-      <c r="AI7" s="7"/>
-      <c r="AJ7" s="7"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13"/>
+      <c r="AI15" s="13"/>
+      <c r="AJ15" s="13"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
-      <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="7"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-      <c r="AF10" s="7"/>
-      <c r="AG10" s="7"/>
-      <c r="AH10" s="7"/>
-      <c r="AI10" s="7"/>
-      <c r="AJ10" s="7"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
+      <c r="AI16" s="13"/>
+      <c r="AJ16" s="13"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
+      <c r="AJ17" s="13"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="13"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="13"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13"/>
+      <c r="Z20" s="13"/>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
+      <c r="AI20" s="13"/>
+      <c r="AJ20" s="13"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
-      <c r="AE15" s="7"/>
-      <c r="AF15" s="7"/>
-      <c r="AG15" s="7"/>
-      <c r="AH15" s="7"/>
-      <c r="AI15" s="7"/>
-      <c r="AJ15" s="7"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="7"/>
-      <c r="AB16" s="7"/>
-      <c r="AC16" s="7"/>
-      <c r="AD16" s="7"/>
-      <c r="AE16" s="7"/>
-      <c r="AF16" s="7"/>
-      <c r="AG16" s="7"/>
-      <c r="AH16" s="7"/>
-      <c r="AI16" s="7"/>
-      <c r="AJ16" s="7"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="7"/>
-      <c r="AI17" s="7"/>
-      <c r="AJ17" s="7"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="7"/>
-      <c r="AG18" s="7"/>
-      <c r="AH18" s="7"/>
-      <c r="AI18" s="7"/>
-      <c r="AJ18" s="7"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="4" t="s">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="13"/>
+      <c r="AJ21" s="13"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="7"/>
-      <c r="AI19" s="7"/>
-      <c r="AJ19" s="7"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="4" t="s">
+      <c r="B22" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="13"/>
+      <c r="AJ22" s="13"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="7"/>
-      <c r="AG22" s="7"/>
-      <c r="AH22" s="7"/>
-      <c r="AI22" s="7"/>
-      <c r="AJ22" s="7"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
+      <c r="B23" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13"/>
+      <c r="AI23" s="13"/>
+      <c r="AJ23" s="13"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="AF24" s="28"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="29" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D25" s="30"/>
       <c r="E25" s="30"/>
@@ -2289,7 +2304,7 @@
       <c r="S25" s="30"/>
       <c r="T25" s="30"/>
       <c r="U25" s="30" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="V25" s="30"/>
       <c r="W25" s="30"/>
@@ -2302,7 +2317,7 @@
       <c r="AD25" s="30"/>
       <c r="AE25" s="30"/>
       <c r="AF25" s="31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AG25" s="30"/>
       <c r="AH25" s="30"/>
@@ -2311,13 +2326,13 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="29" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D26" s="30"/>
       <c r="E26" s="30"/>
@@ -2337,7 +2352,7 @@
       <c r="S26" s="30"/>
       <c r="T26" s="30"/>
       <c r="U26" s="30" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="V26" s="30"/>
       <c r="W26" s="30"/>
@@ -2350,7 +2365,7 @@
       <c r="AD26" s="30"/>
       <c r="AE26" s="30"/>
       <c r="AF26" s="31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AG26" s="30"/>
       <c r="AH26" s="30"/>
@@ -2359,13 +2374,13 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="29" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B27" s="29" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
@@ -2373,9 +2388,7 @@
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
-      <c r="J27" s="30" t="s">
-        <v>58</v>
-      </c>
+      <c r="J27" s="30"/>
       <c r="K27" s="30"/>
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
@@ -2387,7 +2400,7 @@
       <c r="S27" s="30"/>
       <c r="T27" s="30"/>
       <c r="U27" s="31" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="V27" s="30"/>
       <c r="W27" s="30"/>
@@ -2400,7 +2413,7 @@
       <c r="AD27" s="30"/>
       <c r="AE27" s="30"/>
       <c r="AF27" s="31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AG27" s="30"/>
       <c r="AH27" s="30"/>
@@ -2409,13 +2422,13 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="29" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D28" s="30"/>
       <c r="E28" s="30"/>
@@ -2435,7 +2448,7 @@
       <c r="S28" s="30"/>
       <c r="T28" s="30"/>
       <c r="U28" s="31" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="V28" s="30"/>
       <c r="W28" s="30"/>
@@ -2448,7 +2461,7 @@
       <c r="AD28" s="30"/>
       <c r="AE28" s="30"/>
       <c r="AF28" s="31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AG28" s="30"/>
       <c r="AH28" s="30"/>
@@ -2457,13 +2470,13 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="29" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D29" s="30"/>
       <c r="E29" s="30"/>
@@ -2483,7 +2496,7 @@
       <c r="S29" s="30"/>
       <c r="T29" s="30"/>
       <c r="U29" s="31" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="V29" s="30"/>
       <c r="W29" s="30"/>
@@ -2496,7 +2509,7 @@
       <c r="AD29" s="30"/>
       <c r="AE29" s="30"/>
       <c r="AF29" s="31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AG29" s="30"/>
       <c r="AH29" s="30"/>
@@ -2505,13 +2518,13 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="29" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D30" s="30"/>
       <c r="E30" s="30"/>
@@ -2531,7 +2544,7 @@
       <c r="S30" s="30"/>
       <c r="T30" s="30"/>
       <c r="U30" s="31" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="V30" s="30"/>
       <c r="W30" s="30"/>
@@ -2544,7 +2557,7 @@
       <c r="AD30" s="30"/>
       <c r="AE30" s="30"/>
       <c r="AF30" s="31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AG30" s="30"/>
       <c r="AH30" s="30"/>
@@ -2560,13 +2573,13 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="33" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
@@ -2577,7 +2590,7 @@
       <c r="J32" s="35"/>
       <c r="K32" s="34"/>
       <c r="L32" s="34" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M32" s="35"/>
       <c r="N32" s="35"/>
@@ -2606,13 +2619,13 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -2621,7 +2634,7 @@
       <c r="H33" s="35"/>
       <c r="I33" s="35"/>
       <c r="J33" s="35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K33" s="35"/>
       <c r="L33" s="35"/>
@@ -2652,13 +2665,13 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="36" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -2667,7 +2680,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
       <c r="J34" s="35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K34" s="35"/>
       <c r="L34" s="35"/>
@@ -2698,13 +2711,13 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="36" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="B35" s="33" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
@@ -2714,7 +2727,7 @@
       <c r="I35" s="35"/>
       <c r="J35" s="35"/>
       <c r="K35" s="34" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="L35" s="35"/>
       <c r="M35" s="35"/>
@@ -2737,7 +2750,7 @@
       <c r="AD35" s="35"/>
       <c r="AE35" s="35"/>
       <c r="AF35" s="34" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AG35" s="35"/>
       <c r="AH35" s="35"/>
@@ -2746,13 +2759,13 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -2761,10 +2774,10 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
       <c r="J36" s="35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K36" s="34" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="L36" s="35"/>
       <c r="M36" s="35"/>
@@ -2794,13 +2807,13 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="36" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
@@ -2809,10 +2822,10 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
       <c r="J37" s="35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K37" s="34" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="L37" s="35"/>
       <c r="M37" s="35"/>
@@ -2842,13 +2855,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
@@ -2857,10 +2870,10 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
       <c r="J38" s="35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K38" s="34" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
@@ -2890,13 +2903,13 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="36" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
@@ -2905,10 +2918,10 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
       <c r="J39" s="35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K39" s="34" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="L39" s="35"/>
       <c r="M39" s="35"/>
@@ -2938,13 +2951,13 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="36" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
@@ -2953,10 +2966,10 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
       <c r="J40" s="35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K40" s="34" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="L40" s="35"/>
       <c r="M40" s="35"/>
@@ -2986,13 +2999,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="36" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
@@ -3001,10 +3014,10 @@
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
       <c r="J41" s="35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K41" s="34" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="L41" s="35"/>
       <c r="M41" s="35"/>
@@ -3034,13 +3047,13 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="36" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
@@ -3049,10 +3062,10 @@
       <c r="H42" s="35"/>
       <c r="I42" s="35"/>
       <c r="J42" s="35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K42" s="34" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="L42" s="35"/>
       <c r="M42" s="35"/>
@@ -3082,13 +3095,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="36" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -3097,10 +3110,10 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
       <c r="J43" s="35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K43" s="34" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="L43" s="35"/>
       <c r="M43" s="35"/>
@@ -3130,13 +3143,13 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="36" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -3145,10 +3158,10 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
       <c r="J44" s="35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K44" s="34" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="L44" s="35"/>
       <c r="M44" s="35"/>
@@ -3178,13 +3191,13 @@
     </row>
     <row r="45" ht="42.75" customHeight="1">
       <c r="A45" s="36" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -3204,7 +3217,7 @@
       <c r="S45" s="35"/>
       <c r="T45" s="35"/>
       <c r="U45" s="34" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="V45" s="35"/>
       <c r="W45" s="35"/>
@@ -3217,7 +3230,7 @@
       <c r="AD45" s="35"/>
       <c r="AE45" s="35"/>
       <c r="AF45" s="34" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AG45" s="35"/>
       <c r="AH45" s="35"/>
@@ -3226,13 +3239,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="33" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -3242,7 +3255,7 @@
       <c r="I46" s="35"/>
       <c r="J46" s="35"/>
       <c r="K46" s="34" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="L46" s="35"/>
       <c r="M46" s="35"/>
@@ -3265,7 +3278,7 @@
       <c r="AD46" s="35"/>
       <c r="AE46" s="35"/>
       <c r="AF46" s="34" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AG46" s="35"/>
       <c r="AH46" s="35"/>
@@ -3274,13 +3287,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="36" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -3290,7 +3303,7 @@
       <c r="I47" s="35"/>
       <c r="J47" s="35"/>
       <c r="K47" s="34" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L47" s="35"/>
       <c r="M47" s="35"/>
@@ -3313,7 +3326,7 @@
       <c r="AD47" s="35"/>
       <c r="AE47" s="35"/>
       <c r="AF47" s="34" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AG47" s="35"/>
       <c r="AH47" s="35"/>
@@ -3322,13 +3335,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="36" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -3338,7 +3351,7 @@
       <c r="I48" s="35"/>
       <c r="J48" s="35"/>
       <c r="K48" s="34" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L48" s="35"/>
       <c r="M48" s="35"/>
@@ -3361,7 +3374,7 @@
       <c r="AD48" s="35"/>
       <c r="AE48" s="35"/>
       <c r="AF48" s="34" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AG48" s="35"/>
       <c r="AH48" s="35"/>
@@ -3422,13 +3435,13 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="37" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D51" s="39"/>
       <c r="E51" s="38"/>
@@ -3439,7 +3452,7 @@
       <c r="J51" s="39"/>
       <c r="K51" s="39"/>
       <c r="L51" s="40" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M51" s="39"/>
       <c r="N51" s="39"/>
@@ -3461,7 +3474,7 @@
       <c r="AD51" s="39"/>
       <c r="AE51" s="39"/>
       <c r="AF51" s="40" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AG51" s="38"/>
       <c r="AH51" s="38"/>
@@ -3470,12 +3483,14 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B52" s="41" t="s">
-        <v>177</v>
-      </c>
-      <c r="C52" s="38"/>
+        <v>188</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D52" s="39"/>
       <c r="E52" s="38"/>
       <c r="F52" s="38"/>
@@ -3494,7 +3509,7 @@
       <c r="S52" s="39"/>
       <c r="T52" s="39"/>
       <c r="U52" s="38" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="V52" s="39"/>
       <c r="W52" s="39"/>
@@ -3509,19 +3524,21 @@
       <c r="AF52" s="38"/>
       <c r="AG52" s="38"/>
       <c r="AH52" s="40" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AI52" s="38"/>
       <c r="AJ52" s="38"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="C53" s="38"/>
+        <v>191</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D53" s="39"/>
       <c r="E53" s="38"/>
       <c r="F53" s="38"/>
@@ -3540,7 +3557,7 @@
       <c r="S53" s="39"/>
       <c r="T53" s="39"/>
       <c r="U53" s="38" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="V53" s="39"/>
       <c r="W53" s="39"/>
@@ -3555,19 +3572,21 @@
       <c r="AF53" s="38"/>
       <c r="AG53" s="38"/>
       <c r="AH53" s="40" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AI53" s="38"/>
       <c r="AJ53" s="38"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="C54" s="38"/>
+        <v>194</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D54" s="39"/>
       <c r="E54" s="38"/>
       <c r="F54" s="38"/>
@@ -3586,7 +3605,7 @@
       <c r="S54" s="39"/>
       <c r="T54" s="39"/>
       <c r="U54" s="38" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="V54" s="39"/>
       <c r="W54" s="39"/>
@@ -3601,19 +3620,21 @@
       <c r="AF54" s="38"/>
       <c r="AG54" s="38"/>
       <c r="AH54" s="40" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="AI54" s="38"/>
       <c r="AJ54" s="38"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B55" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="C55" s="38"/>
+        <v>198</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D55" s="39"/>
       <c r="E55" s="38"/>
       <c r="F55" s="38"/>
@@ -3632,7 +3653,7 @@
       <c r="S55" s="39"/>
       <c r="T55" s="39"/>
       <c r="U55" s="38" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="V55" s="39"/>
       <c r="W55" s="39"/>
@@ -3647,19 +3668,21 @@
       <c r="AF55" s="38"/>
       <c r="AG55" s="38"/>
       <c r="AH55" s="40" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="AI55" s="38"/>
       <c r="AJ55" s="38"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B56" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="C56" s="38"/>
+        <v>203</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D56" s="39"/>
       <c r="E56" s="38"/>
       <c r="F56" s="38"/>
@@ -3678,7 +3701,7 @@
       <c r="S56" s="39"/>
       <c r="T56" s="39"/>
       <c r="U56" s="38" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="V56" s="39"/>
       <c r="W56" s="39"/>
@@ -3693,19 +3716,21 @@
       <c r="AF56" s="38"/>
       <c r="AG56" s="38"/>
       <c r="AH56" s="40" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="AI56" s="38"/>
       <c r="AJ56" s="38"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B57" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="C57" s="38"/>
+        <v>209</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D57" s="39"/>
       <c r="E57" s="38"/>
       <c r="F57" s="38"/>
@@ -3724,7 +3749,7 @@
       <c r="S57" s="39"/>
       <c r="T57" s="39"/>
       <c r="U57" s="38" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="V57" s="39"/>
       <c r="W57" s="39"/>
@@ -3739,19 +3764,21 @@
       <c r="AF57" s="38"/>
       <c r="AG57" s="38"/>
       <c r="AH57" s="40" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="AI57" s="38"/>
       <c r="AJ57" s="38"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B58" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="C58" s="38"/>
+        <v>214</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D58" s="39"/>
       <c r="E58" s="38"/>
       <c r="F58" s="38"/>
@@ -3770,7 +3797,7 @@
       <c r="S58" s="39"/>
       <c r="T58" s="39"/>
       <c r="U58" s="38" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="V58" s="39"/>
       <c r="W58" s="39"/>
@@ -3785,19 +3812,21 @@
       <c r="AF58" s="38"/>
       <c r="AG58" s="38"/>
       <c r="AH58" s="40" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="AI58" s="38"/>
       <c r="AJ58" s="38"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B59" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="C59" s="38"/>
+        <v>220</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D59" s="39"/>
       <c r="E59" s="38"/>
       <c r="F59" s="38"/>
@@ -3816,7 +3845,7 @@
       <c r="S59" s="39"/>
       <c r="T59" s="39"/>
       <c r="U59" s="38" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="V59" s="39"/>
       <c r="W59" s="39"/>
@@ -3831,19 +3860,21 @@
       <c r="AF59" s="38"/>
       <c r="AG59" s="38"/>
       <c r="AH59" s="40" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="AI59" s="38"/>
       <c r="AJ59" s="38"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B60" s="41" t="s">
-        <v>212</v>
-      </c>
-      <c r="C60" s="38"/>
+        <v>229</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D60" s="39"/>
       <c r="E60" s="38"/>
       <c r="F60" s="38"/>
@@ -3862,7 +3893,7 @@
       <c r="S60" s="39"/>
       <c r="T60" s="39"/>
       <c r="U60" s="38" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="V60" s="39"/>
       <c r="W60" s="39"/>
@@ -3877,19 +3908,21 @@
       <c r="AF60" s="38"/>
       <c r="AG60" s="38"/>
       <c r="AH60" s="40" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="AI60" s="38"/>
       <c r="AJ60" s="38"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B61" s="41" t="s">
-        <v>217</v>
-      </c>
-      <c r="C61" s="38"/>
+        <v>236</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D61" s="39"/>
       <c r="E61" s="38"/>
       <c r="F61" s="38"/>
@@ -3908,7 +3941,7 @@
       <c r="S61" s="39"/>
       <c r="T61" s="39"/>
       <c r="U61" s="38" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="V61" s="39"/>
       <c r="W61" s="39"/>
@@ -3923,19 +3956,21 @@
       <c r="AF61" s="38"/>
       <c r="AG61" s="38"/>
       <c r="AH61" s="40" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="AI61" s="38"/>
       <c r="AJ61" s="38"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B62" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="C62" s="38"/>
+        <v>244</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D62" s="39"/>
       <c r="E62" s="38"/>
       <c r="F62" s="38"/>
@@ -3954,7 +3989,7 @@
       <c r="S62" s="39"/>
       <c r="T62" s="39"/>
       <c r="U62" s="38" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="V62" s="39"/>
       <c r="W62" s="39"/>
@@ -3969,19 +4004,21 @@
       <c r="AF62" s="38"/>
       <c r="AG62" s="38"/>
       <c r="AH62" s="40" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="AI62" s="38"/>
       <c r="AJ62" s="38"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B63" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="C63" s="38"/>
+        <v>251</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D63" s="39"/>
       <c r="E63" s="38"/>
       <c r="F63" s="38"/>
@@ -4000,7 +4037,7 @@
       <c r="S63" s="39"/>
       <c r="T63" s="39"/>
       <c r="U63" s="38" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="V63" s="39"/>
       <c r="W63" s="39"/>
@@ -4015,24 +4052,24 @@
       <c r="AF63" s="38"/>
       <c r="AG63" s="38"/>
       <c r="AH63" s="40" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="AI63" s="38"/>
       <c r="AJ63" s="38"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="42" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B64" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="C64" s="43" t="s">
-        <v>38</v>
+        <v>268</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="D64" s="44"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
       <c r="G64" s="44"/>
       <c r="H64" s="44"/>
       <c r="I64" s="44"/>
@@ -4047,7 +4084,7 @@
       <c r="R64" s="44"/>
       <c r="S64" s="44"/>
       <c r="T64" s="44"/>
-      <c r="U64" s="43"/>
+      <c r="U64" s="45"/>
       <c r="V64" s="44"/>
       <c r="W64" s="44"/>
       <c r="X64" s="44"/>
@@ -4058,20 +4095,22 @@
       <c r="AC64" s="44"/>
       <c r="AD64" s="44"/>
       <c r="AE64" s="44"/>
-      <c r="AF64" s="43"/>
-      <c r="AG64" s="43"/>
-      <c r="AH64" s="43"/>
-      <c r="AI64" s="43"/>
-      <c r="AJ64" s="43"/>
+      <c r="AF64" s="45"/>
+      <c r="AG64" s="45"/>
+      <c r="AH64" s="45"/>
+      <c r="AI64" s="45"/>
+      <c r="AJ64" s="45"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="C65" s="38"/>
+        <v>271</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D65" s="39"/>
       <c r="E65" s="38"/>
       <c r="F65" s="38"/>
@@ -4089,8 +4128,8 @@
       <c r="R65" s="39"/>
       <c r="S65" s="39"/>
       <c r="T65" s="39"/>
-      <c r="U65" s="43" t="s">
-        <v>261</v>
+      <c r="U65" s="45" t="s">
+        <v>272</v>
       </c>
       <c r="V65" s="39"/>
       <c r="W65" s="39"/>
@@ -4104,18 +4143,22 @@
       <c r="AE65" s="39"/>
       <c r="AF65" s="38"/>
       <c r="AG65" s="38"/>
-      <c r="AH65" s="38"/>
+      <c r="AH65" s="45" t="s">
+        <v>273</v>
+      </c>
       <c r="AI65" s="38"/>
       <c r="AJ65" s="38"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B66" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="C66" s="38"/>
+        <v>274</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D66" s="39"/>
       <c r="E66" s="38"/>
       <c r="F66" s="38"/>
@@ -4133,8 +4176,8 @@
       <c r="R66" s="39"/>
       <c r="S66" s="39"/>
       <c r="T66" s="39"/>
-      <c r="U66" s="43" t="s">
-        <v>272</v>
+      <c r="U66" s="45" t="s">
+        <v>275</v>
       </c>
       <c r="V66" s="39"/>
       <c r="W66" s="39"/>
@@ -4148,18 +4191,22 @@
       <c r="AE66" s="39"/>
       <c r="AF66" s="38"/>
       <c r="AG66" s="38"/>
-      <c r="AH66" s="38"/>
+      <c r="AH66" s="45" t="s">
+        <v>74</v>
+      </c>
       <c r="AI66" s="38"/>
       <c r="AJ66" s="38"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B67" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="C67" s="38"/>
+        <v>276</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D67" s="39"/>
       <c r="E67" s="38"/>
       <c r="F67" s="38"/>
@@ -4177,8 +4224,8 @@
       <c r="R67" s="39"/>
       <c r="S67" s="39"/>
       <c r="T67" s="39"/>
-      <c r="U67" s="43" t="s">
-        <v>276</v>
+      <c r="U67" s="45" t="s">
+        <v>277</v>
       </c>
       <c r="V67" s="39"/>
       <c r="W67" s="39"/>
@@ -4192,18 +4239,22 @@
       <c r="AE67" s="39"/>
       <c r="AF67" s="38"/>
       <c r="AG67" s="38"/>
-      <c r="AH67" s="38"/>
+      <c r="AH67" s="45" t="s">
+        <v>278</v>
+      </c>
       <c r="AI67" s="38"/>
       <c r="AJ67" s="38"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B68" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="C68" s="38"/>
+        <v>279</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D68" s="39"/>
       <c r="E68" s="38"/>
       <c r="F68" s="38"/>
@@ -4221,8 +4272,8 @@
       <c r="R68" s="39"/>
       <c r="S68" s="39"/>
       <c r="T68" s="39"/>
-      <c r="U68" s="43" t="s">
-        <v>278</v>
+      <c r="U68" s="45" t="s">
+        <v>280</v>
       </c>
       <c r="V68" s="39"/>
       <c r="W68" s="39"/>
@@ -4236,18 +4287,22 @@
       <c r="AE68" s="39"/>
       <c r="AF68" s="38"/>
       <c r="AG68" s="38"/>
-      <c r="AH68" s="38"/>
+      <c r="AH68" s="45" t="s">
+        <v>54</v>
+      </c>
       <c r="AI68" s="38"/>
       <c r="AJ68" s="38"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B69" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="C69" s="38"/>
+        <v>281</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D69" s="39"/>
       <c r="E69" s="38"/>
       <c r="F69" s="38"/>
@@ -4265,8 +4320,8 @@
       <c r="R69" s="39"/>
       <c r="S69" s="39"/>
       <c r="T69" s="39"/>
-      <c r="U69" s="43" t="s">
-        <v>280</v>
+      <c r="U69" s="45" t="s">
+        <v>282</v>
       </c>
       <c r="V69" s="39"/>
       <c r="W69" s="39"/>
@@ -4280,18 +4335,22 @@
       <c r="AE69" s="39"/>
       <c r="AF69" s="38"/>
       <c r="AG69" s="38"/>
-      <c r="AH69" s="38"/>
+      <c r="AH69" s="45" t="s">
+        <v>283</v>
+      </c>
       <c r="AI69" s="38"/>
       <c r="AJ69" s="38"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="37" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B70" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="C70" s="38"/>
+        <v>284</v>
+      </c>
+      <c r="C70" s="38" t="s">
+        <v>47</v>
+      </c>
       <c r="D70" s="39"/>
       <c r="E70" s="38"/>
       <c r="F70" s="38"/>
@@ -4310,7 +4369,7 @@
       <c r="S70" s="39"/>
       <c r="T70" s="39"/>
       <c r="U70" s="38" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="V70" s="39"/>
       <c r="W70" s="39"/>
@@ -4324,7 +4383,9 @@
       <c r="AE70" s="39"/>
       <c r="AF70" s="38"/>
       <c r="AG70" s="38"/>
-      <c r="AH70" s="38"/>
+      <c r="AH70" s="46" t="s">
+        <v>286</v>
+      </c>
       <c r="AI70" s="38"/>
       <c r="AJ70" s="38"/>
     </row>
@@ -4333,12 +4394,12 @@
         <v>85</v>
       </c>
       <c r="B71" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="C71" s="43"/>
+        <v>268</v>
+      </c>
+      <c r="C71" s="45"/>
       <c r="D71" s="44"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
       <c r="G71" s="44"/>
       <c r="H71" s="44"/>
       <c r="I71" s="44"/>
@@ -4364,23 +4425,23 @@
       <c r="AC71" s="44"/>
       <c r="AD71" s="44"/>
       <c r="AE71" s="44"/>
-      <c r="AF71" s="43"/>
-      <c r="AG71" s="43"/>
-      <c r="AH71" s="43"/>
-      <c r="AI71" s="43"/>
-      <c r="AJ71" s="43"/>
+      <c r="AF71" s="45"/>
+      <c r="AG71" s="45"/>
+      <c r="AH71" s="45"/>
+      <c r="AI71" s="45"/>
+      <c r="AJ71" s="45"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="42" t="s">
         <v>85</v>
       </c>
       <c r="B72" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C72" s="43"/>
+        <v>50</v>
+      </c>
+      <c r="C72" s="45"/>
       <c r="D72" s="44"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
       <c r="G72" s="44"/>
       <c r="H72" s="44"/>
       <c r="I72" s="44"/>
@@ -4406,11 +4467,11 @@
       <c r="AC72" s="44"/>
       <c r="AD72" s="44"/>
       <c r="AE72" s="44"/>
-      <c r="AF72" s="43"/>
-      <c r="AG72" s="43"/>
-      <c r="AH72" s="43"/>
-      <c r="AI72" s="43"/>
-      <c r="AJ72" s="43"/>
+      <c r="AF72" s="45"/>
+      <c r="AG72" s="45"/>
+      <c r="AH72" s="45"/>
+      <c r="AI72" s="45"/>
+      <c r="AJ72" s="45"/>
     </row>
   </sheetData>
   <dataValidations>
@@ -4440,130 +4501,130 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
+      <c r="B2" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
+      <c r="A3" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="26"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="C5" s="27"/>
@@ -4572,187 +4633,187 @@
       <c r="C6" s="27"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="C7" s="24"/>
+      <c r="C7" s="25"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="C8" s="24"/>
+      <c r="C8" s="25"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="C9" s="24"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="C10" s="24"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="24"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="24"/>
+      <c r="C12" s="25"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="C13" s="24"/>
+      <c r="C13" s="25"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="C14" s="24"/>
+      <c r="C14" s="25"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="C15" s="24"/>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="C16" s="24"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="C17" s="24"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="24"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="24"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="24"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="24"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="24"/>
+      <c r="C22" s="25"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="24"/>
+      <c r="C23" s="25"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="24"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="24"/>
+      <c r="C25" s="25"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="24"/>
+      <c r="C26" s="25"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="24"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="24"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="24"/>
+      <c r="C29" s="25"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="24"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="24"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="24"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="24"/>
+      <c r="C33" s="25"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="24"/>
+      <c r="C34" s="25"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="24"/>
+      <c r="C35" s="25"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="24"/>
+      <c r="C36" s="25"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="24"/>
+      <c r="C37" s="25"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="24"/>
+      <c r="C38" s="25"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="24"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="24"/>
+      <c r="C40" s="25"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="24"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="24"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="24"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="24"/>
+      <c r="C44" s="25"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="24"/>
+      <c r="C45" s="25"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="24"/>
+      <c r="C46" s="25"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="24"/>
+      <c r="C47" s="25"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="24"/>
+      <c r="C48" s="25"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="24"/>
+      <c r="C49" s="25"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="24"/>
+      <c r="C50" s="25"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="24"/>
+      <c r="C51" s="25"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="24"/>
+      <c r="C52" s="25"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="24"/>
+      <c r="C53" s="25"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="24"/>
+      <c r="C54" s="25"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="24"/>
+      <c r="C55" s="25"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="24"/>
+      <c r="C56" s="25"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="24"/>
+      <c r="C57" s="25"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="24"/>
+      <c r="C58" s="25"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="24"/>
+      <c r="C59" s="25"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="24"/>
+      <c r="C60" s="25"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="24"/>
+      <c r="C61" s="25"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="24"/>
+      <c r="C62" s="25"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="24"/>
+      <c r="C63" s="25"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="24"/>
+      <c r="C64" s="25"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="24"/>
+      <c r="C65" s="25"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="24"/>
+      <c r="C66" s="25"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="24"/>
+      <c r="C67" s="25"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4779,87 +4840,87 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="21">
+      <c r="C2" s="9">
         <f>NOW()</f>
-        <v>43755.20938</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
+        <v>43773.55102</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4884,1121 +4945,1121 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>3</v>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="24" t="s">
+      <c r="A2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
+      <c r="B2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
+      <c r="A3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C14" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="24" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="24" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="24" t="s">
+      <c r="C23" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C25" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="24" t="s">
+      <c r="C27" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="C29" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="B31" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
+      <c r="C31" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
+      <c r="A32" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="25"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="25"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -6009,26 +6070,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -6039,13 +6100,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="26" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
@@ -6057,26 +6118,26 @@
       <c r="K48" s="26"/>
       <c r="L48" s="26"/>
       <c r="M48" s="26"/>
-      <c r="N48" s="19"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="19"/>
-      <c r="S48" s="19"/>
-      <c r="T48" s="19"/>
-      <c r="U48" s="19"/>
-      <c r="V48" s="19"/>
-      <c r="W48" s="19"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
+      <c r="T48" s="15"/>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="26" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
@@ -6088,240 +6149,240 @@
       <c r="K49" s="26"/>
       <c r="L49" s="26"/>
       <c r="M49" s="26"/>
-      <c r="N49" s="19"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="19"/>
-      <c r="S49" s="19"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
-      <c r="V49" s="19"/>
-      <c r="W49" s="19"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C51" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B52" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C52" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B53" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C53" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B54" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C54" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C55" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B56" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="26" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="26" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="26" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="26" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B63" s="19" t="s">
+      <c r="A63" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="C63" s="26" t="s">
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B65" s="15" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B64" s="19" t="s">
+      <c r="C65" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="C64" s="26" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B65" s="19" t="s">
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C66" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="C65" s="26" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B66" s="19" t="s">
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B67" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C67" s="26" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="19" t="s">
-        <v>251</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B69" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C69" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
+        <v>261</v>
+      </c>
+      <c r="B70" t="s">
         <v>264</v>
       </c>
-      <c r="B70" t="s">
-        <v>268</v>
-      </c>
       <c r="C70" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B72" t="s">
-        <v>271</v>
-      </c>
-      <c r="C72" s="45" t="s">
-        <v>216</v>
+        <v>267</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
+        <v>266</v>
+      </c>
+      <c r="B73" t="s">
+        <v>269</v>
+      </c>
+      <c r="C73" t="s">
         <v>270</v>
-      </c>
-      <c r="B73" t="s">
-        <v>274</v>
-      </c>
-      <c r="C73" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B74" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/pnc_danger_sign_follow_up_baby.xlsx
+++ b/config/default/forms/app/pnc_danger_sign_follow_up_baby.xlsx
@@ -249,7 +249,7 @@
     <t>t_danger_signs_referral_follow_up_date</t>
   </si>
   <si>
-    <t xml:space="preserve">date-time(floor(decimal-date-time(today())) + 3)</t>
+    <t xml:space="preserve">date-time(decimal-date-time(today()) + 3)</t>
   </si>
   <si>
     <t>t_danger_signs_referral_follow_up</t>
@@ -903,10 +903,10 @@
   <numFmts count="1">
     <numFmt numFmtId="160" formatCode="dd-MM-yyyy HH-mm-ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
-      <color indexed="64"/>
+      <color theme="1"/>
       <sz val="10.000000"/>
     </font>
     <font>
@@ -919,21 +919,14 @@
     <font>
       <name val="Arial"/>
       <b/>
-      <color indexed="64"/>
     </font>
     <font>
       <name val="Calibri"/>
       <b/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <color indexed="64"/>
-    </font>
-    <font>
       <name val="Calibri"/>
-      <color indexed="64"/>
       <sz val="11.000000"/>
     </font>
   </fonts>
@@ -1041,12 +1034,10 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1055,8 +1046,6 @@
     <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="2" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="2" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf fontId="3" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1096,14 +1085,11 @@
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="6" fillId="15" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="15" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1665,3189 +1651,3189 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+      <c r="AG8" s="3"/>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3">
         <v>0</v>
       </c>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+      <c r="AH11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+      <c r="AG14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
+      <c r="AG15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="AF24" s="6"/>
+      <c r="AF24" s="4"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8" t="s">
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="6"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8" t="s">
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="6"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="8"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="6"/>
+      <c r="AJ26" s="6"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8" t="s">
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="8"/>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="8"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8" t="s">
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="6"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AG28" s="8"/>
-      <c r="AH28" s="8"/>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="8"/>
+      <c r="AG28" s="6"/>
+      <c r="AH28" s="6"/>
+      <c r="AI28" s="6"/>
+      <c r="AJ28" s="6"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8" t="s">
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AG29" s="8"/>
-      <c r="AH29" s="8"/>
-      <c r="AI29" s="8"/>
-      <c r="AJ29" s="8"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8" t="s">
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AG30" s="8"/>
-      <c r="AH30" s="8"/>
-      <c r="AI30" s="8"/>
-      <c r="AJ30" s="8"/>
+      <c r="AG30" s="6"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="6"/>
+      <c r="AJ30" s="6"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10" t="s">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
-      <c r="AD32" s="10"/>
-      <c r="AE32" s="10"/>
-      <c r="AF32" s="10"/>
-      <c r="AG32" s="10"/>
-      <c r="AH32" s="10"/>
-      <c r="AI32" s="10"/>
-      <c r="AJ32" s="10"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10" t="s">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
-      <c r="AD33" s="10"/>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="10"/>
-      <c r="AG33" s="10"/>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="10"/>
-      <c r="AJ33" s="10"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10" t="s">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-      <c r="AD34" s="10"/>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="10"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10" t="s">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
-      <c r="AD35" s="10"/>
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="10" t="s">
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AG35" s="10"/>
-      <c r="AH35" s="10"/>
-      <c r="AI35" s="10"/>
-      <c r="AJ35" s="10"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10" t="s">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="10"/>
-      <c r="AD36" s="10"/>
-      <c r="AE36" s="10"/>
-      <c r="AF36" s="10"/>
-      <c r="AG36" s="10"/>
-      <c r="AH36" s="10"/>
-      <c r="AI36" s="10"/>
-      <c r="AJ36" s="10"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10" t="s">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
-      <c r="AD37" s="10"/>
-      <c r="AE37" s="10"/>
-      <c r="AF37" s="10"/>
-      <c r="AG37" s="10"/>
-      <c r="AH37" s="10"/>
-      <c r="AI37" s="10"/>
-      <c r="AJ37" s="10"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10" t="s">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
-      <c r="AD38" s="10"/>
-      <c r="AE38" s="10"/>
-      <c r="AF38" s="10"/>
-      <c r="AG38" s="10"/>
-      <c r="AH38" s="10"/>
-      <c r="AI38" s="10"/>
-      <c r="AJ38" s="10"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10" t="s">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="K39" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="10"/>
-      <c r="AF39" s="10"/>
-      <c r="AG39" s="10"/>
-      <c r="AH39" s="10"/>
-      <c r="AI39" s="10"/>
-      <c r="AJ39" s="10"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10" t="s">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="K40" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="10"/>
-      <c r="AF40" s="10"/>
-      <c r="AG40" s="10"/>
-      <c r="AH40" s="10"/>
-      <c r="AI40" s="10"/>
-      <c r="AJ40" s="10"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="8"/>
+      <c r="AA40" s="8"/>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="8"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10" t="s">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K41" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10"/>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="10"/>
-      <c r="AF41" s="10"/>
-      <c r="AG41" s="10"/>
-      <c r="AH41" s="10"/>
-      <c r="AI41" s="10"/>
-      <c r="AJ41" s="10"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10" t="s">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="K42" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
-      <c r="AF42" s="10"/>
-      <c r="AG42" s="10"/>
-      <c r="AH42" s="10"/>
-      <c r="AI42" s="10"/>
-      <c r="AJ42" s="10"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="8"/>
+      <c r="T42" s="8"/>
+      <c r="U42" s="8"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+      <c r="X42" s="8"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="8"/>
+      <c r="AA42" s="8"/>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="8"/>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="8"/>
+      <c r="AH42" s="8"/>
+      <c r="AI42" s="8"/>
+      <c r="AJ42" s="8"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10" t="s">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10"/>
-      <c r="AD43" s="10"/>
-      <c r="AE43" s="10"/>
-      <c r="AF43" s="10"/>
-      <c r="AG43" s="10"/>
-      <c r="AH43" s="10"/>
-      <c r="AI43" s="10"/>
-      <c r="AJ43" s="10"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10" t="s">
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-      <c r="AB44" s="10"/>
-      <c r="AC44" s="10"/>
-      <c r="AD44" s="10"/>
-      <c r="AE44" s="10"/>
-      <c r="AF44" s="10"/>
-      <c r="AG44" s="10"/>
-      <c r="AH44" s="10"/>
-      <c r="AI44" s="10"/>
-      <c r="AJ44" s="10"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+      <c r="AB44" s="8"/>
+      <c r="AC44" s="8"/>
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="8"/>
+      <c r="AF44" s="8"/>
+      <c r="AG44" s="8"/>
+      <c r="AH44" s="8"/>
+      <c r="AI44" s="8"/>
+      <c r="AJ44" s="8"/>
     </row>
     <row r="45" ht="42.75" customHeight="1">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10" t="s">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
-      <c r="AD45" s="10"/>
-      <c r="AE45" s="10"/>
-      <c r="AF45" s="10" t="s">
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AG45" s="10"/>
-      <c r="AH45" s="10"/>
-      <c r="AI45" s="10"/>
-      <c r="AJ45" s="10"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10" t="s">
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-      <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
-      <c r="AD46" s="10"/>
-      <c r="AE46" s="10"/>
-      <c r="AF46" s="10" t="s">
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AG46" s="10"/>
-      <c r="AH46" s="10"/>
-      <c r="AI46" s="10"/>
-      <c r="AJ46" s="10"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10" t="s">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="10"/>
-      <c r="AC47" s="10"/>
-      <c r="AD47" s="10"/>
-      <c r="AE47" s="10"/>
-      <c r="AF47" s="10" t="s">
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AG47" s="10"/>
-      <c r="AH47" s="10"/>
-      <c r="AI47" s="10"/>
-      <c r="AJ47" s="10"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10" t="s">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
-      <c r="AD48" s="10"/>
-      <c r="AE48" s="10"/>
-      <c r="AF48" s="10" t="s">
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AG48" s="10"/>
-      <c r="AH48" s="10"/>
-      <c r="AI48" s="10"/>
-      <c r="AJ48" s="10"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="10"/>
-      <c r="AB49" s="10"/>
-      <c r="AC49" s="10"/>
-      <c r="AD49" s="10"/>
-      <c r="AE49" s="10"/>
-      <c r="AF49" s="10"/>
-      <c r="AG49" s="10"/>
-      <c r="AH49" s="10"/>
-      <c r="AI49" s="10"/>
-      <c r="AJ49" s="10"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="AF50" s="6"/>
-      <c r="AG50" s="6"/>
-      <c r="AH50" s="6"/>
-      <c r="AI50" s="6"/>
-      <c r="AJ50" s="6"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4"/>
+      <c r="AI50" s="4"/>
+      <c r="AJ50" s="4"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="13" t="s">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+      <c r="L51" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="12"/>
-      <c r="AB51" s="12"/>
-      <c r="AC51" s="12"/>
-      <c r="AD51" s="12"/>
-      <c r="AE51" s="12"/>
-      <c r="AF51" s="13" t="s">
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="10"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" s="10"/>
+      <c r="AD51" s="10"/>
+      <c r="AE51" s="10"/>
+      <c r="AF51" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AG51" s="12"/>
-      <c r="AH51" s="12"/>
-      <c r="AI51" s="12"/>
-      <c r="AJ51" s="12"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" s="10"/>
+      <c r="AI51" s="10"/>
+      <c r="AJ51" s="10"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12" t="s">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="V52" s="12"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="12"/>
-      <c r="Z52" s="12"/>
-      <c r="AA52" s="12"/>
-      <c r="AB52" s="12"/>
-      <c r="AC52" s="12"/>
-      <c r="AD52" s="12"/>
-      <c r="AE52" s="12"/>
-      <c r="AF52" s="12"/>
-      <c r="AG52" s="12"/>
-      <c r="AH52" s="13" t="s">
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10"/>
+      <c r="AA52" s="10"/>
+      <c r="AB52" s="10"/>
+      <c r="AC52" s="10"/>
+      <c r="AD52" s="10"/>
+      <c r="AE52" s="10"/>
+      <c r="AF52" s="10"/>
+      <c r="AG52" s="10"/>
+      <c r="AH52" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="AI52" s="12"/>
-      <c r="AJ52" s="12"/>
+      <c r="AI52" s="10"/>
+      <c r="AJ52" s="10"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12" t="s">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="V53" s="12"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="12"/>
-      <c r="Z53" s="12"/>
-      <c r="AA53" s="12"/>
-      <c r="AB53" s="12"/>
-      <c r="AC53" s="12"/>
-      <c r="AD53" s="12"/>
-      <c r="AE53" s="12"/>
-      <c r="AF53" s="12"/>
-      <c r="AG53" s="12"/>
-      <c r="AH53" s="13" t="s">
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="AI53" s="12"/>
-      <c r="AJ53" s="12"/>
+      <c r="AI53" s="10"/>
+      <c r="AJ53" s="10"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12" t="s">
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="V54" s="12"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="12"/>
-      <c r="Z54" s="12"/>
-      <c r="AA54" s="12"/>
-      <c r="AB54" s="12"/>
-      <c r="AC54" s="12"/>
-      <c r="AD54" s="12"/>
-      <c r="AE54" s="12"/>
-      <c r="AF54" s="12"/>
-      <c r="AG54" s="12"/>
-      <c r="AH54" s="13" t="s">
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
+      <c r="AG54" s="10"/>
+      <c r="AH54" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AI54" s="12"/>
-      <c r="AJ54" s="12"/>
+      <c r="AI54" s="10"/>
+      <c r="AJ54" s="10"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="12" t="s">
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="V55" s="12"/>
-      <c r="W55" s="12"/>
-      <c r="X55" s="12"/>
-      <c r="Y55" s="12"/>
-      <c r="Z55" s="12"/>
-      <c r="AA55" s="12"/>
-      <c r="AB55" s="12"/>
-      <c r="AC55" s="12"/>
-      <c r="AD55" s="12"/>
-      <c r="AE55" s="12"/>
-      <c r="AF55" s="12"/>
-      <c r="AG55" s="12"/>
-      <c r="AH55" s="13" t="s">
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="10"/>
+      <c r="AH55" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="AI55" s="12"/>
-      <c r="AJ55" s="12"/>
+      <c r="AI55" s="10"/>
+      <c r="AJ55" s="10"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="12"/>
-      <c r="O56" s="12"/>
-      <c r="P56" s="12"/>
-      <c r="Q56" s="12"/>
-      <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
-      <c r="T56" s="12"/>
-      <c r="U56" s="12" t="s">
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="V56" s="12"/>
-      <c r="W56" s="12"/>
-      <c r="X56" s="12"/>
-      <c r="Y56" s="12"/>
-      <c r="Z56" s="12"/>
-      <c r="AA56" s="12"/>
-      <c r="AB56" s="12"/>
-      <c r="AC56" s="12"/>
-      <c r="AD56" s="12"/>
-      <c r="AE56" s="12"/>
-      <c r="AF56" s="12"/>
-      <c r="AG56" s="12"/>
-      <c r="AH56" s="13" t="s">
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="10"/>
+      <c r="AH56" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="AI56" s="12"/>
-      <c r="AJ56" s="12"/>
+      <c r="AI56" s="10"/>
+      <c r="AJ56" s="10"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="12"/>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="12"/>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12" t="s">
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="12"/>
-      <c r="AB57" s="12"/>
-      <c r="AC57" s="12"/>
-      <c r="AD57" s="12"/>
-      <c r="AE57" s="12"/>
-      <c r="AF57" s="12"/>
-      <c r="AG57" s="12"/>
-      <c r="AH57" s="13" t="s">
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
+      <c r="AG57" s="10"/>
+      <c r="AH57" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="AI57" s="12"/>
-      <c r="AJ57" s="12"/>
+      <c r="AI57" s="10"/>
+      <c r="AJ57" s="10"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12" t="s">
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="12"/>
-      <c r="Y58" s="12"/>
-      <c r="Z58" s="12"/>
-      <c r="AA58" s="12"/>
-      <c r="AB58" s="12"/>
-      <c r="AC58" s="12"/>
-      <c r="AD58" s="12"/>
-      <c r="AE58" s="12"/>
-      <c r="AF58" s="12"/>
-      <c r="AG58" s="12"/>
-      <c r="AH58" s="13" t="s">
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="10"/>
+      <c r="AH58" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="AI58" s="12"/>
-      <c r="AJ58" s="12"/>
+      <c r="AI58" s="10"/>
+      <c r="AJ58" s="10"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="12"/>
-      <c r="O59" s="12"/>
-      <c r="P59" s="12"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="12"/>
-      <c r="S59" s="12"/>
-      <c r="T59" s="12"/>
-      <c r="U59" s="12" t="s">
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="V59" s="12"/>
-      <c r="W59" s="12"/>
-      <c r="X59" s="12"/>
-      <c r="Y59" s="12"/>
-      <c r="Z59" s="12"/>
-      <c r="AA59" s="12"/>
-      <c r="AB59" s="12"/>
-      <c r="AC59" s="12"/>
-      <c r="AD59" s="12"/>
-      <c r="AE59" s="12"/>
-      <c r="AF59" s="12"/>
-      <c r="AG59" s="12"/>
-      <c r="AH59" s="13" t="s">
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="10"/>
+      <c r="AG59" s="10"/>
+      <c r="AH59" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="AI59" s="12"/>
-      <c r="AJ59" s="12"/>
+      <c r="AI59" s="10"/>
+      <c r="AJ59" s="10"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="12"/>
-      <c r="S60" s="12"/>
-      <c r="T60" s="12"/>
-      <c r="U60" s="12" t="s">
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="V60" s="12"/>
-      <c r="W60" s="12"/>
-      <c r="X60" s="12"/>
-      <c r="Y60" s="12"/>
-      <c r="Z60" s="12"/>
-      <c r="AA60" s="12"/>
-      <c r="AB60" s="12"/>
-      <c r="AC60" s="12"/>
-      <c r="AD60" s="12"/>
-      <c r="AE60" s="12"/>
-      <c r="AF60" s="12"/>
-      <c r="AG60" s="12"/>
-      <c r="AH60" s="13" t="s">
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10"/>
+      <c r="AG60" s="10"/>
+      <c r="AH60" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="AI60" s="12"/>
-      <c r="AJ60" s="12"/>
+      <c r="AI60" s="10"/>
+      <c r="AJ60" s="10"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="12"/>
-      <c r="N61" s="12"/>
-      <c r="O61" s="12"/>
-      <c r="P61" s="12"/>
-      <c r="Q61" s="12"/>
-      <c r="R61" s="12"/>
-      <c r="S61" s="12"/>
-      <c r="T61" s="12"/>
-      <c r="U61" s="12" t="s">
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="V61" s="12"/>
-      <c r="W61" s="12"/>
-      <c r="X61" s="12"/>
-      <c r="Y61" s="12"/>
-      <c r="Z61" s="12"/>
-      <c r="AA61" s="12"/>
-      <c r="AB61" s="12"/>
-      <c r="AC61" s="12"/>
-      <c r="AD61" s="12"/>
-      <c r="AE61" s="12"/>
-      <c r="AF61" s="12"/>
-      <c r="AG61" s="12"/>
-      <c r="AH61" s="13" t="s">
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+      <c r="AB61" s="10"/>
+      <c r="AC61" s="10"/>
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="10"/>
+      <c r="AF61" s="10"/>
+      <c r="AG61" s="10"/>
+      <c r="AH61" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AI61" s="12"/>
-      <c r="AJ61" s="12"/>
+      <c r="AI61" s="10"/>
+      <c r="AJ61" s="10"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="12"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="12"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="12"/>
-      <c r="S62" s="12"/>
-      <c r="T62" s="12"/>
-      <c r="U62" s="12" t="s">
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="V62" s="12"/>
-      <c r="W62" s="12"/>
-      <c r="X62" s="12"/>
-      <c r="Y62" s="12"/>
-      <c r="Z62" s="12"/>
-      <c r="AA62" s="12"/>
-      <c r="AB62" s="12"/>
-      <c r="AC62" s="12"/>
-      <c r="AD62" s="12"/>
-      <c r="AE62" s="12"/>
-      <c r="AF62" s="12"/>
-      <c r="AG62" s="12"/>
-      <c r="AH62" s="13" t="s">
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
+      <c r="AB62" s="10"/>
+      <c r="AC62" s="10"/>
+      <c r="AD62" s="10"/>
+      <c r="AE62" s="10"/>
+      <c r="AF62" s="10"/>
+      <c r="AG62" s="10"/>
+      <c r="AH62" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="AI62" s="12"/>
-      <c r="AJ62" s="12"/>
+      <c r="AI62" s="10"/>
+      <c r="AJ62" s="10"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="12"/>
-      <c r="P63" s="12"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="12"/>
-      <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
-      <c r="U63" s="12" t="s">
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="V63" s="12"/>
-      <c r="W63" s="12"/>
-      <c r="X63" s="12"/>
-      <c r="Y63" s="12"/>
-      <c r="Z63" s="12"/>
-      <c r="AA63" s="12"/>
-      <c r="AB63" s="12"/>
-      <c r="AC63" s="12"/>
-      <c r="AD63" s="12"/>
-      <c r="AE63" s="12"/>
-      <c r="AF63" s="12"/>
-      <c r="AG63" s="12"/>
-      <c r="AH63" s="13" t="s">
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+      <c r="AB63" s="10"/>
+      <c r="AC63" s="10"/>
+      <c r="AD63" s="10"/>
+      <c r="AE63" s="10"/>
+      <c r="AF63" s="10"/>
+      <c r="AG63" s="10"/>
+      <c r="AH63" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="AI63" s="12"/>
-      <c r="AJ63" s="12"/>
+      <c r="AI63" s="10"/>
+      <c r="AJ63" s="10"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
-      <c r="U64" s="16"/>
-      <c r="V64" s="16"/>
-      <c r="W64" s="16"/>
-      <c r="X64" s="16"/>
-      <c r="Y64" s="16"/>
-      <c r="Z64" s="16"/>
-      <c r="AA64" s="16"/>
-      <c r="AB64" s="16"/>
-      <c r="AC64" s="16"/>
-      <c r="AD64" s="16"/>
-      <c r="AE64" s="16"/>
-      <c r="AF64" s="16"/>
-      <c r="AG64" s="16"/>
-      <c r="AH64" s="16"/>
-      <c r="AI64" s="16"/>
-      <c r="AJ64" s="16"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="12"/>
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="12"/>
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12"/>
+      <c r="AJ64" s="12"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
-      <c r="R65" s="12"/>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12"/>
-      <c r="U65" s="16" t="s">
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="V65" s="12"/>
-      <c r="W65" s="12"/>
-      <c r="X65" s="12"/>
-      <c r="Y65" s="12"/>
-      <c r="Z65" s="12"/>
-      <c r="AA65" s="12"/>
-      <c r="AB65" s="12"/>
-      <c r="AC65" s="12"/>
-      <c r="AD65" s="12"/>
-      <c r="AE65" s="12"/>
-      <c r="AF65" s="12"/>
-      <c r="AG65" s="12"/>
-      <c r="AH65" s="16" t="s">
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="10"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="10"/>
+      <c r="AC65" s="10"/>
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="10"/>
+      <c r="AG65" s="10"/>
+      <c r="AH65" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="AI65" s="12"/>
-      <c r="AJ65" s="12"/>
+      <c r="AI65" s="10"/>
+      <c r="AJ65" s="10"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
-      <c r="R66" s="12"/>
-      <c r="S66" s="12"/>
-      <c r="T66" s="12"/>
-      <c r="U66" s="16" t="s">
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="V66" s="12"/>
-      <c r="W66" s="12"/>
-      <c r="X66" s="12"/>
-      <c r="Y66" s="12"/>
-      <c r="Z66" s="12"/>
-      <c r="AA66" s="12"/>
-      <c r="AB66" s="12"/>
-      <c r="AC66" s="12"/>
-      <c r="AD66" s="12"/>
-      <c r="AE66" s="12"/>
-      <c r="AF66" s="12"/>
-      <c r="AG66" s="12"/>
-      <c r="AH66" s="16" t="s">
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="10"/>
+      <c r="AA66" s="10"/>
+      <c r="AB66" s="10"/>
+      <c r="AC66" s="10"/>
+      <c r="AD66" s="10"/>
+      <c r="AE66" s="10"/>
+      <c r="AF66" s="10"/>
+      <c r="AG66" s="10"/>
+      <c r="AH66" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AI66" s="12"/>
-      <c r="AJ66" s="12"/>
+      <c r="AI66" s="10"/>
+      <c r="AJ66" s="10"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="12"/>
-      <c r="P67" s="12"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="12"/>
-      <c r="S67" s="12"/>
-      <c r="T67" s="12"/>
-      <c r="U67" s="16" t="s">
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="V67" s="12"/>
-      <c r="W67" s="12"/>
-      <c r="X67" s="12"/>
-      <c r="Y67" s="12"/>
-      <c r="Z67" s="12"/>
-      <c r="AA67" s="12"/>
-      <c r="AB67" s="12"/>
-      <c r="AC67" s="12"/>
-      <c r="AD67" s="12"/>
-      <c r="AE67" s="12"/>
-      <c r="AF67" s="12"/>
-      <c r="AG67" s="12"/>
-      <c r="AH67" s="16" t="s">
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="10"/>
+      <c r="AF67" s="10"/>
+      <c r="AG67" s="10"/>
+      <c r="AH67" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="AI67" s="12"/>
-      <c r="AJ67" s="12"/>
+      <c r="AI67" s="10"/>
+      <c r="AJ67" s="10"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="12"/>
-      <c r="O68" s="12"/>
-      <c r="P68" s="12"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="12"/>
-      <c r="S68" s="12"/>
-      <c r="T68" s="12"/>
-      <c r="U68" s="16" t="s">
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="V68" s="12"/>
-      <c r="W68" s="12"/>
-      <c r="X68" s="12"/>
-      <c r="Y68" s="12"/>
-      <c r="Z68" s="12"/>
-      <c r="AA68" s="12"/>
-      <c r="AB68" s="12"/>
-      <c r="AC68" s="12"/>
-      <c r="AD68" s="12"/>
-      <c r="AE68" s="12"/>
-      <c r="AF68" s="12"/>
-      <c r="AG68" s="12"/>
-      <c r="AH68" s="16" t="s">
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="10"/>
+      <c r="AA68" s="10"/>
+      <c r="AB68" s="10"/>
+      <c r="AC68" s="10"/>
+      <c r="AD68" s="10"/>
+      <c r="AE68" s="10"/>
+      <c r="AF68" s="10"/>
+      <c r="AG68" s="10"/>
+      <c r="AH68" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AI68" s="12"/>
-      <c r="AJ68" s="12"/>
+      <c r="AI68" s="10"/>
+      <c r="AJ68" s="10"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="12"/>
-      <c r="P69" s="12"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="12"/>
-      <c r="S69" s="12"/>
-      <c r="T69" s="12"/>
-      <c r="U69" s="16" t="s">
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="V69" s="12"/>
-      <c r="W69" s="12"/>
-      <c r="X69" s="12"/>
-      <c r="Y69" s="12"/>
-      <c r="Z69" s="12"/>
-      <c r="AA69" s="12"/>
-      <c r="AB69" s="12"/>
-      <c r="AC69" s="12"/>
-      <c r="AD69" s="12"/>
-      <c r="AE69" s="12"/>
-      <c r="AF69" s="12"/>
-      <c r="AG69" s="12"/>
-      <c r="AH69" s="16" t="s">
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="10"/>
+      <c r="AC69" s="10"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="10"/>
+      <c r="AF69" s="10"/>
+      <c r="AG69" s="10"/>
+      <c r="AH69" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="AI69" s="12"/>
-      <c r="AJ69" s="12"/>
+      <c r="AI69" s="10"/>
+      <c r="AJ69" s="10"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="12"/>
-      <c r="P70" s="12"/>
-      <c r="Q70" s="12"/>
-      <c r="R70" s="12"/>
-      <c r="S70" s="12"/>
-      <c r="T70" s="12"/>
-      <c r="U70" s="12" t="s">
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="V70" s="12"/>
-      <c r="W70" s="12"/>
-      <c r="X70" s="12"/>
-      <c r="Y70" s="12"/>
-      <c r="Z70" s="12"/>
-      <c r="AA70" s="12"/>
-      <c r="AB70" s="12"/>
-      <c r="AC70" s="12"/>
-      <c r="AD70" s="12"/>
-      <c r="AE70" s="12"/>
-      <c r="AF70" s="12"/>
-      <c r="AG70" s="12"/>
-      <c r="AH70" s="16" t="s">
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="10"/>
+      <c r="AB70" s="10"/>
+      <c r="AC70" s="10"/>
+      <c r="AD70" s="10"/>
+      <c r="AE70" s="10"/>
+      <c r="AF70" s="10"/>
+      <c r="AG70" s="10"/>
+      <c r="AH70" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="AI70" s="12"/>
-      <c r="AJ70" s="12"/>
+      <c r="AI70" s="10"/>
+      <c r="AJ70" s="10"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B71" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="16"/>
-      <c r="Y71" s="16"/>
-      <c r="Z71" s="16"/>
-      <c r="AA71" s="16"/>
-      <c r="AB71" s="16"/>
-      <c r="AC71" s="16"/>
-      <c r="AD71" s="16"/>
-      <c r="AE71" s="16"/>
-      <c r="AF71" s="16"/>
-      <c r="AG71" s="16"/>
-      <c r="AH71" s="16"/>
-      <c r="AI71" s="16"/>
-      <c r="AJ71" s="16"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="12"/>
+      <c r="AC71" s="12"/>
+      <c r="AD71" s="12"/>
+      <c r="AE71" s="12"/>
+      <c r="AF71" s="12"/>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="12"/>
+      <c r="AJ71" s="12"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="16"/>
-      <c r="X72" s="16"/>
-      <c r="Y72" s="16"/>
-      <c r="Z72" s="16"/>
-      <c r="AA72" s="16"/>
-      <c r="AB72" s="16"/>
-      <c r="AC72" s="16"/>
-      <c r="AD72" s="16"/>
-      <c r="AE72" s="16"/>
-      <c r="AF72" s="16"/>
-      <c r="AG72" s="16"/>
-      <c r="AH72" s="16"/>
-      <c r="AI72" s="16"/>
-      <c r="AJ72" s="16"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="12"/>
+      <c r="AC72" s="12"/>
+      <c r="AD72" s="12"/>
+      <c r="AE72" s="12"/>
+      <c r="AF72" s="12"/>
+      <c r="AG72" s="12"/>
+      <c r="AH72" s="12"/>
+      <c r="AI72" s="12"/>
+      <c r="AJ72" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00E700BB-0075-46DB-BA63-00FA0058004B}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
+        <x14:dataValidation xr:uid="{0065004E-0081-48E1-A2BE-0096004A0022}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
           <x14:formula1>
             <xm:f>"yes,no"</xm:f>
           </x14:formula1>
@@ -4878,324 +4864,324 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="C5" s="27"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="C6" s="27"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="C7" s="27"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="C8" s="27"/>
+      <c r="C8" s="23"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="C9" s="27"/>
+      <c r="C9" s="23"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="C10" s="27"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="27"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="27"/>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="C13" s="27"/>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="C14" s="27"/>
+      <c r="C14" s="23"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="C15" s="27"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="C16" s="27"/>
+      <c r="C16" s="23"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="C17" s="27"/>
+      <c r="C17" s="23"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="27"/>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="27"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="27"/>
+      <c r="C20" s="23"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="27"/>
+      <c r="C21" s="23"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="27"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="27"/>
+      <c r="C23" s="23"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="27"/>
+      <c r="C24" s="23"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="27"/>
+      <c r="C25" s="23"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="27"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="27"/>
+      <c r="C27" s="23"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="27"/>
+      <c r="C28" s="23"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="27"/>
+      <c r="C29" s="23"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="27"/>
+      <c r="C30" s="23"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="27"/>
+      <c r="C31" s="23"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="27"/>
+      <c r="C32" s="23"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="27"/>
+      <c r="C33" s="23"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="27"/>
+      <c r="C34" s="23"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="27"/>
+      <c r="C35" s="23"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="27"/>
+      <c r="C36" s="23"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="27"/>
+      <c r="C37" s="23"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="27"/>
+      <c r="C38" s="23"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="27"/>
+      <c r="C39" s="23"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="27"/>
+      <c r="C40" s="23"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="27"/>
+      <c r="C41" s="23"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="27"/>
+      <c r="C42" s="23"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="27"/>
+      <c r="C43" s="23"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="27"/>
+      <c r="C44" s="23"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="27"/>
+      <c r="C45" s="23"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="27"/>
+      <c r="C46" s="23"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="27"/>
+      <c r="C47" s="23"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="27"/>
+      <c r="C48" s="23"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="27"/>
+      <c r="C49" s="23"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="27"/>
+      <c r="C50" s="23"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="27"/>
+      <c r="C51" s="23"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="27"/>
+      <c r="C52" s="23"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="27"/>
+      <c r="C53" s="23"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="27"/>
+      <c r="C54" s="23"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="27"/>
+      <c r="C55" s="23"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="27"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="27"/>
+      <c r="C57" s="23"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="27"/>
+      <c r="C58" s="23"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="27"/>
+      <c r="C59" s="23"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="27"/>
+      <c r="C60" s="23"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="27"/>
+      <c r="C61" s="23"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="27"/>
+      <c r="C62" s="23"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="27"/>
+      <c r="C63" s="23"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="27"/>
+      <c r="C64" s="23"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="27"/>
+      <c r="C65" s="23"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="27"/>
+      <c r="C66" s="23"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="27"/>
+      <c r="C67" s="23"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -5221,92 +5207,92 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="30">
+      <c r="C2" s="26">
         <f ca="1">NOW()</f>
-        <v>44792.636319444442</v>
-      </c>
-      <c r="D2" s="31" t="s">
+        <v>44830.384317129632</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -5330,1003 +5316,1003 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
-      <c r="W14" s="27"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="27"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="23" t="s">
         <v>206</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="23" t="s">
         <v>207</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27"/>
-      <c r="U21" s="27"/>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="27"/>
-      <c r="T23" s="27"/>
-      <c r="U23" s="27"/>
-      <c r="V23" s="27"/>
-      <c r="W23" s="27"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="27"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="23" t="s">
         <v>218</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="27"/>
-      <c r="W25" s="27"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="27" t="s">
+      <c r="C26" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="27"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="27"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="27"/>
-      <c r="W27" s="27"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="27"/>
-      <c r="Q28" s="27"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="27"/>
-      <c r="T28" s="27"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="27"/>
-      <c r="W28" s="27"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
-      <c r="V32" s="27"/>
-      <c r="W32" s="27"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27"/>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
-      <c r="V33" s="27"/>
-      <c r="W33" s="27"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
@@ -6484,66 +6470,66 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="22" t="s">
         <v>246</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="25"/>
-      <c r="U48" s="25"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="25"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="25"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="25"/>
-      <c r="S49" s="25"/>
-      <c r="T49" s="25"/>
-      <c r="U49" s="25"/>
-      <c r="V49" s="25"/>
-      <c r="W49" s="25"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
@@ -6614,102 +6600,102 @@
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="22" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="22" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="22" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="22" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="22" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="22" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="25" t="s">
+      <c r="A65" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="22" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="22" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="22" t="s">
         <v>277</v>
       </c>
     </row>
@@ -6744,7 +6730,7 @@
       <c r="B72" t="s">
         <v>284</v>
       </c>
-      <c r="C72" s="33" t="s">
+      <c r="C72" s="28" t="s">
         <v>242</v>
       </c>
     </row>
@@ -7699,7 +7685,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/config/default/forms/app/pnc_danger_sign_follow_up_baby.xlsx
+++ b/config/default/forms/app/pnc_danger_sign_follow_up_baby.xlsx
@@ -1,22 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\apoorva\cht-core\config\default\forms\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E8A1CA-E333-4ADA-85AA-D13CDFF0E22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
     <sheet name="choices-backup" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="287">
   <si>
     <t>type</t>
   </si>
@@ -120,7 +138,7 @@
     <t>cht::notes</t>
   </si>
   <si>
-    <t xml:space="preserve">begin group</t>
+    <t>begin group</t>
   </si>
   <si>
     <t>inputs</t>
@@ -129,7 +147,7 @@
     <t>NO_LABEL</t>
   </si>
   <si>
-    <t xml:space="preserve">./source = 'user'</t>
+    <t>./source = 'user'</t>
   </si>
   <si>
     <t>field-list</t>
@@ -150,28 +168,22 @@
     <t>source_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Source ID</t>
+    <t>Source ID</t>
   </si>
   <si>
     <t>delivery_uuid</t>
   </si>
   <si>
-    <t xml:space="preserve">Delivery Report ID</t>
+    <t>Delivery Report ID</t>
   </si>
   <si>
     <t>contact</t>
   </si>
   <si>
-    <t>db:person</t>
-  </si>
-  <si>
     <t>_id</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the patient's name?</t>
-  </si>
-  <si>
-    <t>db-object</t>
+    <t>What is the patient's name?</t>
   </si>
   <si>
     <t>Name</t>
@@ -180,19 +192,19 @@
     <t>short_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Short Name</t>
+    <t>Short Name</t>
   </si>
   <si>
     <t>patient_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient ID</t>
+    <t>Patient ID</t>
   </si>
   <si>
     <t>date_of_birth</t>
   </si>
   <si>
-    <t xml:space="preserve">Date of Birth</t>
+    <t>Date of Birth</t>
   </si>
   <si>
     <t>sex</t>
@@ -204,22 +216,22 @@
     <t>parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Parent ID</t>
+    <t>Parent ID</t>
   </si>
   <si>
     <t>chw_name</t>
   </si>
   <si>
-    <t xml:space="preserve">CHW name</t>
+    <t>CHW name</t>
   </si>
   <si>
     <t>phone</t>
   </si>
   <si>
-    <t xml:space="preserve">CHW phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end group</t>
+    <t>CHW phone</t>
+  </si>
+  <si>
+    <t>end group</t>
   </si>
   <si>
     <t>calculate</t>
@@ -228,7 +240,7 @@
     <t>patient_age_in_years</t>
   </si>
   <si>
-    <t xml:space="preserve">floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
+    <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
   </si>
   <si>
     <t>patient_uuid</t>
@@ -249,7 +261,7 @@
     <t>t_danger_signs_referral_follow_up_date</t>
   </si>
   <si>
-    <t xml:space="preserve">date-time(decimal-date-time(today()) + 3)</t>
+    <t>date-time(decimal-date-time(today()) + 3)</t>
   </si>
   <si>
     <t>t_danger_signs_referral_follow_up</t>
@@ -261,16 +273,16 @@
     <t>danger_signs</t>
   </si>
   <si>
-    <t xml:space="preserve">Danger Sign Follow-up - Baby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one yes_no</t>
+    <t>Danger Sign Follow-up - Baby</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
   </si>
   <si>
     <t>visit_confirm</t>
   </si>
   <si>
-    <t xml:space="preserve">Was the baby taken to the health facility as recommended?</t>
+    <t>Was the baby taken to the health facility as recommended?</t>
   </si>
   <si>
     <t>yes</t>
@@ -279,7 +291,7 @@
     <t>danger_sign_present</t>
   </si>
   <si>
-    <t xml:space="preserve">Is the baby still experiencing any danger signs?</t>
+    <t>Is the baby still experiencing any danger signs?</t>
   </si>
   <si>
     <t>note</t>
@@ -288,16 +300,16 @@
     <t>danger_signs_question_note</t>
   </si>
   <si>
-    <t xml:space="preserve">Please confirm if the baby has any of the following danger signs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../danger_sign_present = 'yes' or ../danger_sign_present = 'no'</t>
+    <t>Please confirm if the baby has any of the following danger signs.</t>
+  </si>
+  <si>
+    <t>../danger_sign_present = 'yes' or ../danger_sign_present = 'no'</t>
   </si>
   <si>
     <t>infected_umbilical_cord</t>
   </si>
   <si>
-    <t xml:space="preserve">Infected umbilical cord</t>
+    <t>Infected umbilical cord</t>
   </si>
   <si>
     <t>convulsion</t>
@@ -309,31 +321,31 @@
     <t>difficulty_feeding</t>
   </si>
   <si>
-    <t xml:space="preserve">Difficulty feeding or drinking</t>
+    <t>Difficulty feeding or drinking</t>
   </si>
   <si>
     <t>vomit</t>
   </si>
   <si>
-    <t xml:space="preserve">Vomits everything</t>
+    <t>Vomits everything</t>
   </si>
   <si>
     <t>drowsy</t>
   </si>
   <si>
-    <t xml:space="preserve">Drowsy or unconscious</t>
+    <t>Drowsy or unconscious</t>
   </si>
   <si>
     <t>stiff</t>
   </si>
   <si>
-    <t xml:space="preserve">Body stiffness</t>
+    <t>Body stiffness</t>
   </si>
   <si>
     <t>yellow_skin</t>
   </si>
   <si>
-    <t xml:space="preserve">Yellow skin color</t>
+    <t>Yellow skin color</t>
   </si>
   <si>
     <t>fever</t>
@@ -345,13 +357,13 @@
     <t>blue_skin</t>
   </si>
   <si>
-    <t xml:space="preserve">Blue skin color (hypothermia)</t>
+    <t>Blue skin color (hypothermia)</t>
   </si>
   <si>
     <t>r_danger_sign_present</t>
   </si>
   <si>
-    <t xml:space="preserve">if(selected(../infected_umbilical_cord, 'yes') or
+    <t>if(selected(../infected_umbilical_cord, 'yes') or
 selected(../convulsion, 'yes') or
 selected(../difficulty_feeding, 'yes') or
 selected(../vomit, 'yes') or
@@ -374,10 +386,10 @@
     <t>congratulate_no_ds_note</t>
   </si>
   <si>
-    <t xml:space="preserve">Great news! Please continue to closely monitor the baby.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../danger_sign_present = 'no' and ../r_danger_sign_present = 'no'</t>
+    <t>Great news! Please continue to closely monitor the baby.</t>
+  </si>
+  <si>
+    <t>../danger_sign_present = 'no' and ../r_danger_sign_present = 'no'</t>
   </si>
   <si>
     <t>refer_patient_note_1</t>
@@ -386,7 +398,7 @@
     <t xml:space="preserve">The baby should be taken to the health facility immediately if experiencing any of these danger signs. </t>
   </si>
   <si>
-    <t xml:space="preserve">../danger_sign_present = 'yes' or ../r_danger_sign_present = 'yes'</t>
+    <t>../danger_sign_present = 'yes' or ../r_danger_sign_present = 'yes'</t>
   </si>
   <si>
     <t>refer_patient_note_2</t>
@@ -404,7 +416,7 @@
     <t>${visit_confirm}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the baby was taken to the health facility as recommended.</t>
+    <t>Whether or not the baby was taken to the health facility as recommended.</t>
   </si>
   <si>
     <t>__still_experiencing_danger_sign</t>
@@ -413,7 +425,7 @@
     <t>${danger_sign_present}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the baby is still experiencing any danger signs.</t>
+    <t>Whether or not the baby is still experiencing any danger signs.</t>
   </si>
   <si>
     <t>__infected_umbilical_cord</t>
@@ -422,7 +434,7 @@
     <t>${infected_umbilical_cord}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the umbilical cord was infected.</t>
+    <t>Whether or not the umbilical cord was infected.</t>
   </si>
   <si>
     <t>__convulsions</t>
@@ -431,7 +443,7 @@
     <t>${convulsion}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the baby is suffering from convulsions.</t>
+    <t>Whether or not the baby is suffering from convulsions.</t>
   </si>
   <si>
     <t>__difficulty_feeding_or_drinking</t>
@@ -440,7 +452,7 @@
     <t>${difficulty_feeding}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the baby is having difficulty feeding or drinking.</t>
+    <t>Whether or not the baby is having difficulty feeding or drinking.</t>
   </si>
   <si>
     <t>__vomits_everything</t>
@@ -449,7 +461,7 @@
     <t>${vomit}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the baby vomits everything.</t>
+    <t>Whether or not the baby vomits everything.</t>
   </si>
   <si>
     <t>__drowsy_or_unconscious</t>
@@ -458,7 +470,7 @@
     <t>${drowsy}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the baby is drowsy or unconscious.</t>
+    <t>Whether or not the baby is drowsy or unconscious.</t>
   </si>
   <si>
     <t>__body_stiffness</t>
@@ -467,7 +479,7 @@
     <t>${stiff}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the baby's body is stiff.</t>
+    <t>Whether or not the baby's body is stiff.</t>
   </si>
   <si>
     <t>__yellow_skin_color</t>
@@ -476,7 +488,7 @@
     <t>${yellow_skin}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the baby has yellow skin color.</t>
+    <t>Whether or not the baby has yellow skin color.</t>
   </si>
   <si>
     <t>__fever</t>
@@ -485,7 +497,7 @@
     <t>${fever}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the baby has a fever.</t>
+    <t>Whether or not the baby has a fever.</t>
   </si>
   <si>
     <t>__blue_skin_color</t>
@@ -494,7 +506,7 @@
     <t>${blue_skin}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the baby has blue skin color (hypothermia).</t>
+    <t>Whether or not the baby has blue skin color (hypothermia).</t>
   </si>
   <si>
     <t>__has_danger_sign</t>
@@ -503,7 +515,7 @@
     <t>${r_danger_sign_present}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not any danger signs are present.</t>
+    <t>Whether or not any danger signs are present.</t>
   </si>
   <si>
     <t>meta</t>
@@ -515,7 +527,7 @@
     <t>../../../inputs/contact/_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient UUID</t>
+    <t>Patient UUID</t>
   </si>
   <si>
     <t>__patient_id</t>
@@ -530,7 +542,7 @@
     <t>../../../inputs/contact/parent/_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Household UUID</t>
+    <t>Household UUID</t>
   </si>
   <si>
     <t>__source</t>
@@ -554,7 +566,7 @@
     <t>../../../inputs/delivery_uuid</t>
   </si>
   <si>
-    <t xml:space="preserve">Delivery UUID</t>
+    <t>Delivery UUID</t>
   </si>
   <si>
     <t>list_name</t>
@@ -593,7 +605,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t xml:space="preserve">PNC danger sign follow-up - baby</t>
+    <t>PNC danger sign follow-up - baby</t>
   </si>
   <si>
     <t>pnc_danger_sign_follow_up_baby</t>
@@ -611,31 +623,31 @@
     <t>upto_2_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Upto 2 Months Ago</t>
+    <t>Upto 2 Months Ago</t>
   </si>
   <si>
     <t>upto_3_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Upto 3 Months Ago</t>
+    <t>Upto 3 Months Ago</t>
   </si>
   <si>
     <t>upto_4_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Upto 4 Months Ago</t>
+    <t>Upto 4 Months Ago</t>
   </si>
   <si>
     <t>between_5_and_6_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Between 5 And 6 Months Ago</t>
+    <t>Between 5 And 6 Months Ago</t>
   </si>
   <si>
     <t>between_7_and_8_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Between 7 And 8 Months Ago</t>
+    <t>Between 7 And 8 Months Ago</t>
   </si>
   <si>
     <t>trimester1_choices</t>
@@ -644,37 +656,37 @@
     <t>eat_extra_meal</t>
   </si>
   <si>
-    <t xml:space="preserve">Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
+    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
   </si>
   <si>
     <t>take_iron_and_folic_acid</t>
   </si>
   <si>
-    <t xml:space="preserve">Take iron and folic acid tablets</t>
+    <t>Take iron and folic acid tablets</t>
   </si>
   <si>
     <t>avoid_heavy_work</t>
   </si>
   <si>
-    <t xml:space="preserve">Avoid heavy work, rest more</t>
+    <t>Avoid heavy work, rest more</t>
   </si>
   <si>
     <t>sleep_under_bednet</t>
   </si>
   <si>
-    <t xml:space="preserve">Sleep under an insecticide treated bednet</t>
+    <t>Sleep under an insecticide treated bednet</t>
   </si>
   <si>
     <t>go_for_anc_visit</t>
   </si>
   <si>
-    <t xml:space="preserve">Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
+    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
   </si>
   <si>
     <t>develop_birth_plan</t>
   </si>
   <si>
-    <t xml:space="preserve">Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
+    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
   </si>
   <si>
     <t>trimester2_choices</t>
@@ -683,7 +695,7 @@
     <t>couselling_on_exclusive_breastfeeding</t>
   </si>
   <si>
-    <t xml:space="preserve">Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
+    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
   </si>
   <si>
     <t>conditions</t>
@@ -692,7 +704,7 @@
     <t>heart_condition</t>
   </si>
   <si>
-    <t xml:space="preserve">Heart condition</t>
+    <t>Heart condition</t>
   </si>
   <si>
     <t>asthma</t>
@@ -704,13 +716,13 @@
     <t>high_blood_pressure</t>
   </si>
   <si>
-    <t xml:space="preserve">High blood pressure</t>
+    <t>High blood pressure</t>
   </si>
   <si>
     <t>known_diabetes</t>
   </si>
   <si>
-    <t xml:space="preserve">Known diabetes</t>
+    <t>Known diabetes</t>
   </si>
   <si>
     <t>other</t>
@@ -731,19 +743,19 @@
     <t>fp_methods</t>
   </si>
   <si>
-    <t xml:space="preserve">Combined oral contraceptives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progesterone only pills</t>
+    <t>Combined oral contraceptives</t>
+  </si>
+  <si>
+    <t>Progesterone only pills</t>
   </si>
   <si>
     <t>Injectibles</t>
   </si>
   <si>
-    <t xml:space="preserve">Implants (1 rod)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implants (2 rods)</t>
+    <t>Implants (1 rod)</t>
+  </si>
+  <si>
+    <t>Implants (2 rods)</t>
   </si>
   <si>
     <t>IUD</t>
@@ -752,19 +764,19 @@
     <t>Condoms</t>
   </si>
   <si>
-    <t xml:space="preserve">Tubal ligation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cycle beads</t>
+    <t>Tubal ligation</t>
+  </si>
+  <si>
+    <t>Cycle beads</t>
   </si>
   <si>
     <t>reasons_not_on_fp</t>
   </si>
   <si>
-    <t xml:space="preserve">Wants to get pregnant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did not want FP</t>
+    <t>Wants to get pregnant</t>
+  </si>
+  <si>
+    <t>Did not want FP</t>
   </si>
   <si>
     <t>follow_up_methods</t>
@@ -773,13 +785,13 @@
     <t>in_person</t>
   </si>
   <si>
-    <t xml:space="preserve">In person</t>
+    <t>In person</t>
   </si>
   <si>
     <t>by_phone</t>
   </si>
   <si>
-    <t xml:space="preserve">By phone</t>
+    <t>By phone</t>
   </si>
   <si>
     <t>reasons_for_missing_visit</t>
@@ -788,25 +800,25 @@
     <t>not_reminded</t>
   </si>
   <si>
-    <t xml:space="preserve">She was not reminded</t>
+    <t>She was not reminded</t>
   </si>
   <si>
     <t>travelled</t>
   </si>
   <si>
-    <t xml:space="preserve">She had travelled</t>
+    <t>She had travelled</t>
   </si>
   <si>
     <t>no_lab_results</t>
   </si>
   <si>
-    <t xml:space="preserve">No Lab results yet</t>
+    <t>No Lab results yet</t>
   </si>
   <si>
     <t>too_early</t>
   </si>
   <si>
-    <t xml:space="preserve">It is too early to start clinic</t>
+    <t>It is too early to start clinic</t>
   </si>
   <si>
     <t>relocated</t>
@@ -821,19 +833,19 @@
     <t>referred</t>
   </si>
   <si>
-    <t xml:space="preserve">Referred the mother</t>
+    <t>Referred the mother</t>
   </si>
   <si>
     <t>key_message</t>
   </si>
   <si>
-    <t xml:space="preserve">Provided key health message</t>
+    <t>Provided key health message</t>
   </si>
   <si>
     <t>accompany</t>
   </si>
   <si>
-    <t xml:space="preserve">Accompany the mother to facility</t>
+    <t>Accompany the mother to facility</t>
   </si>
   <si>
     <t>recent_foods</t>
@@ -842,31 +854,31 @@
     <t>carbohydrates</t>
   </si>
   <si>
-    <t xml:space="preserve">Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
+    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
   </si>
   <si>
     <t>protein</t>
   </si>
   <si>
-    <t xml:space="preserve">Body building foods: Milk, eggs, meat</t>
+    <t>Body building foods: Milk, eggs, meat</t>
   </si>
   <si>
     <t>vegetables</t>
   </si>
   <si>
-    <t xml:space="preserve">Vegetables: Sukuma wiki, cabbages, traditional greens</t>
+    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
   </si>
   <si>
     <t>fruits</t>
   </si>
   <si>
-    <t xml:space="preserve">Fruits: Mangoes, ripe bananas, oranges</t>
+    <t>Fruits: Mangoes, ripe bananas, oranges</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
-    <t xml:space="preserve">None of the above</t>
+    <t>None of the above</t>
   </si>
   <si>
     <t>pos_neg</t>
@@ -893,41 +905,54 @@
     <t>feels_sick_when_using_it</t>
   </si>
   <si>
-    <t xml:space="preserve">Feels sick when using it</t>
+    <t>Feels sick when using it</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>select-contact type-person</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="160" formatCode="dd-MM-yyyy HH-mm-ss"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
   <fonts count="7">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <color theme="1"/>
-      <sz val="10.000000"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font/>
-    <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <b/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b/>
-      <sz val="11.000000"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1018,7 +1043,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="65"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1032,64 +1056,64 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="13" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="15" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1102,295 +1126,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
@@ -1442,7 +1186,7 @@
         <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1513,45 +1257,49 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AJ72"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19"/>
-    <col customWidth="1" min="2" max="2" width="33.289999999999999"/>
-    <col customWidth="1" min="3" max="3" width="43.289999999999999"/>
-    <col customWidth="1" hidden="1" min="4" max="5" width="8.5700000000000003"/>
-    <col customWidth="1" hidden="1" min="6" max="6" width="8.7100000000000009"/>
-    <col customWidth="1" hidden="1" min="7" max="7" width="8.8599999999999994"/>
-    <col customWidth="1" hidden="1" min="8" max="9" width="8.1400000000000006"/>
-    <col customWidth="1" min="10" max="10" width="14.43"/>
-    <col customWidth="1" min="11" max="11" width="53.859999999999999"/>
-    <col customWidth="1" min="12" max="12" width="17.43"/>
-    <col customWidth="1" min="13" max="13" width="37.710000000000001"/>
-    <col customWidth="1" min="14" max="14" width="32.710000000000001"/>
-    <col customWidth="1" hidden="1" min="15" max="20" width="25.859999999999999"/>
-    <col customWidth="1" min="21" max="21" width="73.859999999999999"/>
-    <col customWidth="1" min="22" max="22" width="14.43"/>
-    <col customWidth="1" min="23" max="23" width="30"/>
-    <col customWidth="1" hidden="1" min="24" max="29" width="14.43"/>
-    <col customWidth="1" min="30" max="30" width="14.43"/>
-    <col customWidth="1" min="31" max="36" width="29.859999999999999"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="1"/>
+    <col min="4" max="5" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="8.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="53.88671875" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" customWidth="1"/>
+    <col min="13" max="13" width="37.6640625" customWidth="1"/>
+    <col min="14" max="14" width="32.6640625" customWidth="1"/>
+    <col min="15" max="20" width="25.88671875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="73.88671875" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" customWidth="1"/>
+    <col min="23" max="23" width="30" customWidth="1"/>
+    <col min="24" max="29" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="14.44140625" customWidth="1"/>
+    <col min="31" max="36" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:36" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1405,7 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:36" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1705,7 +1453,7 @@
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:36" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -1751,7 +1499,7 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:36" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -1795,7 +1543,7 @@
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:36" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -1839,7 +1587,7 @@
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:36" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -1883,15 +1631,15 @@
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:36" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1902,7 +1650,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3" t="s">
-        <v>51</v>
+        <v>286</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1929,7 +1677,7 @@
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:36" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -1937,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1973,15 +1721,15 @@
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:36" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2017,15 +1765,15 @@
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:36" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2061,15 +1809,15 @@
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:36" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2107,15 +1855,15 @@
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:36" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2151,12 +1899,12 @@
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:36" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>36</v>
@@ -2195,15 +1943,15 @@
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:36" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2239,12 +1987,12 @@
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:36" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>36</v>
@@ -2283,7 +2031,7 @@
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:36" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -2327,15 +2075,15 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:36" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2371,15 +2119,15 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:36" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -2415,9 +2163,9 @@
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:36" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>47</v>
@@ -2457,12 +2205,12 @@
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:36" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2499,12 +2247,12 @@
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:36" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -2541,9 +2289,9 @@
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:36" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>47</v>
@@ -2583,9 +2331,9 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:36" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>35</v>
@@ -2625,15 +2373,15 @@
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:36" ht="15.75" customHeight="1">
       <c r="AF24" s="4"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:36" ht="15.75" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>36</v>
@@ -2656,7 +2404,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
@@ -2676,12 +2424,12 @@
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:36" ht="15.75" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>36</v>
@@ -2704,7 +2452,7 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
@@ -2724,12 +2472,12 @@
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:36" ht="15.75" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>36</v>
@@ -2752,7 +2500,7 @@
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
@@ -2772,12 +2520,12 @@
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:36" ht="15.75" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>36</v>
@@ -2800,7 +2548,7 @@
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
@@ -2820,12 +2568,12 @@
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:36" ht="15.75" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>36</v>
@@ -2848,7 +2596,7 @@
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
@@ -2868,12 +2616,12 @@
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:36" ht="15.75" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>36</v>
@@ -2896,7 +2644,7 @@
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
@@ -2916,22 +2664,22 @@
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:36" ht="15.75" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:36" ht="15.75" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2969,15 +2717,15 @@
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:36" ht="15.75" customHeight="1">
       <c r="A33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2986,7 +2734,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
@@ -3015,15 +2763,15 @@
       <c r="AI33" s="8"/>
       <c r="AJ33" s="8"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:36" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -3032,7 +2780,7 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
@@ -3061,15 +2809,15 @@
       <c r="AI34" s="8"/>
       <c r="AJ34" s="8"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:36" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -3079,7 +2827,7 @@
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
@@ -3109,15 +2857,15 @@
       <c r="AI35" s="8"/>
       <c r="AJ35" s="8"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:36" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -3126,10 +2874,10 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
@@ -3157,15 +2905,15 @@
       <c r="AI36" s="8"/>
       <c r="AJ36" s="8"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:36" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -3174,10 +2922,10 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -3205,15 +2953,15 @@
       <c r="AI37" s="8"/>
       <c r="AJ37" s="8"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:36" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -3222,10 +2970,10 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -3253,15 +3001,15 @@
       <c r="AI38" s="8"/>
       <c r="AJ38" s="8"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:36" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -3270,10 +3018,10 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -3301,15 +3049,15 @@
       <c r="AI39" s="8"/>
       <c r="AJ39" s="8"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:36" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -3318,10 +3066,10 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
       <c r="J40" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -3349,15 +3097,15 @@
       <c r="AI40" s="8"/>
       <c r="AJ40" s="8"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:36" ht="15.75" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -3366,10 +3114,10 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -3397,15 +3145,15 @@
       <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:36" ht="15.75" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -3414,10 +3162,10 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
@@ -3445,15 +3193,15 @@
       <c r="AI42" s="8"/>
       <c r="AJ42" s="8"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:36" ht="15.75" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -3462,10 +3210,10 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
@@ -3493,15 +3241,15 @@
       <c r="AI43" s="8"/>
       <c r="AJ43" s="8"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:36" ht="15.75" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -3510,10 +3258,10 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
@@ -3541,12 +3289,12 @@
       <c r="AI44" s="8"/>
       <c r="AJ44" s="8"/>
     </row>
-    <row r="45" ht="42.75" customHeight="1">
+    <row r="45" spans="1:36" ht="42.75" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>36</v>
@@ -3569,7 +3317,7 @@
       <c r="S45" s="8"/>
       <c r="T45" s="8"/>
       <c r="U45" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V45" s="8"/>
       <c r="W45" s="8"/>
@@ -3589,15 +3337,15 @@
       <c r="AI45" s="8"/>
       <c r="AJ45" s="8"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:36" ht="15.75" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3607,7 +3355,7 @@
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
@@ -3637,15 +3385,15 @@
       <c r="AI46" s="8"/>
       <c r="AJ46" s="8"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:36" ht="15.75" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3655,7 +3403,7 @@
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
@@ -3685,15 +3433,15 @@
       <c r="AI47" s="8"/>
       <c r="AJ47" s="8"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:36" ht="15.75" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3703,7 +3451,7 @@
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
@@ -3733,9 +3481,9 @@
       <c r="AI48" s="8"/>
       <c r="AJ48" s="8"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:36" ht="15.75" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
@@ -3773,7 +3521,7 @@
       <c r="AI49" s="8"/>
       <c r="AJ49" s="8"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:36" ht="15.75" customHeight="1">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -3785,12 +3533,12 @@
       <c r="AI50" s="4"/>
       <c r="AJ50" s="4"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:36" ht="15.75" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>36</v>
@@ -3833,12 +3581,12 @@
       <c r="AI51" s="10"/>
       <c r="AJ51" s="10"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:36" ht="15.75" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>36</v>
@@ -3861,7 +3609,7 @@
       <c r="S52" s="10"/>
       <c r="T52" s="10"/>
       <c r="U52" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V52" s="10"/>
       <c r="W52" s="10"/>
@@ -3876,17 +3624,17 @@
       <c r="AF52" s="10"/>
       <c r="AG52" s="10"/>
       <c r="AH52" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI52" s="10"/>
       <c r="AJ52" s="10"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:36" ht="15.75" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>36</v>
@@ -3909,7 +3657,7 @@
       <c r="S53" s="10"/>
       <c r="T53" s="10"/>
       <c r="U53" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="V53" s="10"/>
       <c r="W53" s="10"/>
@@ -3924,17 +3672,17 @@
       <c r="AF53" s="10"/>
       <c r="AG53" s="10"/>
       <c r="AH53" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AI53" s="10"/>
       <c r="AJ53" s="10"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:36" ht="15.75" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>36</v>
@@ -3957,7 +3705,7 @@
       <c r="S54" s="10"/>
       <c r="T54" s="10"/>
       <c r="U54" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V54" s="10"/>
       <c r="W54" s="10"/>
@@ -3972,17 +3720,17 @@
       <c r="AF54" s="10"/>
       <c r="AG54" s="10"/>
       <c r="AH54" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AI54" s="10"/>
       <c r="AJ54" s="10"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:36" ht="15.75" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>36</v>
@@ -4005,7 +3753,7 @@
       <c r="S55" s="10"/>
       <c r="T55" s="10"/>
       <c r="U55" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V55" s="10"/>
       <c r="W55" s="10"/>
@@ -4020,17 +3768,17 @@
       <c r="AF55" s="10"/>
       <c r="AG55" s="10"/>
       <c r="AH55" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AI55" s="10"/>
       <c r="AJ55" s="10"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:36" ht="15.75" customHeight="1">
       <c r="A56" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>36</v>
@@ -4053,7 +3801,7 @@
       <c r="S56" s="10"/>
       <c r="T56" s="10"/>
       <c r="U56" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="V56" s="10"/>
       <c r="W56" s="10"/>
@@ -4068,17 +3816,17 @@
       <c r="AF56" s="10"/>
       <c r="AG56" s="10"/>
       <c r="AH56" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AI56" s="10"/>
       <c r="AJ56" s="10"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:36" ht="15.75" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>36</v>
@@ -4101,7 +3849,7 @@
       <c r="S57" s="10"/>
       <c r="T57" s="10"/>
       <c r="U57" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V57" s="10"/>
       <c r="W57" s="10"/>
@@ -4116,17 +3864,17 @@
       <c r="AF57" s="10"/>
       <c r="AG57" s="10"/>
       <c r="AH57" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AI57" s="10"/>
       <c r="AJ57" s="10"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:36" ht="15.75" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>36</v>
@@ -4149,7 +3897,7 @@
       <c r="S58" s="10"/>
       <c r="T58" s="10"/>
       <c r="U58" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V58" s="10"/>
       <c r="W58" s="10"/>
@@ -4164,17 +3912,17 @@
       <c r="AF58" s="10"/>
       <c r="AG58" s="10"/>
       <c r="AH58" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AI58" s="10"/>
       <c r="AJ58" s="10"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:36" ht="15.75" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>36</v>
@@ -4197,7 +3945,7 @@
       <c r="S59" s="10"/>
       <c r="T59" s="10"/>
       <c r="U59" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V59" s="10"/>
       <c r="W59" s="10"/>
@@ -4212,17 +3960,17 @@
       <c r="AF59" s="10"/>
       <c r="AG59" s="10"/>
       <c r="AH59" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AI59" s="10"/>
       <c r="AJ59" s="10"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:36" ht="15.75" customHeight="1">
       <c r="A60" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>36</v>
@@ -4245,7 +3993,7 @@
       <c r="S60" s="10"/>
       <c r="T60" s="10"/>
       <c r="U60" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V60" s="10"/>
       <c r="W60" s="10"/>
@@ -4260,17 +4008,17 @@
       <c r="AF60" s="10"/>
       <c r="AG60" s="10"/>
       <c r="AH60" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AI60" s="10"/>
       <c r="AJ60" s="10"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:36" ht="15.75" customHeight="1">
       <c r="A61" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>36</v>
@@ -4293,7 +4041,7 @@
       <c r="S61" s="10"/>
       <c r="T61" s="10"/>
       <c r="U61" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="V61" s="10"/>
       <c r="W61" s="10"/>
@@ -4308,17 +4056,17 @@
       <c r="AF61" s="10"/>
       <c r="AG61" s="10"/>
       <c r="AH61" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AI61" s="10"/>
       <c r="AJ61" s="10"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:36" ht="15.75" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>36</v>
@@ -4341,7 +4089,7 @@
       <c r="S62" s="10"/>
       <c r="T62" s="10"/>
       <c r="U62" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="V62" s="10"/>
       <c r="W62" s="10"/>
@@ -4356,17 +4104,17 @@
       <c r="AF62" s="10"/>
       <c r="AG62" s="10"/>
       <c r="AH62" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AI62" s="10"/>
       <c r="AJ62" s="10"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:36" ht="15.75" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>36</v>
@@ -4389,7 +4137,7 @@
       <c r="S63" s="10"/>
       <c r="T63" s="10"/>
       <c r="U63" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V63" s="10"/>
       <c r="W63" s="10"/>
@@ -4404,17 +4152,17 @@
       <c r="AF63" s="10"/>
       <c r="AG63" s="10"/>
       <c r="AH63" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AI63" s="10"/>
       <c r="AJ63" s="10"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:36" ht="15.75" customHeight="1">
       <c r="A64" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>36</v>
@@ -4453,12 +4201,12 @@
       <c r="AI64" s="12"/>
       <c r="AJ64" s="12"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:36" ht="15.75" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>36</v>
@@ -4481,7 +4229,7 @@
       <c r="S65" s="10"/>
       <c r="T65" s="10"/>
       <c r="U65" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V65" s="10"/>
       <c r="W65" s="10"/>
@@ -4496,17 +4244,17 @@
       <c r="AF65" s="10"/>
       <c r="AG65" s="10"/>
       <c r="AH65" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AI65" s="10"/>
       <c r="AJ65" s="10"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:36" ht="15.75" customHeight="1">
       <c r="A66" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>36</v>
@@ -4529,7 +4277,7 @@
       <c r="S66" s="10"/>
       <c r="T66" s="10"/>
       <c r="U66" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="V66" s="10"/>
       <c r="W66" s="10"/>
@@ -4544,17 +4292,17 @@
       <c r="AF66" s="10"/>
       <c r="AG66" s="10"/>
       <c r="AH66" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AI66" s="10"/>
       <c r="AJ66" s="10"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:36" ht="15.75" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>36</v>
@@ -4577,7 +4325,7 @@
       <c r="S67" s="10"/>
       <c r="T67" s="10"/>
       <c r="U67" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="V67" s="10"/>
       <c r="W67" s="10"/>
@@ -4592,17 +4340,17 @@
       <c r="AF67" s="10"/>
       <c r="AG67" s="10"/>
       <c r="AH67" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AI67" s="10"/>
       <c r="AJ67" s="10"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:36" ht="15.75" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>36</v>
@@ -4625,7 +4373,7 @@
       <c r="S68" s="10"/>
       <c r="T68" s="10"/>
       <c r="U68" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="V68" s="10"/>
       <c r="W68" s="10"/>
@@ -4645,12 +4393,12 @@
       <c r="AI68" s="10"/>
       <c r="AJ68" s="10"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:36" ht="15.75" customHeight="1">
       <c r="A69" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>36</v>
@@ -4673,7 +4421,7 @@
       <c r="S69" s="10"/>
       <c r="T69" s="10"/>
       <c r="U69" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V69" s="10"/>
       <c r="W69" s="10"/>
@@ -4688,17 +4436,17 @@
       <c r="AF69" s="10"/>
       <c r="AG69" s="10"/>
       <c r="AH69" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AI69" s="10"/>
       <c r="AJ69" s="10"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:36" ht="15.75" customHeight="1">
       <c r="A70" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>36</v>
@@ -4721,7 +4469,7 @@
       <c r="S70" s="10"/>
       <c r="T70" s="10"/>
       <c r="U70" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="V70" s="10"/>
       <c r="W70" s="10"/>
@@ -4736,17 +4484,17 @@
       <c r="AF70" s="10"/>
       <c r="AG70" s="10"/>
       <c r="AH70" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AI70" s="10"/>
       <c r="AJ70" s="10"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:36" ht="15.75" customHeight="1">
       <c r="A71" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -4783,12 +4531,12 @@
       <c r="AI71" s="12"/>
       <c r="AJ71" s="12"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:36" ht="15.75" customHeight="1">
       <c r="A72" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C72" s="12"/>
       <c r="D72" s="12"/>
@@ -4826,46 +4574,38 @@
       <c r="AJ72" s="12"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{0065004E-0081-48E1-A2BE-0096004A0022}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"yes,no"</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J72</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J72" xr:uid="{0065004E-0081-48E1-A2BE-0096004A0022}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.289999999999999"/>
-    <col customWidth="1" min="2" max="22" width="45.859999999999999"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="22" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -4905,15 +4645,15 @@
       <c r="U1" s="21"/>
       <c r="V1" s="21"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:22" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -4935,15 +4675,15 @@
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>177</v>
-      </c>
       <c r="C3" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -4965,7 +4705,7 @@
       <c r="U3" s="23"/>
       <c r="V3" s="23"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:22" ht="15.75" customHeight="1">
       <c r="A4" s="21"/>
       <c r="B4" s="21"/>
       <c r="C4" s="22"/>
@@ -4989,244 +4729,243 @@
       <c r="U4" s="23"/>
       <c r="V4" s="23"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:22" ht="15.75" customHeight="1">
       <c r="C5" s="23"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:22" ht="15.75" customHeight="1">
       <c r="C6" s="23"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1">
       <c r="C7" s="23"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:22" ht="15.75" customHeight="1">
       <c r="C8" s="23"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:22" ht="15.75" customHeight="1">
       <c r="C9" s="23"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:22" ht="15.75" customHeight="1">
       <c r="C10" s="23"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:22" ht="15.75" customHeight="1">
       <c r="C11" s="23"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1">
       <c r="C12" s="23"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1">
       <c r="C13" s="23"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:22" ht="15.75" customHeight="1">
       <c r="C14" s="23"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:22" ht="15.75" customHeight="1">
       <c r="C15" s="23"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1">
       <c r="C16" s="23"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="3:3" ht="15.75" customHeight="1">
       <c r="C17" s="23"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="3:3" ht="15.75" customHeight="1">
       <c r="C18" s="23"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="3:3" ht="15.75" customHeight="1">
       <c r="C19" s="23"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="3:3" ht="15.75" customHeight="1">
       <c r="C20" s="23"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="3:3" ht="15.75" customHeight="1">
       <c r="C21" s="23"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="3:3" ht="15.75" customHeight="1">
       <c r="C22" s="23"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="3:3" ht="15.75" customHeight="1">
       <c r="C23" s="23"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="3:3" ht="15.75" customHeight="1">
       <c r="C24" s="23"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="3:3" ht="15.75" customHeight="1">
       <c r="C25" s="23"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="3:3" ht="15.75" customHeight="1">
       <c r="C26" s="23"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="3:3" ht="15.75" customHeight="1">
       <c r="C27" s="23"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="3:3" ht="15.75" customHeight="1">
       <c r="C28" s="23"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="3:3" ht="15.75" customHeight="1">
       <c r="C29" s="23"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="3:3" ht="15.75" customHeight="1">
       <c r="C30" s="23"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="3:3" ht="15.75" customHeight="1">
       <c r="C31" s="23"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="3:3" ht="15.75" customHeight="1">
       <c r="C32" s="23"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="3:3" ht="15.75" customHeight="1">
       <c r="C33" s="23"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="3:3" ht="15.75" customHeight="1">
       <c r="C34" s="23"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="3:3" ht="15.75" customHeight="1">
       <c r="C35" s="23"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="3:3" ht="15.75" customHeight="1">
       <c r="C36" s="23"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="3:3" ht="15.75" customHeight="1">
       <c r="C37" s="23"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="3:3" ht="15.75" customHeight="1">
       <c r="C38" s="23"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="3:3" ht="15.75" customHeight="1">
       <c r="C39" s="23"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="3:3" ht="15.75" customHeight="1">
       <c r="C40" s="23"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="3:3" ht="15.75" customHeight="1">
       <c r="C41" s="23"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="3:3" ht="15.75" customHeight="1">
       <c r="C42" s="23"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="3:3" ht="15.75" customHeight="1">
       <c r="C43" s="23"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="3:3" ht="15.75" customHeight="1">
       <c r="C44" s="23"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="3:3" ht="15.75" customHeight="1">
       <c r="C45" s="23"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="3:3" ht="15.75" customHeight="1">
       <c r="C46" s="23"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="3:3" ht="15.75" customHeight="1">
       <c r="C47" s="23"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="3:3" ht="15.75" customHeight="1">
       <c r="C48" s="23"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="3:3" ht="15.75" customHeight="1">
       <c r="C49" s="23"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="3:3" ht="15.75" customHeight="1">
       <c r="C50" s="23"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="3:3" ht="15.75" customHeight="1">
       <c r="C51" s="23"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="3:3" ht="15.75" customHeight="1">
       <c r="C52" s="23"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="3:3" ht="15.75" customHeight="1">
       <c r="C53" s="23"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="3:3" ht="15.75" customHeight="1">
       <c r="C54" s="23"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="3:3" ht="15.75" customHeight="1">
       <c r="C55" s="23"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="3:3" ht="15.75" customHeight="1">
       <c r="C56" s="23"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="3:3" ht="15.75" customHeight="1">
       <c r="C57" s="23"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="3:3" ht="15.75" customHeight="1">
       <c r="C58" s="23"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="3:3" ht="15.75" customHeight="1">
       <c r="C59" s="23"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="3:3" ht="15.75" customHeight="1">
       <c r="C60" s="23"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="3:3" ht="15.75" customHeight="1">
       <c r="C61" s="23"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="3:3" ht="15.75" customHeight="1">
       <c r="C62" s="23"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="3:3" ht="15.75" customHeight="1">
       <c r="C63" s="23"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="3:3" ht="15.75" customHeight="1">
       <c r="C64" s="23"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="3:3" ht="15.75" customHeight="1">
       <c r="C65" s="23"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="3:3" ht="15.75" customHeight="1">
       <c r="C66" s="23"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="3:3" ht="15.75" customHeight="1">
       <c r="C67" s="23"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21"/>
-    <col customWidth="1" min="2" max="2" width="22.710000000000001"/>
-    <col customWidth="1" min="3" max="3" width="24.57"/>
-    <col customWidth="1" min="4" max="6" width="14.43"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="24" t="s">
         <v>183</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>185</v>
       </c>
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
@@ -5248,26 +4987,26 @@
       <c r="Y1" s="13"/>
       <c r="Z1" s="13"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C2" s="26">
         <f ca="1">NOW()</f>
-        <v>44830.384317129632</v>
+        <v>45778.931790625</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -5290,34 +5029,33 @@
       <c r="Z2" s="21"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.289999999999999"/>
-    <col customWidth="1" min="2" max="23" width="45.859999999999999"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="23" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1">
       <c r="A1" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>1</v>
@@ -5358,15 +5096,15 @@
       <c r="V1" s="21"/>
       <c r="W1" s="21"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D2" s="23"/>
       <c r="E2" s="23"/>
@@ -5389,15 +5127,15 @@
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1">
       <c r="A3" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>177</v>
-      </c>
       <c r="C3" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -5420,7 +5158,7 @@
       <c r="V3" s="23"/>
       <c r="W3" s="23"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -5445,15 +5183,15 @@
       <c r="V4" s="23"/>
       <c r="W4" s="23"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1">
       <c r="A5" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>190</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>192</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -5476,15 +5214,15 @@
       <c r="V5" s="23"/>
       <c r="W5" s="23"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1">
       <c r="A6" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -5507,15 +5245,15 @@
       <c r="V6" s="23"/>
       <c r="W6" s="23"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1">
       <c r="A7" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
@@ -5538,15 +5276,15 @@
       <c r="V7" s="23"/>
       <c r="W7" s="23"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1">
       <c r="A8" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
@@ -5569,15 +5307,15 @@
       <c r="V8" s="23"/>
       <c r="W8" s="23"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1">
       <c r="A9" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="23"/>
@@ -5600,7 +5338,7 @@
       <c r="V9" s="23"/>
       <c r="W9" s="23"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1">
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -5625,15 +5363,15 @@
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1">
       <c r="A11" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>201</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>203</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -5656,15 +5394,15 @@
       <c r="V11" s="23"/>
       <c r="W11" s="23"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1">
       <c r="A12" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
@@ -5687,15 +5425,15 @@
       <c r="V12" s="23"/>
       <c r="W12" s="23"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1">
       <c r="A13" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="23"/>
@@ -5718,15 +5456,15 @@
       <c r="V13" s="23"/>
       <c r="W13" s="23"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1">
       <c r="A14" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
@@ -5749,15 +5487,15 @@
       <c r="V14" s="23"/>
       <c r="W14" s="23"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1">
       <c r="A15" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -5780,15 +5518,15 @@
       <c r="V15" s="23"/>
       <c r="W15" s="23"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1">
       <c r="A16" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
@@ -5811,7 +5549,7 @@
       <c r="V16" s="23"/>
       <c r="W16" s="23"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1">
       <c r="A17" s="23"/>
       <c r="B17" s="23"/>
       <c r="C17" s="23"/>
@@ -5836,15 +5574,15 @@
       <c r="V17" s="23"/>
       <c r="W17" s="23"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1">
       <c r="A18" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
@@ -5867,15 +5605,15 @@
       <c r="V18" s="23"/>
       <c r="W18" s="23"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1">
       <c r="A19" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -5898,15 +5636,15 @@
       <c r="V19" s="23"/>
       <c r="W19" s="23"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1">
       <c r="A20" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
@@ -5929,15 +5667,15 @@
       <c r="V20" s="23"/>
       <c r="W20" s="23"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1">
       <c r="A21" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -5960,15 +5698,15 @@
       <c r="V21" s="23"/>
       <c r="W21" s="23"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1">
       <c r="A22" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
@@ -5991,15 +5729,15 @@
       <c r="V22" s="23"/>
       <c r="W22" s="23"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1">
       <c r="A23" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="23" t="s">
         <v>214</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>216</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="23"/>
@@ -6022,7 +5760,7 @@
       <c r="V23" s="23"/>
       <c r="W23" s="23"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1">
       <c r="A24" s="23"/>
       <c r="B24" s="23"/>
       <c r="C24" s="23"/>
@@ -6047,15 +5785,15 @@
       <c r="V24" s="23"/>
       <c r="W24" s="23"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1">
       <c r="A25" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>217</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>219</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="23"/>
@@ -6078,15 +5816,15 @@
       <c r="V25" s="23"/>
       <c r="W25" s="23"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1">
       <c r="A26" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
@@ -6109,15 +5847,15 @@
       <c r="V26" s="23"/>
       <c r="W26" s="23"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1">
       <c r="A27" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -6140,15 +5878,15 @@
       <c r="V27" s="23"/>
       <c r="W27" s="23"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1">
       <c r="A28" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -6171,15 +5909,15 @@
       <c r="V28" s="23"/>
       <c r="W28" s="23"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1">
       <c r="A29" s="23" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -6202,7 +5940,7 @@
       <c r="V29" s="23"/>
       <c r="W29" s="23"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1">
       <c r="A30" s="23"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -6227,15 +5965,15 @@
       <c r="V30" s="23"/>
       <c r="W30" s="23"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1">
       <c r="A31" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B31" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -6258,15 +5996,15 @@
       <c r="V31" s="23"/>
       <c r="W31" s="23"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1">
       <c r="A32" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="B32" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="B32" s="23" t="s">
-        <v>230</v>
-      </c>
       <c r="C32" s="23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
@@ -6289,7 +6027,7 @@
       <c r="V32" s="23"/>
       <c r="W32" s="23"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1">
       <c r="A33" s="23"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23"/>
@@ -6314,170 +6052,170 @@
       <c r="V33" s="23"/>
       <c r="W33" s="23"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B47" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B43" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C43" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15.75" customHeight="1">
       <c r="B44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15.75" customHeight="1">
       <c r="B47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1">
       <c r="A48" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C48" s="22" t="s">
         <v>244</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>246</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
@@ -6500,15 +6238,15 @@
       <c r="V48" s="21"/>
       <c r="W48" s="21"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1">
       <c r="A49" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
@@ -6531,237 +6269,237 @@
       <c r="V49" s="21"/>
       <c r="W49" s="21"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1">
       <c r="A51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" t="s">
         <v>249</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="52" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A52" t="s">
+        <v>247</v>
+      </c>
+      <c r="B52" t="s">
         <v>250</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" t="s">
-        <v>249</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="53" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A53" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53" t="s">
         <v>252</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" t="s">
-        <v>249</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="54" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A54" t="s">
+        <v>247</v>
+      </c>
+      <c r="B54" t="s">
         <v>254</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" t="s">
-        <v>249</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="55" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A55" t="s">
+        <v>247</v>
+      </c>
+      <c r="B55" t="s">
         <v>256</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" t="s">
-        <v>249</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="56" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A56" t="s">
+        <v>247</v>
+      </c>
+      <c r="B56" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A58" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B58" s="22" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" t="s">
-        <v>249</v>
-      </c>
-      <c r="B56" t="s">
-        <v>226</v>
-      </c>
-      <c r="C56" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="22" t="s">
+      <c r="C58" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="B58" s="22" t="s">
+    </row>
+    <row r="59" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A59" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B59" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C59" s="22" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="B59" s="22" t="s">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A60" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B60" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C60" s="22" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="B60" s="22" t="s">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A61" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A63" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="B63" s="21" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="B61" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="C61" s="22" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="21" t="s">
+      <c r="C63" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="B63" s="21" t="s">
+    </row>
+    <row r="64" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A64" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B64" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C64" s="22" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B64" s="21" t="s">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A65" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B65" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C65" s="22" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B65" s="21" t="s">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A66" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66" s="21" t="s">
         <v>272</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C66" s="22" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B66" s="21" t="s">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A67" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="B67" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C67" s="22" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B67" s="21" t="s">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A69" t="s">
         <v>276</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="B69" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" t="s">
+      <c r="C69" t="s">
         <v>278</v>
       </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A70" t="s">
+        <v>276</v>
+      </c>
+      <c r="B70" t="s">
         <v>279</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" t="s">
-        <v>278</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A72" t="s">
         <v>281</v>
       </c>
-      <c r="C70" t="s">
+      <c r="B72" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" t="s">
+      <c r="C72" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A73" t="s">
+        <v>281</v>
+      </c>
+      <c r="B73" t="s">
         <v>283</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C73" t="s">
         <v>284</v>
       </c>
-      <c r="C72" s="28" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" t="s">
-        <v>283</v>
-      </c>
-      <c r="B73" t="s">
-        <v>285</v>
-      </c>
-      <c r="C73" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B74" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C74" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -7683,9 +7421,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
 </worksheet>
 </file>